--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19627" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19628" uniqueCount="1165">
   <si>
     <t>Path</t>
   </si>
@@ -1242,7 +1242,10 @@
     <t>Some insurers need a declaration of the type of relationship.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/RelatedClaimVS</t>
+    <t>Relationship of this claim to a related Claim.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.related.reference</t>
@@ -1647,7 +1650,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/InformationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.id</t>
@@ -1657,9 +1660,6 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.coding</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.text</t>
@@ -3143,7 +3143,7 @@
     <t>Needed to convey the type of total provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -11081,11 +11081,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -11132,7 +11134,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -11158,16 +11160,16 @@
         <v>159</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
@@ -11216,7 +11218,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -11245,7 +11247,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -11268,17 +11270,17 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
@@ -11327,7 +11329,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -11356,7 +11358,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -11379,19 +11381,19 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -11440,7 +11442,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -11469,7 +11471,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11495,16 +11497,16 @@
         <v>374</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -11553,7 +11555,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -11582,7 +11584,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11691,7 +11693,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11802,7 +11804,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11915,7 +11917,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11941,14 +11943,14 @@
         <v>180</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -11977,7 +11979,7 @@
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>43</v>
@@ -11995,7 +11997,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -12024,7 +12026,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -12047,19 +12049,19 @@
         <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>43</v>
@@ -12108,7 +12110,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -12137,7 +12139,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -12160,19 +12162,19 @@
         <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -12221,7 +12223,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -12239,7 +12241,7 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>43</v>
@@ -12250,7 +12252,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -12273,17 +12275,17 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -12332,7 +12334,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -12347,10 +12349,10 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
@@ -12361,7 +12363,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -12387,14 +12389,14 @@
         <v>387</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12443,7 +12445,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -12461,7 +12463,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -12472,7 +12474,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12495,17 +12497,17 @@
         <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12554,7 +12556,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12583,7 +12585,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12609,16 +12611,16 @@
         <v>126</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -12646,10 +12648,10 @@
         <v>174</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>43</v>
@@ -12667,7 +12669,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>50</v>
@@ -12696,7 +12698,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12722,14 +12724,14 @@
         <v>52</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12778,7 +12780,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12807,7 +12809,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12833,16 +12835,16 @@
         <v>52</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12891,7 +12893,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12920,7 +12922,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12946,16 +12948,16 @@
         <v>207</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -13004,7 +13006,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -13033,7 +13035,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -13059,14 +13061,14 @@
         <v>374</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -13115,7 +13117,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -13144,7 +13146,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -13253,7 +13255,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -13364,7 +13366,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13477,7 +13479,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13500,17 +13502,17 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13559,7 +13561,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>50</v>
@@ -13588,7 +13590,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13611,17 +13613,17 @@
         <v>43</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -13670,7 +13672,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>50</v>
@@ -13688,7 +13690,7 @@
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>43</v>
@@ -13699,7 +13701,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13725,16 +13727,16 @@
         <v>284</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13783,7 +13785,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13812,7 +13814,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13838,16 +13840,16 @@
         <v>180</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13876,7 +13878,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
@@ -13894,7 +13896,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13923,7 +13925,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13949,14 +13951,14 @@
         <v>180</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13984,10 +13986,10 @@
         <v>116</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>43</v>
@@ -14005,7 +14007,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -14034,7 +14036,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -14060,16 +14062,16 @@
         <v>374</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>43</v>
@@ -14106,7 +14108,7 @@
         <v>43</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>164</v>
@@ -14118,7 +14120,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -14147,7 +14149,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -14256,7 +14258,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14367,7 +14369,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14480,7 +14482,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14503,17 +14505,17 @@
         <v>43</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14562,7 +14564,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>50</v>
@@ -14591,7 +14593,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14617,16 +14619,16 @@
         <v>180</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14655,7 +14657,7 @@
       </c>
       <c r="X98" s="2"/>
       <c r="Y98" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>43</v>
@@ -14673,7 +14675,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>50</v>
@@ -14702,7 +14704,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14811,7 +14813,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14922,7 +14924,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14986,7 +14988,7 @@
       </c>
       <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>43</v>
@@ -15594,7 +15596,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>556</v>
@@ -15625,13 +15627,13 @@
         <v>557</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15680,7 +15682,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -15709,7 +15711,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15818,7 +15820,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15929,7 +15931,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -16042,7 +16044,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -16065,17 +16067,17 @@
         <v>43</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>43</v>
@@ -16124,7 +16126,7 @@
         <v>43</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>50</v>
@@ -16153,7 +16155,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16179,16 +16181,16 @@
         <v>180</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>43</v>
@@ -16217,7 +16219,7 @@
       </c>
       <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -16235,7 +16237,7 @@
         <v>43</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>50</v>
@@ -16264,7 +16266,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16373,7 +16375,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16484,7 +16486,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16548,7 +16550,7 @@
       </c>
       <c r="X115" s="2"/>
       <c r="Y115" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>43</v>
@@ -17933,7 +17935,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>566</v>
@@ -17964,13 +17966,13 @@
         <v>567</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -18019,7 +18021,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -18048,7 +18050,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -18157,7 +18159,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18268,7 +18270,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18381,7 +18383,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18404,17 +18406,17 @@
         <v>43</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18463,7 +18465,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>50</v>
@@ -18492,7 +18494,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18518,16 +18520,16 @@
         <v>180</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18556,7 +18558,7 @@
       </c>
       <c r="X133" s="2"/>
       <c r="Y133" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>43</v>
@@ -18574,7 +18576,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>50</v>
@@ -18603,7 +18605,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18712,7 +18714,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18823,7 +18825,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18887,7 +18889,7 @@
       </c>
       <c r="X136" s="2"/>
       <c r="Y136" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>43</v>
@@ -20272,7 +20274,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>568</v>
@@ -20303,13 +20305,13 @@
         <v>569</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>43</v>
@@ -20358,7 +20360,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -20387,7 +20389,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20496,7 +20498,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20607,7 +20609,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20720,7 +20722,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20743,17 +20745,17 @@
         <v>43</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20802,7 +20804,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>50</v>
@@ -20831,7 +20833,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20857,16 +20859,16 @@
         <v>180</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20895,7 +20897,7 @@
       </c>
       <c r="X154" s="2"/>
       <c r="Y154" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
@@ -20913,7 +20915,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>50</v>
@@ -20942,7 +20944,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21051,7 +21053,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -21162,7 +21164,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21226,7 +21228,7 @@
       </c>
       <c r="X157" s="2"/>
       <c r="Y157" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>43</v>
@@ -22613,7 +22615,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>571</v>
@@ -22644,13 +22646,13 @@
         <v>572</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22699,7 +22701,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22728,7 +22730,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22837,7 +22839,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22948,7 +22950,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23061,7 +23063,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -23084,17 +23086,17 @@
         <v>43</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -23143,7 +23145,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>50</v>
@@ -23172,7 +23174,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23198,16 +23200,16 @@
         <v>180</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -23236,7 +23238,7 @@
       </c>
       <c r="X175" s="2"/>
       <c r="Y175" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>43</v>
@@ -23254,7 +23256,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>50</v>
@@ -23283,7 +23285,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23392,7 +23394,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23503,7 +23505,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23567,7 +23569,7 @@
       </c>
       <c r="X178" s="2"/>
       <c r="Y178" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>43</v>
@@ -24952,7 +24954,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>574</v>
@@ -24983,13 +24985,13 @@
         <v>575</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -25038,7 +25040,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>41</v>
@@ -25067,7 +25069,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25176,7 +25178,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25287,7 +25289,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25400,7 +25402,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25423,17 +25425,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25482,7 +25484,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>50</v>
@@ -25511,7 +25513,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25537,16 +25539,16 @@
         <v>180</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25575,7 +25577,7 @@
       </c>
       <c r="X196" s="2"/>
       <c r="Y196" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z196" t="s" s="2">
         <v>43</v>
@@ -25593,7 +25595,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>50</v>
@@ -25622,7 +25624,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25731,7 +25733,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25842,7 +25844,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25906,7 +25908,7 @@
       </c>
       <c r="X199" s="2"/>
       <c r="Y199" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z199" t="s" s="2">
         <v>43</v>
@@ -27291,7 +27293,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>578</v>
@@ -27322,13 +27324,13 @@
         <v>579</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27377,7 +27379,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27406,7 +27408,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27515,7 +27517,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27626,7 +27628,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27739,7 +27741,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27762,17 +27764,17 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27821,7 +27823,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>50</v>
@@ -27850,7 +27852,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27876,16 +27878,16 @@
         <v>180</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27914,7 +27916,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
@@ -27932,7 +27934,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>50</v>
@@ -27961,7 +27963,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -28070,7 +28072,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -28181,7 +28183,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28245,7 +28247,7 @@
       </c>
       <c r="X220" s="2"/>
       <c r="Y220" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>43</v>
@@ -29630,7 +29632,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>581</v>
@@ -29661,13 +29663,13 @@
         <v>582</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29716,7 +29718,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29745,7 +29747,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29854,7 +29856,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29965,7 +29967,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -30078,7 +30080,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -30101,17 +30103,17 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30160,7 +30162,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>50</v>
@@ -30189,7 +30191,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30215,16 +30217,16 @@
         <v>180</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30253,7 +30255,7 @@
       </c>
       <c r="X238" s="2"/>
       <c r="Y238" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z238" t="s" s="2">
         <v>43</v>
@@ -30271,7 +30273,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>50</v>
@@ -30300,7 +30302,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30409,7 +30411,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30520,7 +30522,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30584,7 +30586,7 @@
       </c>
       <c r="X241" s="2"/>
       <c r="Y241" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
@@ -32436,7 +32438,7 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K258" t="s" s="2">
         <v>592</v>
@@ -33437,7 +33439,7 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K267" t="s" s="2">
         <v>628</v>
@@ -33992,7 +33994,7 @@
         <v>43</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K272" t="s" s="2">
         <v>651</v>
@@ -37679,7 +37681,7 @@
         <v>43</v>
       </c>
       <c r="J305" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K305" t="s" s="2">
         <v>717</v>
@@ -37790,7 +37792,7 @@
         <v>43</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K306" t="s" s="2">
         <v>721</v>
@@ -37901,7 +37903,7 @@
         <v>43</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K307" t="s" s="2">
         <v>725</v>
@@ -38012,7 +38014,7 @@
         <v>43</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K308" t="s" s="2">
         <v>729</v>
@@ -38123,7 +38125,7 @@
         <v>43</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K309" t="s" s="2">
         <v>733</v>
@@ -38979,7 +38981,7 @@
         <v>43</v>
       </c>
       <c r="AK316" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL316" t="s" s="2">
         <v>43</v>
@@ -39907,7 +39909,7 @@
         <v>43</v>
       </c>
       <c r="J325" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K325" t="s" s="2">
         <v>819</v>
@@ -40065,7 +40067,7 @@
         <v>43</v>
       </c>
       <c r="AA326" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB326" t="s" s="2">
         <v>164</v>
@@ -46490,7 +46492,7 @@
         <v>43</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K384" t="s" s="2">
         <v>710</v>
@@ -47723,7 +47725,7 @@
         <v>43</v>
       </c>
       <c r="J395" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K395" t="s" s="2">
         <v>819</v>
@@ -48385,7 +48387,7 @@
         <v>43</v>
       </c>
       <c r="J401" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K401" t="s" s="2">
         <v>710</v>
@@ -49618,7 +49620,7 @@
         <v>43</v>
       </c>
       <c r="J412" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K412" t="s" s="2">
         <v>819</v>
@@ -50282,7 +50284,7 @@
         <v>43</v>
       </c>
       <c r="J418" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K418" t="s" s="2">
         <v>929</v>
@@ -50393,7 +50395,7 @@
         <v>43</v>
       </c>
       <c r="J419" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K419" t="s" s="2">
         <v>933</v>
@@ -50504,7 +50506,7 @@
         <v>43</v>
       </c>
       <c r="J420" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K420" t="s" s="2">
         <v>937</v>
@@ -50615,7 +50617,7 @@
         <v>43</v>
       </c>
       <c r="J421" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K421" t="s" s="2">
         <v>941</v>
@@ -51253,7 +51255,7 @@
         <v>43</v>
       </c>
       <c r="AK426" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL426" t="s" s="2">
         <v>43</v>
@@ -51959,7 +51961,7 @@
         <v>43</v>
       </c>
       <c r="J433" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K433" t="s" s="2">
         <v>819</v>
@@ -53295,7 +53297,7 @@
         <v>43</v>
       </c>
       <c r="J445" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K445" t="s" s="2">
         <v>819</v>
@@ -54631,7 +54633,7 @@
         <v>43</v>
       </c>
       <c r="J457" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K457" t="s" s="2">
         <v>819</v>
@@ -54898,7 +54900,7 @@
         <v>43</v>
       </c>
       <c r="AA459" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB459" t="s" s="2">
         <v>164</v>
@@ -63329,7 +63331,7 @@
         <v>43</v>
       </c>
       <c r="J535" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K535" t="s" s="2">
         <v>1081</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -17611,7 +17611,7 @@
         <v>41</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>51</v>
@@ -17720,7 +17720,7 @@
         <v>41</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>51</v>
@@ -19950,7 +19950,7 @@
         <v>41</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>51</v>
@@ -20059,7 +20059,7 @@
         <v>41</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>51</v>
@@ -22400,7 +22400,7 @@
         <v>41</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>51</v>
@@ -24630,7 +24630,7 @@
         <v>41</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>51</v>
@@ -24739,7 +24739,7 @@
         <v>41</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>51</v>
@@ -26969,7 +26969,7 @@
         <v>41</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>51</v>
@@ -27078,7 +27078,7 @@
         <v>41</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>51</v>
@@ -29308,7 +29308,7 @@
         <v>41</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>51</v>
@@ -29417,7 +29417,7 @@
         <v>41</v>
       </c>
       <c r="F231" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G231" t="s" s="2">
         <v>51</v>
@@ -31647,7 +31647,7 @@
         <v>41</v>
       </c>
       <c r="F251" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G251" t="s" s="2">
         <v>51</v>
@@ -31756,7 +31756,7 @@
         <v>41</v>
       </c>
       <c r="F252" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G252" t="s" s="2">
         <v>51</v>
@@ -41459,7 +41459,7 @@
         <v>41</v>
       </c>
       <c r="F339" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G339" t="s" s="2">
         <v>43</v>
@@ -41685,7 +41685,7 @@
         <v>41</v>
       </c>
       <c r="F341" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G341" t="s" s="2">
         <v>43</v>
@@ -43691,7 +43691,7 @@
         <v>41</v>
       </c>
       <c r="F359" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G359" t="s" s="2">
         <v>43</v>
@@ -43804,7 +43804,7 @@
         <v>41</v>
       </c>
       <c r="F360" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G360" t="s" s="2">
         <v>43</v>
@@ -45699,7 +45699,7 @@
         <v>41</v>
       </c>
       <c r="F377" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G377" t="s" s="2">
         <v>43</v>
@@ -45812,7 +45812,7 @@
         <v>41</v>
       </c>
       <c r="F378" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G378" t="s" s="2">
         <v>43</v>
@@ -56292,7 +56292,7 @@
         <v>41</v>
       </c>
       <c r="F472" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G472" t="s" s="2">
         <v>43</v>
@@ -56518,7 +56518,7 @@
         <v>41</v>
       </c>
       <c r="F474" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G474" t="s" s="2">
         <v>43</v>
@@ -58524,7 +58524,7 @@
         <v>41</v>
       </c>
       <c r="F492" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G492" t="s" s="2">
         <v>43</v>
@@ -58637,7 +58637,7 @@
         <v>41</v>
       </c>
       <c r="F493" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G493" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -2642,7 +2642,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjustmentAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationPayerValueCodesVS</t>
   </si>
   <si>
     <t>denialreason</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -1887,7 +1887,7 @@
     <t>Often required to capture a particular diagnosis, for example: primary or discharge.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/DiagnosisTypeFacilityVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerOutpatientfacilitydiagnosistype</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.onAdmission</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -32198,7 +32198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
         <v>595</v>
       </c>
@@ -32210,13 +32210,13 @@
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G256" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H256" t="s" s="2">
         <v>43</v>
@@ -33542,7 +33542,7 @@
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F268" t="s" s="2">
         <v>50</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -2491,7 +2491,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationPayerValueCodesVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodesVS</t>
   </si>
   <si>
     <t>denialreason</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -766,13 +766,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/ValueSet/claim-type"/&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/claim-type"/&gt;
     &lt;code value="#institutional"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-type</t>
+    <t>http://terminology.hl7.org/CodeSystem/claim-type</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -767,7 +767,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/claim-type"/&gt;
-    &lt;code value="#institutional"/&gt;
+    &lt;code value="institutional"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14422" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14422" uniqueCount="1083">
   <si>
     <t>Path</t>
   </si>
@@ -2911,14 +2911,6 @@
   </si>
   <si>
     <t>Benefit Payment Status</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategoryCS"/&gt;
-    &lt;code value="inoutnetwork"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusVS</t>
@@ -43789,7 +43781,7 @@
         <v>43</v>
       </c>
       <c r="R361" t="s" s="2">
-        <v>927</v>
+        <v>43</v>
       </c>
       <c r="S361" t="s" s="2">
         <v>43</v>
@@ -43808,7 +43800,7 @@
       </c>
       <c r="X361" s="2"/>
       <c r="Y361" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Z361" t="s" s="2">
         <v>43</v>
@@ -44194,7 +44186,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44220,16 +44212,16 @@
         <v>316</v>
       </c>
       <c r="K365" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="L365" t="s" s="2">
         <v>930</v>
       </c>
-      <c r="L365" t="s" s="2">
+      <c r="M365" t="s" s="2">
         <v>931</v>
       </c>
-      <c r="M365" t="s" s="2">
+      <c r="N365" t="s" s="2">
         <v>932</v>
-      </c>
-      <c r="N365" t="s" s="2">
-        <v>933</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44278,7 +44270,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
@@ -44307,7 +44299,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44416,7 +44408,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44527,7 +44519,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44640,7 +44632,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44669,13 +44661,13 @@
         <v>768</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M369" t="s" s="2">
         <v>770</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44704,7 +44696,7 @@
       </c>
       <c r="X369" s="2"/>
       <c r="Y369" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="Z369" t="s" s="2">
         <v>43</v>
@@ -44722,7 +44714,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>50</v>
@@ -44751,7 +44743,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44777,14 +44769,14 @@
         <v>723</v>
       </c>
       <c r="K370" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="L370" t="s" s="2">
         <v>942</v>
-      </c>
-      <c r="L370" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="M370" s="2"/>
       <c r="N370" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44833,7 +44825,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>50</v>
@@ -44862,7 +44854,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44888,14 +44880,14 @@
         <v>316</v>
       </c>
       <c r="K371" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="L371" t="s" s="2">
         <v>946</v>
-      </c>
-      <c r="L371" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="M371" s="2"/>
       <c r="N371" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -44944,7 +44936,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
@@ -44973,7 +44965,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45082,7 +45074,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45193,7 +45185,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45306,7 +45298,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45332,14 +45324,14 @@
         <v>180</v>
       </c>
       <c r="K375" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="L375" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="L375" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45368,7 +45360,7 @@
       </c>
       <c r="X375" s="2"/>
       <c r="Y375" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Z375" t="s" s="2">
         <v>43</v>
@@ -45386,7 +45378,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45415,7 +45407,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45441,16 +45433,16 @@
         <v>723</v>
       </c>
       <c r="K376" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="L376" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="L376" t="s" s="2">
+      <c r="M376" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="M376" t="s" s="2">
+      <c r="N376" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="N376" t="s" s="2">
-        <v>961</v>
       </c>
       <c r="O376" t="s" s="2">
         <v>43</v>
@@ -45499,7 +45491,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>41</v>
@@ -45528,7 +45520,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45554,14 +45546,14 @@
         <v>180</v>
       </c>
       <c r="K377" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="L377" t="s" s="2">
         <v>963</v>
-      </c>
-      <c r="L377" t="s" s="2">
-        <v>964</v>
       </c>
       <c r="M377" s="2"/>
       <c r="N377" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O377" t="s" s="2">
         <v>43</v>
@@ -45608,7 +45600,7 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
@@ -45637,7 +45629,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45663,14 +45655,14 @@
         <v>506</v>
       </c>
       <c r="K378" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="L378" t="s" s="2">
         <v>967</v>
-      </c>
-      <c r="L378" t="s" s="2">
-        <v>968</v>
       </c>
       <c r="M378" s="2"/>
       <c r="N378" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45719,7 +45711,7 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
@@ -45748,7 +45740,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45774,14 +45766,14 @@
         <v>723</v>
       </c>
       <c r="K379" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L379" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="L379" t="s" s="2">
-        <v>972</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45830,7 +45822,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45859,7 +45851,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45885,16 +45877,16 @@
         <v>159</v>
       </c>
       <c r="K380" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L380" t="s" s="2">
         <v>975</v>
       </c>
-      <c r="L380" t="s" s="2">
+      <c r="M380" t="s" s="2">
         <v>976</v>
       </c>
-      <c r="M380" t="s" s="2">
+      <c r="N380" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="N380" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45943,7 +45935,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45972,7 +45964,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45998,16 +45990,16 @@
         <v>180</v>
       </c>
       <c r="K381" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="L381" t="s" s="2">
         <v>980</v>
       </c>
-      <c r="L381" t="s" s="2">
+      <c r="M381" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="M381" t="s" s="2">
+      <c r="N381" t="s" s="2">
         <v>982</v>
-      </c>
-      <c r="N381" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46035,11 +46027,11 @@
         <v>116</v>
       </c>
       <c r="X381" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="Y381" t="s" s="2">
         <v>984</v>
       </c>
-      <c r="Y381" t="s" s="2">
-        <v>985</v>
-      </c>
       <c r="Z381" t="s" s="2">
         <v>43</v>
       </c>
@@ -46056,7 +46048,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46085,7 +46077,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46108,19 +46100,19 @@
         <v>43</v>
       </c>
       <c r="J382" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="K382" t="s" s="2">
         <v>987</v>
       </c>
-      <c r="K382" t="s" s="2">
+      <c r="L382" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L382" t="s" s="2">
+      <c r="M382" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M382" t="s" s="2">
+      <c r="N382" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N382" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46169,7 +46161,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46198,7 +46190,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46224,14 +46216,14 @@
         <v>316</v>
       </c>
       <c r="K383" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="L383" t="s" s="2">
         <v>993</v>
-      </c>
-      <c r="L383" t="s" s="2">
-        <v>994</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46280,7 +46272,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46309,7 +46301,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46418,7 +46410,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46529,7 +46521,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46642,7 +46634,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46668,14 +46660,14 @@
         <v>425</v>
       </c>
       <c r="K387" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L387" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="L387" t="s" s="2">
-        <v>1001</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46724,7 +46716,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46753,7 +46745,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46779,14 +46771,14 @@
         <v>126</v>
       </c>
       <c r="K388" t="s" s="2">
+        <v>1003</v>
+      </c>
+      <c r="L388" t="s" s="2">
         <v>1004</v>
-      </c>
-      <c r="L388" t="s" s="2">
-        <v>1005</v>
       </c>
       <c r="M388" s="2"/>
       <c r="N388" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O388" t="s" s="2">
         <v>43</v>
@@ -46814,11 +46806,11 @@
         <v>174</v>
       </c>
       <c r="X388" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="Y388" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="Y388" t="s" s="2">
-        <v>1008</v>
-      </c>
       <c r="Z388" t="s" s="2">
         <v>43</v>
       </c>
@@ -46835,7 +46827,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46864,7 +46856,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46890,14 +46882,14 @@
         <v>52</v>
       </c>
       <c r="K389" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="L389" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="L389" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="M389" s="2"/>
       <c r="N389" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
@@ -46946,7 +46938,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -46975,7 +46967,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47001,16 +46993,16 @@
         <v>180</v>
       </c>
       <c r="K390" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="L390" t="s" s="2">
         <v>1014</v>
       </c>
-      <c r="L390" t="s" s="2">
+      <c r="M390" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="M390" t="s" s="2">
+      <c r="N390" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="N390" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -47059,7 +47051,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
@@ -47088,7 +47080,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47114,16 +47106,16 @@
         <v>207</v>
       </c>
       <c r="K391" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="L391" t="s" s="2">
         <v>1019</v>
       </c>
-      <c r="L391" t="s" s="2">
+      <c r="M391" t="s" s="2">
         <v>1020</v>
       </c>
-      <c r="M391" t="s" s="2">
+      <c r="N391" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="N391" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47172,7 +47164,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47201,7 +47193,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47227,10 +47219,10 @@
         <v>316</v>
       </c>
       <c r="K392" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="L392" t="s" s="2">
         <v>1024</v>
-      </c>
-      <c r="L392" t="s" s="2">
-        <v>1025</v>
       </c>
       <c r="M392" s="2"/>
       <c r="N392" s="2"/>
@@ -47281,7 +47273,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47310,7 +47302,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47419,7 +47411,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47530,7 +47522,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47643,7 +47635,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47678,7 +47670,7 @@
         <v>682</v>
       </c>
       <c r="N396" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O396" t="s" s="2">
         <v>43</v>
@@ -47727,7 +47719,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>50</v>
@@ -47756,7 +47748,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47782,14 +47774,14 @@
         <v>436</v>
       </c>
       <c r="K397" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="L397" t="s" s="2">
         <v>1032</v>
-      </c>
-      <c r="L397" t="s" s="2">
-        <v>1033</v>
       </c>
       <c r="M397" s="2"/>
       <c r="N397" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O397" t="s" s="2">
         <v>43</v>
@@ -47838,7 +47830,7 @@
         <v>43</v>
       </c>
       <c r="AE397" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AF397" t="s" s="2">
         <v>41</v>
@@ -47867,7 +47859,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -47893,16 +47885,16 @@
         <v>52</v>
       </c>
       <c r="K398" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="L398" t="s" s="2">
         <v>1036</v>
       </c>
-      <c r="L398" t="s" s="2">
+      <c r="M398" t="s" s="2">
         <v>1037</v>
       </c>
-      <c r="M398" t="s" s="2">
+      <c r="N398" t="s" s="2">
         <v>1038</v>
-      </c>
-      <c r="N398" t="s" s="2">
-        <v>1039</v>
       </c>
       <c r="O398" t="s" s="2">
         <v>43</v>
@@ -47951,7 +47943,7 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
@@ -47980,7 +47972,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48006,16 +47998,16 @@
         <v>52</v>
       </c>
       <c r="K399" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L399" t="s" s="2">
         <v>1041</v>
       </c>
-      <c r="L399" t="s" s="2">
+      <c r="M399" t="s" s="2">
         <v>1042</v>
       </c>
-      <c r="M399" t="s" s="2">
+      <c r="N399" t="s" s="2">
         <v>1043</v>
-      </c>
-      <c r="N399" t="s" s="2">
-        <v>1044</v>
       </c>
       <c r="O399" t="s" s="2">
         <v>43</v>
@@ -48064,7 +48056,7 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
@@ -48093,7 +48085,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48119,14 +48111,14 @@
         <v>180</v>
       </c>
       <c r="K400" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="L400" t="s" s="2">
         <v>1046</v>
-      </c>
-      <c r="L400" t="s" s="2">
-        <v>1047</v>
       </c>
       <c r="M400" s="2"/>
       <c r="N400" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48154,11 +48146,11 @@
         <v>116</v>
       </c>
       <c r="X400" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="Y400" t="s" s="2">
         <v>1049</v>
       </c>
-      <c r="Y400" t="s" s="2">
-        <v>1050</v>
-      </c>
       <c r="Z400" t="s" s="2">
         <v>43</v>
       </c>
@@ -48175,7 +48167,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
@@ -48204,7 +48196,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48230,14 +48222,14 @@
         <v>180</v>
       </c>
       <c r="K401" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="L401" t="s" s="2">
         <v>1052</v>
-      </c>
-      <c r="L401" t="s" s="2">
-        <v>1053</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48265,11 +48257,11 @@
         <v>116</v>
       </c>
       <c r="X401" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="Y401" t="s" s="2">
         <v>1055</v>
       </c>
-      <c r="Y401" t="s" s="2">
-        <v>1056</v>
-      </c>
       <c r="Z401" t="s" s="2">
         <v>43</v>
       </c>
@@ -48286,7 +48278,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48315,7 +48307,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48341,14 +48333,14 @@
         <v>180</v>
       </c>
       <c r="K402" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="L402" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="L402" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="M402" s="2"/>
       <c r="N402" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48376,11 +48368,11 @@
         <v>116</v>
       </c>
       <c r="X402" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="Y402" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="Y402" t="s" s="2">
-        <v>1061</v>
-      </c>
       <c r="Z402" t="s" s="2">
         <v>43</v>
       </c>
@@ -48397,7 +48389,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48426,7 +48418,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48452,10 +48444,10 @@
         <v>316</v>
       </c>
       <c r="K403" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="L403" t="s" s="2">
         <v>1063</v>
-      </c>
-      <c r="L403" t="s" s="2">
-        <v>1064</v>
       </c>
       <c r="M403" s="2"/>
       <c r="N403" s="2"/>
@@ -48506,7 +48498,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48535,7 +48527,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48644,7 +48636,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48755,7 +48747,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48868,7 +48860,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48897,13 +48889,13 @@
         <v>680</v>
       </c>
       <c r="L407" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="M407" t="s" s="2">
         <v>1069</v>
       </c>
-      <c r="M407" t="s" s="2">
+      <c r="N407" t="s" s="2">
         <v>1070</v>
-      </c>
-      <c r="N407" t="s" s="2">
-        <v>1071</v>
       </c>
       <c r="O407" t="s" s="2">
         <v>43</v>
@@ -48931,11 +48923,11 @@
         <v>116</v>
       </c>
       <c r="X407" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="Y407" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="Y407" t="s" s="2">
-        <v>1073</v>
-      </c>
       <c r="Z407" t="s" s="2">
         <v>43</v>
       </c>
@@ -48952,7 +48944,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>50</v>
@@ -48981,7 +48973,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49004,17 +48996,17 @@
         <v>43</v>
       </c>
       <c r="J408" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="K408" t="s" s="2">
         <v>1075</v>
       </c>
-      <c r="K408" t="s" s="2">
+      <c r="L408" t="s" s="2">
         <v>1076</v>
-      </c>
-      <c r="L408" t="s" s="2">
-        <v>1077</v>
       </c>
       <c r="M408" s="2"/>
       <c r="N408" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O408" t="s" s="2">
         <v>43</v>
@@ -49063,7 +49055,7 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>41</v>
@@ -49092,7 +49084,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49115,17 +49107,17 @@
         <v>43</v>
       </c>
       <c r="J409" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="K409" t="s" s="2">
         <v>1080</v>
       </c>
-      <c r="K409" t="s" s="2">
+      <c r="L409" t="s" s="2">
         <v>1081</v>
-      </c>
-      <c r="L409" t="s" s="2">
-        <v>1082</v>
       </c>
       <c r="M409" s="2"/>
       <c r="N409" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O409" t="s" s="2">
         <v>43</v>
@@ -49174,7 +49166,7 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$409</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$413</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14422" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14554" uniqueCount="1088">
   <si>
     <t>Path</t>
   </si>
@@ -2890,6 +2890,23 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>adjudication-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
@@ -3530,7 +3547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM409"/>
+  <dimension ref="A1:AM413"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -40830,11 +40847,11 @@
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F335" t="s" s="2">
         <v>42</v>
@@ -40852,14 +40869,12 @@
         <v>70</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>71</v>
+        <v>920</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M335" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="M335" s="2"/>
       <c r="N335" s="2"/>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40896,16 +40911,14 @@
         <v>43</v>
       </c>
       <c r="AA335" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB335" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB335" s="2"/>
       <c r="AC335" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD335" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE335" t="s" s="2">
         <v>77</v>
@@ -40932,48 +40945,46 @@
         <v>43</v>
       </c>
       <c r="AM335" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="336" hidden="true">
+    <row r="336">
       <c r="A336" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="B336" s="2"/>
+        <v>919</v>
+      </c>
+      <c r="B336" t="s" s="2">
+        <v>922</v>
+      </c>
       <c r="C336" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F336" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G336" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H336" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I336" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>70</v>
+        <v>923</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>325</v>
+        <v>920</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M336" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="M336" s="2"/>
+      <c r="N336" s="2"/>
       <c r="O336" t="s" s="2">
         <v>43</v>
       </c>
@@ -41021,7 +41032,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41030,7 +41041,7 @@
         <v>42</v>
       </c>
       <c r="AH336" t="s" s="2">
-        <v>43</v>
+        <v>924</v>
       </c>
       <c r="AI336" t="s" s="2">
         <v>78</v>
@@ -41045,47 +41056,47 @@
         <v>43</v>
       </c>
       <c r="AM336" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F337" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G337" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H337" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H337" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I337" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J337" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>768</v>
+        <v>325</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>769</v>
+        <v>326</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>770</v>
+        <v>73</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>771</v>
+        <v>156</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41110,11 +41121,13 @@
         <v>43</v>
       </c>
       <c r="W337" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X337" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X337" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y337" t="s" s="2">
-        <v>772</v>
+        <v>43</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -41132,19 +41145,19 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>767</v>
+        <v>327</v>
       </c>
       <c r="AF337" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI337" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ337" t="s" s="2">
         <v>43</v>
@@ -41156,12 +41169,12 @@
         <v>43</v>
       </c>
       <c r="AM337" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="338" hidden="true">
+    <row r="338">
       <c r="A338" t="s" s="2">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41169,13 +41182,13 @@
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F338" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G338" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H338" t="s" s="2">
         <v>43</v>
@@ -41187,16 +41200,16 @@
         <v>180</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41221,13 +41234,11 @@
         <v>43</v>
       </c>
       <c r="W338" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X338" t="s" s="2">
-        <v>778</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X338" s="2"/>
       <c r="Y338" t="s" s="2">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>43</v>
@@ -41245,10 +41256,10 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="AF338" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG338" t="s" s="2">
         <v>50</v>
@@ -41274,7 +41285,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41297,19 +41308,19 @@
         <v>43</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>723</v>
+        <v>180</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41334,13 +41345,13 @@
         <v>43</v>
       </c>
       <c r="W339" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X339" t="s" s="2">
-        <v>43</v>
+        <v>778</v>
       </c>
       <c r="Y339" t="s" s="2">
-        <v>43</v>
+        <v>779</v>
       </c>
       <c r="Z339" t="s" s="2">
         <v>43</v>
@@ -41358,7 +41369,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41387,7 +41398,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41410,19 +41421,19 @@
         <v>43</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41471,7 +41482,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41498,13 +41509,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="B341" t="s" s="2">
-        <v>790</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
         <v>43</v>
       </c>
@@ -41513,10 +41522,10 @@
         <v>41</v>
       </c>
       <c r="F341" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G341" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H341" t="s" s="2">
         <v>43</v>
@@ -41525,17 +41534,19 @@
         <v>43</v>
       </c>
       <c r="J341" t="s" s="2">
-        <v>316</v>
+        <v>728</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="M341" s="2"/>
+        <v>787</v>
+      </c>
+      <c r="M341" t="s" s="2">
+        <v>788</v>
+      </c>
       <c r="N341" t="s" s="2">
-        <v>917</v>
+        <v>789</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41584,13 +41595,13 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>914</v>
+        <v>785</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>43</v>
@@ -41611,11 +41622,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="342" hidden="true">
+    <row r="342">
       <c r="A342" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="B342" s="2"/>
+        <v>914</v>
+      </c>
+      <c r="B342" t="s" s="2">
+        <v>790</v>
+      </c>
       <c r="C342" t="s" s="2">
         <v>43</v>
       </c>
@@ -41624,10 +41637,10 @@
         <v>41</v>
       </c>
       <c r="F342" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G342" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H342" t="s" s="2">
         <v>43</v>
@@ -41636,16 +41649,18 @@
         <v>43</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>64</v>
+        <v>791</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>65</v>
+        <v>916</v>
       </c>
       <c r="M342" s="2"/>
-      <c r="N342" s="2"/>
+      <c r="N342" t="s" s="2">
+        <v>917</v>
+      </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
       </c>
@@ -41693,19 +41708,19 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>66</v>
+        <v>914</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI342" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ342" t="s" s="2">
         <v>43</v>
@@ -41717,23 +41732,23 @@
         <v>43</v>
       </c>
       <c r="AM342" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F343" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G343" t="s" s="2">
         <v>43</v>
@@ -41745,17 +41760,15 @@
         <v>43</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M343" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M343" s="2"/>
       <c r="N343" s="2"/>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41804,19 +41817,19 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ343" t="s" s="2">
         <v>43</v>
@@ -41833,15 +41846,15 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F344" t="s" s="2">
         <v>42</v>
@@ -41850,26 +41863,22 @@
         <v>43</v>
       </c>
       <c r="H344" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I344" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J344" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>325</v>
+        <v>920</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M344" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N344" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="M344" s="2"/>
+      <c r="N344" s="2"/>
       <c r="O344" t="s" s="2">
         <v>43</v>
       </c>
@@ -41905,19 +41914,17 @@
         <v>43</v>
       </c>
       <c r="AA344" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB344" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB344" s="2"/>
       <c r="AC344" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD344" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AF344" t="s" s="2">
         <v>41</v>
@@ -41941,14 +41948,16 @@
         <v>43</v>
       </c>
       <c r="AM344" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="345" hidden="true">
+    <row r="345">
       <c r="A345" t="s" s="2">
-        <v>921</v>
-      </c>
-      <c r="B345" s="2"/>
+        <v>919</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>922</v>
+      </c>
       <c r="C345" t="s" s="2">
         <v>43</v>
       </c>
@@ -41960,7 +41969,7 @@
         <v>50</v>
       </c>
       <c r="G345" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H345" t="s" s="2">
         <v>43</v>
@@ -41969,20 +41978,16 @@
         <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>180</v>
+        <v>923</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>768</v>
+        <v>920</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="M345" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="N345" t="s" s="2">
-        <v>771</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="M345" s="2"/>
+      <c r="N345" s="2"/>
       <c r="O345" t="s" s="2">
         <v>43</v>
       </c>
@@ -42006,11 +42011,13 @@
         <v>43</v>
       </c>
       <c r="W345" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X345" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X345" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y345" t="s" s="2">
-        <v>792</v>
+        <v>43</v>
       </c>
       <c r="Z345" t="s" s="2">
         <v>43</v>
@@ -42028,19 +42035,19 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>767</v>
+        <v>77</v>
       </c>
       <c r="AF345" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH345" t="s" s="2">
-        <v>43</v>
+        <v>924</v>
       </c>
       <c r="AI345" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ345" t="s" s="2">
         <v>43</v>
@@ -42057,42 +42064,42 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F346" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G346" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H346" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I346" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>774</v>
+        <v>325</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>775</v>
+        <v>326</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>776</v>
+        <v>73</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>777</v>
+        <v>156</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42117,13 +42124,13 @@
         <v>43</v>
       </c>
       <c r="W346" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X346" t="s" s="2">
-        <v>778</v>
+        <v>43</v>
       </c>
       <c r="Y346" t="s" s="2">
-        <v>779</v>
+        <v>43</v>
       </c>
       <c r="Z346" t="s" s="2">
         <v>43</v>
@@ -42141,19 +42148,19 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>773</v>
+        <v>327</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI346" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ346" t="s" s="2">
         <v>43</v>
@@ -42165,12 +42172,12 @@
         <v>43</v>
       </c>
       <c r="AM346" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42184,7 +42191,7 @@
         <v>50</v>
       </c>
       <c r="G347" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H347" t="s" s="2">
         <v>43</v>
@@ -42193,19 +42200,19 @@
         <v>43</v>
       </c>
       <c r="J347" t="s" s="2">
-        <v>723</v>
+        <v>180</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42230,13 +42237,11 @@
         <v>43</v>
       </c>
       <c r="W347" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X347" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>43</v>
+        <v>792</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
@@ -42254,10 +42259,10 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="AF347" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG347" t="s" s="2">
         <v>50</v>
@@ -42283,7 +42288,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42306,19 +42311,19 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>728</v>
+        <v>180</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42343,13 +42348,13 @@
         <v>43</v>
       </c>
       <c r="W348" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X348" t="s" s="2">
-        <v>43</v>
+        <v>778</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>43</v>
+        <v>779</v>
       </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
@@ -42367,7 +42372,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42396,17 +42401,15 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="B349" t="s" s="2">
-        <v>793</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F349" t="s" s="2">
         <v>50</v>
@@ -42421,17 +42424,19 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>316</v>
+        <v>723</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="M349" s="2"/>
+        <v>782</v>
+      </c>
+      <c r="M349" t="s" s="2">
+        <v>783</v>
+      </c>
       <c r="N349" t="s" s="2">
-        <v>917</v>
+        <v>784</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42480,13 +42485,13 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>43</v>
@@ -42509,7 +42514,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42532,16 +42537,20 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>52</v>
+        <v>728</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>64</v>
+        <v>786</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M350" s="2"/>
-      <c r="N350" s="2"/>
+        <v>787</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="N350" t="s" s="2">
+        <v>789</v>
+      </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
       </c>
@@ -42589,7 +42598,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>66</v>
+        <v>785</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42601,7 +42610,7 @@
         <v>43</v>
       </c>
       <c r="AI350" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ350" t="s" s="2">
         <v>43</v>
@@ -42613,26 +42622,28 @@
         <v>43</v>
       </c>
       <c r="AM350" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="351" hidden="true">
+    <row r="351">
       <c r="A351" t="s" s="2">
-        <v>919</v>
-      </c>
-      <c r="B351" s="2"/>
+        <v>914</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>793</v>
+      </c>
       <c r="C351" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F351" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G351" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H351" t="s" s="2">
         <v>43</v>
@@ -42641,18 +42652,18 @@
         <v>43</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>70</v>
+        <v>316</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>71</v>
+        <v>794</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M351" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N351" s="2"/>
+        <v>916</v>
+      </c>
+      <c r="M351" s="2"/>
+      <c r="N351" t="s" s="2">
+        <v>917</v>
+      </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
       </c>
@@ -42700,7 +42711,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>77</v>
+        <v>914</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42712,7 +42723,7 @@
         <v>43</v>
       </c>
       <c r="AI351" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ351" t="s" s="2">
         <v>43</v>
@@ -42724,48 +42735,44 @@
         <v>43</v>
       </c>
       <c r="AM351" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F352" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G352" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H352" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I352" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J352" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>325</v>
+        <v>64</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M352" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N352" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M352" s="2"/>
+      <c r="N352" s="2"/>
       <c r="O352" t="s" s="2">
         <v>43</v>
       </c>
@@ -42813,19 +42820,19 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>327</v>
+        <v>66</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI352" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ352" t="s" s="2">
         <v>43</v>
@@ -42837,12 +42844,12 @@
         <v>43</v>
       </c>
       <c r="AM352" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42853,7 +42860,7 @@
         <v>50</v>
       </c>
       <c r="F353" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s" s="2">
         <v>43</v>
@@ -42865,20 +42872,16 @@
         <v>43</v>
       </c>
       <c r="J353" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>768</v>
+        <v>920</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="M353" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="N353" t="s" s="2">
-        <v>771</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="M353" s="2"/>
+      <c r="N353" s="2"/>
       <c r="O353" t="s" s="2">
         <v>43</v>
       </c>
@@ -42887,7 +42890,7 @@
         <v>43</v>
       </c>
       <c r="R353" t="s" s="2">
-        <v>795</v>
+        <v>43</v>
       </c>
       <c r="S353" t="s" s="2">
         <v>43</v>
@@ -42902,41 +42905,41 @@
         <v>43</v>
       </c>
       <c r="W353" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X353" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y353" t="s" s="2">
-        <v>772</v>
+        <v>43</v>
       </c>
       <c r="Z353" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA353" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB353" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB353" s="2"/>
       <c r="AC353" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD353" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>767</v>
+        <v>77</v>
       </c>
       <c r="AF353" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI353" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ353" t="s" s="2">
         <v>43</v>
@@ -42953,9 +42956,11 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="B354" t="s" s="2">
         <v>922</v>
       </c>
-      <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
         <v>43</v>
       </c>
@@ -42976,20 +42981,16 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>180</v>
+        <v>923</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>774</v>
+        <v>920</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="M354" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="N354" t="s" s="2">
-        <v>777</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="M354" s="2"/>
+      <c r="N354" s="2"/>
       <c r="O354" t="s" s="2">
         <v>43</v>
       </c>
@@ -43013,11 +43014,13 @@
         <v>43</v>
       </c>
       <c r="W354" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X354" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y354" t="s" s="2">
-        <v>796</v>
+        <v>43</v>
       </c>
       <c r="Z354" t="s" s="2">
         <v>43</v>
@@ -43035,19 +43038,19 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>773</v>
+        <v>77</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH354" t="s" s="2">
-        <v>43</v>
+        <v>924</v>
       </c>
       <c r="AI354" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ354" t="s" s="2">
         <v>43</v>
@@ -43064,42 +43067,42 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F355" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G355" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H355" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I355" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>723</v>
+        <v>70</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>781</v>
+        <v>325</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>782</v>
+        <v>326</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>783</v>
+        <v>73</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>784</v>
+        <v>156</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43148,19 +43151,19 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>780</v>
+        <v>327</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI355" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ355" t="s" s="2">
         <v>43</v>
@@ -43172,12 +43175,12 @@
         <v>43</v>
       </c>
       <c r="AM355" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43185,7 +43188,7 @@
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F356" t="s" s="2">
         <v>50</v>
@@ -43200,19 +43203,19 @@
         <v>43</v>
       </c>
       <c r="J356" t="s" s="2">
-        <v>728</v>
+        <v>180</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43222,7 +43225,7 @@
         <v>43</v>
       </c>
       <c r="R356" t="s" s="2">
-        <v>43</v>
+        <v>795</v>
       </c>
       <c r="S356" t="s" s="2">
         <v>43</v>
@@ -43237,13 +43240,11 @@
         <v>43</v>
       </c>
       <c r="W356" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X356" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X356" s="2"/>
       <c r="Y356" t="s" s="2">
-        <v>43</v>
+        <v>772</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43261,10 +43262,10 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG356" t="s" s="2">
         <v>50</v>
@@ -43290,11 +43291,9 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="B357" t="s" s="2">
-        <v>925</v>
-      </c>
+        <v>927</v>
+      </c>
+      <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
         <v>43</v>
       </c>
@@ -43315,17 +43314,19 @@
         <v>43</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>926</v>
+        <v>774</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="M357" s="2"/>
+        <v>775</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>776</v>
+      </c>
       <c r="N357" t="s" s="2">
-        <v>917</v>
+        <v>777</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43350,13 +43351,11 @@
         <v>43</v>
       </c>
       <c r="W357" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X357" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X357" s="2"/>
       <c r="Y357" t="s" s="2">
-        <v>43</v>
+        <v>796</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43374,13 +43373,13 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>914</v>
+        <v>773</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>43</v>
@@ -43403,7 +43402,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43426,16 +43425,20 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>52</v>
+        <v>723</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>64</v>
+        <v>781</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M358" s="2"/>
-      <c r="N358" s="2"/>
+        <v>782</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="N358" t="s" s="2">
+        <v>784</v>
+      </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
       </c>
@@ -43483,7 +43486,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>66</v>
+        <v>780</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43495,7 +43498,7 @@
         <v>43</v>
       </c>
       <c r="AI358" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ358" t="s" s="2">
         <v>43</v>
@@ -43507,23 +43510,23 @@
         <v>43</v>
       </c>
       <c r="AM358" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F359" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G359" t="s" s="2">
         <v>43</v>
@@ -43535,18 +43538,20 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>70</v>
+        <v>728</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>71</v>
+        <v>786</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>72</v>
+        <v>787</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N359" s="2"/>
+        <v>788</v>
+      </c>
+      <c r="N359" t="s" s="2">
+        <v>789</v>
+      </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
       </c>
@@ -43594,19 +43599,19 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>77</v>
+        <v>785</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI359" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ359" t="s" s="2">
         <v>43</v>
@@ -43618,47 +43623,47 @@
         <v>43</v>
       </c>
       <c r="AM359" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="360" hidden="true">
+    <row r="360">
       <c r="A360" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="B360" s="2"/>
+        <v>914</v>
+      </c>
+      <c r="B360" t="s" s="2">
+        <v>930</v>
+      </c>
       <c r="C360" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F360" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G360" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H360" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I360" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>70</v>
+        <v>316</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>325</v>
+        <v>931</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M360" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>156</v>
+        <v>917</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43707,7 +43712,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>327</v>
+        <v>914</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43719,7 +43724,7 @@
         <v>43</v>
       </c>
       <c r="AI360" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ360" t="s" s="2">
         <v>43</v>
@@ -43731,12 +43736,12 @@
         <v>43</v>
       </c>
       <c r="AM360" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43744,7 +43749,7 @@
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F361" t="s" s="2">
         <v>50</v>
@@ -43759,20 +43764,16 @@
         <v>43</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>768</v>
+        <v>64</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="M361" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="N361" t="s" s="2">
-        <v>771</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M361" s="2"/>
+      <c r="N361" s="2"/>
       <c r="O361" t="s" s="2">
         <v>43</v>
       </c>
@@ -43796,11 +43797,13 @@
         <v>43</v>
       </c>
       <c r="W361" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X361" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X361" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y361" t="s" s="2">
-        <v>927</v>
+        <v>43</v>
       </c>
       <c r="Z361" t="s" s="2">
         <v>43</v>
@@ -43818,10 +43821,10 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>767</v>
+        <v>66</v>
       </c>
       <c r="AF361" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG361" t="s" s="2">
         <v>50</v>
@@ -43830,7 +43833,7 @@
         <v>43</v>
       </c>
       <c r="AI361" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ361" t="s" s="2">
         <v>43</v>
@@ -43842,12 +43845,12 @@
         <v>43</v>
       </c>
       <c r="AM361" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43855,10 +43858,10 @@
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F362" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G362" t="s" s="2">
         <v>43</v>
@@ -43870,20 +43873,16 @@
         <v>43</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>774</v>
+        <v>920</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="M362" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>777</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="M362" s="2"/>
+      <c r="N362" s="2"/>
       <c r="O362" t="s" s="2">
         <v>43</v>
       </c>
@@ -43907,43 +43906,41 @@
         <v>43</v>
       </c>
       <c r="W362" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X362" t="s" s="2">
-        <v>778</v>
+        <v>43</v>
       </c>
       <c r="Y362" t="s" s="2">
-        <v>779</v>
+        <v>43</v>
       </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB362" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB362" s="2"/>
       <c r="AC362" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD362" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>773</v>
+        <v>77</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI362" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ362" t="s" s="2">
         <v>43</v>
@@ -43958,23 +43955,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="363" hidden="true">
+    <row r="363">
       <c r="A363" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="B363" s="2"/>
+        <v>919</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>922</v>
+      </c>
       <c r="C363" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F363" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G363" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H363" t="s" s="2">
         <v>43</v>
@@ -43983,20 +43982,16 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>723</v>
+        <v>923</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>781</v>
+        <v>920</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="M363" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="N363" t="s" s="2">
-        <v>784</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="M363" s="2"/>
+      <c r="N363" s="2"/>
       <c r="O363" t="s" s="2">
         <v>43</v>
       </c>
@@ -44044,19 +44039,19 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>780</v>
+        <v>77</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH363" t="s" s="2">
-        <v>43</v>
+        <v>924</v>
       </c>
       <c r="AI363" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ363" t="s" s="2">
         <v>43</v>
@@ -44073,42 +44068,42 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F364" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G364" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H364" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I364" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>728</v>
+        <v>70</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>786</v>
+        <v>325</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>787</v>
+        <v>326</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>788</v>
+        <v>73</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>789</v>
+        <v>156</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44157,19 +44152,19 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>785</v>
+        <v>327</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI364" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ364" t="s" s="2">
         <v>43</v>
@@ -44181,12 +44176,12 @@
         <v>43</v>
       </c>
       <c r="AM364" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44194,10 +44189,10 @@
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F365" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G365" t="s" s="2">
         <v>43</v>
@@ -44206,22 +44201,22 @@
         <v>43</v>
       </c>
       <c r="I365" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>929</v>
+        <v>768</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>930</v>
+        <v>769</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>931</v>
+        <v>770</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>932</v>
+        <v>771</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44246,13 +44241,11 @@
         <v>43</v>
       </c>
       <c r="W365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X365" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X365" s="2"/>
       <c r="Y365" t="s" s="2">
-        <v>43</v>
+        <v>932</v>
       </c>
       <c r="Z365" t="s" s="2">
         <v>43</v>
@@ -44270,13 +44263,13 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>928</v>
+        <v>767</v>
       </c>
       <c r="AF365" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>43</v>
@@ -44299,7 +44292,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44322,16 +44315,20 @@
         <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>64</v>
+        <v>774</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M366" s="2"/>
-      <c r="N366" s="2"/>
+        <v>775</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="N366" t="s" s="2">
+        <v>777</v>
+      </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
       </c>
@@ -44355,13 +44352,13 @@
         <v>43</v>
       </c>
       <c r="W366" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X366" t="s" s="2">
-        <v>43</v>
+        <v>778</v>
       </c>
       <c r="Y366" t="s" s="2">
-        <v>43</v>
+        <v>779</v>
       </c>
       <c r="Z366" t="s" s="2">
         <v>43</v>
@@ -44379,7 +44376,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>66</v>
+        <v>773</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44391,7 +44388,7 @@
         <v>43</v>
       </c>
       <c r="AI366" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ366" t="s" s="2">
         <v>43</v>
@@ -44403,23 +44400,23 @@
         <v>43</v>
       </c>
       <c r="AM366" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F367" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G367" t="s" s="2">
         <v>43</v>
@@ -44431,18 +44428,20 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>70</v>
+        <v>723</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>71</v>
+        <v>781</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>72</v>
+        <v>782</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N367" s="2"/>
+        <v>783</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>784</v>
+      </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
       </c>
@@ -44490,19 +44489,19 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>77</v>
+        <v>780</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI367" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ367" t="s" s="2">
         <v>43</v>
@@ -44514,47 +44513,47 @@
         <v>43</v>
       </c>
       <c r="AM367" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F368" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G368" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H368" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I368" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>70</v>
+        <v>728</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>325</v>
+        <v>786</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>326</v>
+        <v>787</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>73</v>
+        <v>788</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>156</v>
+        <v>789</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44603,19 +44602,19 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>327</v>
+        <v>785</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI368" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ368" t="s" s="2">
         <v>43</v>
@@ -44627,12 +44626,12 @@
         <v>43</v>
       </c>
       <c r="AM368" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44640,10 +44639,10 @@
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F369" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G369" t="s" s="2">
         <v>43</v>
@@ -44655,19 +44654,19 @@
         <v>51</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>768</v>
+        <v>934</v>
       </c>
       <c r="L369" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="N369" t="s" s="2">
         <v>937</v>
-      </c>
-      <c r="M369" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="N369" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44692,11 +44691,13 @@
         <v>43</v>
       </c>
       <c r="W369" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X369" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y369" t="s" s="2">
-        <v>939</v>
+        <v>43</v>
       </c>
       <c r="Z369" t="s" s="2">
         <v>43</v>
@@ -44714,13 +44715,13 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="AF369" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>43</v>
@@ -44743,7 +44744,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44751,7 +44752,7 @@
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F370" t="s" s="2">
         <v>50</v>
@@ -44763,21 +44764,19 @@
         <v>43</v>
       </c>
       <c r="I370" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J370" t="s" s="2">
-        <v>723</v>
+        <v>52</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>941</v>
+        <v>64</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>942</v>
+        <v>65</v>
       </c>
       <c r="M370" s="2"/>
-      <c r="N370" t="s" s="2">
-        <v>943</v>
-      </c>
+      <c r="N370" s="2"/>
       <c r="O370" t="s" s="2">
         <v>43</v>
       </c>
@@ -44825,10 +44824,10 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>940</v>
+        <v>66</v>
       </c>
       <c r="AF370" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG370" t="s" s="2">
         <v>50</v>
@@ -44837,7 +44836,7 @@
         <v>43</v>
       </c>
       <c r="AI370" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ370" t="s" s="2">
         <v>43</v>
@@ -44849,26 +44848,26 @@
         <v>43</v>
       </c>
       <c r="AM370" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F371" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G371" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H371" t="s" s="2">
         <v>43</v>
@@ -44877,18 +44876,18 @@
         <v>43</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>945</v>
+        <v>71</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="M371" s="2"/>
-      <c r="N371" t="s" s="2">
-        <v>947</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N371" s="2"/>
       <c r="O371" t="s" s="2">
         <v>43</v>
       </c>
@@ -44936,19 +44935,19 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>944</v>
+        <v>77</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH371" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI371" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ371" t="s" s="2">
         <v>43</v>
@@ -44960,44 +44959,48 @@
         <v>43</v>
       </c>
       <c r="AM371" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F372" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H372" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I372" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J372" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>64</v>
+        <v>325</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M372" s="2"/>
-      <c r="N372" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
       </c>
@@ -45045,19 +45048,19 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI372" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ372" t="s" s="2">
         <v>43</v>
@@ -45069,23 +45072,23 @@
         <v>43</v>
       </c>
       <c r="AM372" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F373" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G373" t="s" s="2">
         <v>43</v>
@@ -45094,21 +45097,23 @@
         <v>43</v>
       </c>
       <c r="I373" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J373" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>71</v>
+        <v>768</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>72</v>
+        <v>942</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N373" s="2"/>
+        <v>770</v>
+      </c>
+      <c r="N373" t="s" s="2">
+        <v>943</v>
+      </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
       </c>
@@ -45132,13 +45137,11 @@
         <v>43</v>
       </c>
       <c r="W373" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X373" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X373" s="2"/>
       <c r="Y373" t="s" s="2">
-        <v>43</v>
+        <v>944</v>
       </c>
       <c r="Z373" t="s" s="2">
         <v>43</v>
@@ -45156,19 +45159,19 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>77</v>
+        <v>941</v>
       </c>
       <c r="AF373" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI373" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ373" t="s" s="2">
         <v>43</v>
@@ -45180,47 +45183,45 @@
         <v>43</v>
       </c>
       <c r="AM373" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F374" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G374" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H374" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I374" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J374" t="s" s="2">
-        <v>70</v>
+        <v>723</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>325</v>
+        <v>946</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M374" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>947</v>
+      </c>
+      <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>156</v>
+        <v>948</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45269,19 +45270,19 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>327</v>
+        <v>945</v>
       </c>
       <c r="AF374" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI374" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ374" t="s" s="2">
         <v>43</v>
@@ -45293,12 +45294,12 @@
         <v>43</v>
       </c>
       <c r="AM374" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="375" hidden="true">
+    <row r="375">
       <c r="A375" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45312,7 +45313,7 @@
         <v>50</v>
       </c>
       <c r="G375" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H375" t="s" s="2">
         <v>43</v>
@@ -45321,17 +45322,17 @@
         <v>43</v>
       </c>
       <c r="J375" t="s" s="2">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45356,11 +45357,13 @@
         <v>43</v>
       </c>
       <c r="W375" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X375" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y375" t="s" s="2">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="Z375" t="s" s="2">
         <v>43</v>
@@ -45378,7 +45381,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45407,7 +45410,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45430,20 +45433,16 @@
         <v>43</v>
       </c>
       <c r="J376" t="s" s="2">
-        <v>723</v>
+        <v>52</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>957</v>
+        <v>64</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>958</v>
-      </c>
-      <c r="M376" t="s" s="2">
-        <v>959</v>
-      </c>
-      <c r="N376" t="s" s="2">
-        <v>960</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M376" s="2"/>
+      <c r="N376" s="2"/>
       <c r="O376" t="s" s="2">
         <v>43</v>
       </c>
@@ -45491,7 +45490,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>956</v>
+        <v>66</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>41</v>
@@ -45503,7 +45502,7 @@
         <v>43</v>
       </c>
       <c r="AI376" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ376" t="s" s="2">
         <v>43</v>
@@ -45515,23 +45514,23 @@
         <v>43</v>
       </c>
       <c r="AM376" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F377" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G377" t="s" s="2">
         <v>43</v>
@@ -45543,18 +45542,18 @@
         <v>43</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>962</v>
+        <v>71</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>963</v>
-      </c>
-      <c r="M377" s="2"/>
-      <c r="N377" t="s" s="2">
-        <v>964</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N377" s="2"/>
       <c r="O377" t="s" s="2">
         <v>43</v>
       </c>
@@ -45578,11 +45577,13 @@
         <v>43</v>
       </c>
       <c r="W377" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X377" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y377" t="s" s="2">
-        <v>796</v>
+        <v>43</v>
       </c>
       <c r="Z377" t="s" s="2">
         <v>43</v>
@@ -45600,19 +45601,19 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>961</v>
+        <v>77</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI377" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ377" t="s" s="2">
         <v>43</v>
@@ -45624,45 +45625,47 @@
         <v>43</v>
       </c>
       <c r="AM377" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F378" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G378" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H378" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I378" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>506</v>
+        <v>70</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>966</v>
+        <v>325</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>967</v>
-      </c>
-      <c r="M378" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N378" t="s" s="2">
-        <v>968</v>
+        <v>156</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45711,19 +45714,19 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>965</v>
+        <v>327</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI378" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ378" t="s" s="2">
         <v>43</v>
@@ -45735,12 +45738,12 @@
         <v>43</v>
       </c>
       <c r="AM378" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45763,17 +45766,17 @@
         <v>43</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>723</v>
+        <v>180</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45798,13 +45801,11 @@
         <v>43</v>
       </c>
       <c r="W379" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X379" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X379" s="2"/>
       <c r="Y379" t="s" s="2">
-        <v>43</v>
+        <v>960</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>43</v>
@@ -45822,7 +45823,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45851,7 +45852,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45874,19 +45875,19 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>159</v>
+        <v>723</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45935,7 +45936,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45964,7 +45965,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45990,16 +45991,14 @@
         <v>180</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>980</v>
-      </c>
-      <c r="M381" t="s" s="2">
-        <v>981</v>
-      </c>
+        <v>968</v>
+      </c>
+      <c r="M381" s="2"/>
       <c r="N381" t="s" s="2">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46024,13 +46023,11 @@
         <v>43</v>
       </c>
       <c r="W381" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X381" t="s" s="2">
-        <v>983</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X381" s="2"/>
       <c r="Y381" t="s" s="2">
-        <v>984</v>
+        <v>796</v>
       </c>
       <c r="Z381" t="s" s="2">
         <v>43</v>
@@ -46048,7 +46045,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46077,7 +46074,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46100,19 +46097,17 @@
         <v>43</v>
       </c>
       <c r="J382" t="s" s="2">
-        <v>986</v>
+        <v>506</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="M382" t="s" s="2">
-        <v>989</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="M382" s="2"/>
       <c r="N382" t="s" s="2">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46161,7 +46156,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46190,7 +46185,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46201,7 +46196,7 @@
         <v>41</v>
       </c>
       <c r="F383" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G383" t="s" s="2">
         <v>43</v>
@@ -46213,17 +46208,17 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>316</v>
+        <v>723</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46272,13 +46267,13 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>43</v>
@@ -46301,7 +46296,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46324,16 +46319,20 @@
         <v>43</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>64</v>
+        <v>979</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M384" s="2"/>
-      <c r="N384" s="2"/>
+        <v>980</v>
+      </c>
+      <c r="M384" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="N384" t="s" s="2">
+        <v>982</v>
+      </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
       </c>
@@ -46381,7 +46380,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>66</v>
+        <v>978</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46393,7 +46392,7 @@
         <v>43</v>
       </c>
       <c r="AI384" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ384" t="s" s="2">
         <v>43</v>
@@ -46405,23 +46404,23 @@
         <v>43</v>
       </c>
       <c r="AM384" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F385" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G385" t="s" s="2">
         <v>43</v>
@@ -46433,18 +46432,20 @@
         <v>43</v>
       </c>
       <c r="J385" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>71</v>
+        <v>984</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>72</v>
+        <v>985</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N385" s="2"/>
+        <v>986</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>987</v>
+      </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
       </c>
@@ -46468,13 +46469,13 @@
         <v>43</v>
       </c>
       <c r="W385" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X385" t="s" s="2">
-        <v>43</v>
+        <v>988</v>
       </c>
       <c r="Y385" t="s" s="2">
-        <v>43</v>
+        <v>989</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
@@ -46492,19 +46493,19 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>77</v>
+        <v>983</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI385" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ385" t="s" s="2">
         <v>43</v>
@@ -46516,47 +46517,47 @@
         <v>43</v>
       </c>
       <c r="AM385" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F386" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G386" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H386" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I386" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>70</v>
+        <v>991</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>325</v>
+        <v>992</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>326</v>
+        <v>993</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>73</v>
+        <v>994</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>156</v>
+        <v>995</v>
       </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46605,19 +46606,19 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>327</v>
+        <v>990</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI386" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ386" t="s" s="2">
         <v>43</v>
@@ -46629,12 +46630,12 @@
         <v>43</v>
       </c>
       <c r="AM386" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46645,7 +46646,7 @@
         <v>41</v>
       </c>
       <c r="F387" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G387" t="s" s="2">
         <v>43</v>
@@ -46657,17 +46658,17 @@
         <v>43</v>
       </c>
       <c r="J387" t="s" s="2">
-        <v>425</v>
+        <v>316</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46716,13 +46717,13 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>43</v>
@@ -46745,7 +46746,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46768,18 +46769,16 @@
         <v>43</v>
       </c>
       <c r="J388" t="s" s="2">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>1003</v>
+        <v>64</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>1004</v>
+        <v>65</v>
       </c>
       <c r="M388" s="2"/>
-      <c r="N388" t="s" s="2">
-        <v>1005</v>
-      </c>
+      <c r="N388" s="2"/>
       <c r="O388" t="s" s="2">
         <v>43</v>
       </c>
@@ -46803,13 +46802,13 @@
         <v>43</v>
       </c>
       <c r="W388" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="X388" t="s" s="2">
-        <v>1006</v>
+        <v>43</v>
       </c>
       <c r="Y388" t="s" s="2">
-        <v>1007</v>
+        <v>43</v>
       </c>
       <c r="Z388" t="s" s="2">
         <v>43</v>
@@ -46827,7 +46826,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>1002</v>
+        <v>66</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46839,7 +46838,7 @@
         <v>43</v>
       </c>
       <c r="AI388" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ388" t="s" s="2">
         <v>43</v>
@@ -46851,23 +46850,23 @@
         <v>43</v>
       </c>
       <c r="AM388" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F389" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G389" t="s" s="2">
         <v>43</v>
@@ -46879,18 +46878,18 @@
         <v>43</v>
       </c>
       <c r="J389" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>1009</v>
+        <v>71</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>1010</v>
-      </c>
-      <c r="M389" s="2"/>
-      <c r="N389" t="s" s="2">
-        <v>1011</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N389" s="2"/>
       <c r="O389" t="s" s="2">
         <v>43</v>
       </c>
@@ -46938,19 +46937,19 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>1008</v>
+        <v>77</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI389" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ389" t="s" s="2">
         <v>43</v>
@@ -46962,47 +46961,47 @@
         <v>43</v>
       </c>
       <c r="AM389" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F390" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G390" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H390" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I390" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J390" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>1013</v>
+        <v>325</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>1014</v>
+        <v>326</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>1015</v>
+        <v>73</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>1016</v>
+        <v>156</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -47027,13 +47026,13 @@
         <v>43</v>
       </c>
       <c r="W390" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X390" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y390" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z390" t="s" s="2">
         <v>43</v>
@@ -47051,19 +47050,19 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>1012</v>
+        <v>327</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI390" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ390" t="s" s="2">
         <v>43</v>
@@ -47075,12 +47074,12 @@
         <v>43</v>
       </c>
       <c r="AM390" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47103,19 +47102,17 @@
         <v>43</v>
       </c>
       <c r="J391" t="s" s="2">
-        <v>207</v>
+        <v>425</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1019</v>
-      </c>
-      <c r="M391" t="s" s="2">
-        <v>1020</v>
-      </c>
+        <v>1005</v>
+      </c>
+      <c r="M391" s="2"/>
       <c r="N391" t="s" s="2">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47164,7 +47161,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47193,7 +47190,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47204,7 +47201,7 @@
         <v>41</v>
       </c>
       <c r="F392" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G392" t="s" s="2">
         <v>43</v>
@@ -47216,16 +47213,18 @@
         <v>43</v>
       </c>
       <c r="J392" t="s" s="2">
-        <v>316</v>
+        <v>126</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="M392" s="2"/>
-      <c r="N392" s="2"/>
+      <c r="N392" t="s" s="2">
+        <v>1010</v>
+      </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
       </c>
@@ -47249,13 +47248,13 @@
         <v>43</v>
       </c>
       <c r="W392" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="X392" t="s" s="2">
-        <v>43</v>
+        <v>1011</v>
       </c>
       <c r="Y392" t="s" s="2">
-        <v>43</v>
+        <v>1012</v>
       </c>
       <c r="Z392" t="s" s="2">
         <v>43</v>
@@ -47273,13 +47272,13 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>43</v>
@@ -47302,7 +47301,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47328,13 +47327,15 @@
         <v>52</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>64</v>
+        <v>1014</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>65</v>
+        <v>1015</v>
       </c>
       <c r="M393" s="2"/>
-      <c r="N393" s="2"/>
+      <c r="N393" t="s" s="2">
+        <v>1016</v>
+      </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
       </c>
@@ -47382,7 +47383,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>66</v>
+        <v>1013</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47394,7 +47395,7 @@
         <v>43</v>
       </c>
       <c r="AI393" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ393" t="s" s="2">
         <v>43</v>
@@ -47406,23 +47407,23 @@
         <v>43</v>
       </c>
       <c r="AM393" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F394" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G394" t="s" s="2">
         <v>43</v>
@@ -47434,18 +47435,20 @@
         <v>43</v>
       </c>
       <c r="J394" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>71</v>
+        <v>1018</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>72</v>
+        <v>1019</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N394" s="2"/>
+        <v>1020</v>
+      </c>
+      <c r="N394" t="s" s="2">
+        <v>1021</v>
+      </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
       </c>
@@ -47469,13 +47472,13 @@
         <v>43</v>
       </c>
       <c r="W394" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X394" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y394" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z394" t="s" s="2">
         <v>43</v>
@@ -47493,19 +47496,19 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>77</v>
+        <v>1017</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI394" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ394" t="s" s="2">
         <v>43</v>
@@ -47517,47 +47520,47 @@
         <v>43</v>
       </c>
       <c r="AM394" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F395" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G395" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H395" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I395" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J395" t="s" s="2">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>325</v>
+        <v>1023</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>326</v>
+        <v>1024</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>73</v>
+        <v>1025</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>156</v>
+        <v>1026</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47606,19 +47609,19 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>327</v>
+        <v>1022</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG395" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI395" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ395" t="s" s="2">
         <v>43</v>
@@ -47630,12 +47633,12 @@
         <v>43</v>
       </c>
       <c r="AM395" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47643,10 +47646,10 @@
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F396" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G396" t="s" s="2">
         <v>43</v>
@@ -47658,20 +47661,16 @@
         <v>43</v>
       </c>
       <c r="J396" t="s" s="2">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>680</v>
+        <v>1028</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="M396" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N396" t="s" s="2">
         <v>1029</v>
       </c>
+      <c r="M396" s="2"/>
+      <c r="N396" s="2"/>
       <c r="O396" t="s" s="2">
         <v>43</v>
       </c>
@@ -47695,13 +47694,13 @@
         <v>43</v>
       </c>
       <c r="W396" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X396" t="s" s="2">
-        <v>684</v>
+        <v>43</v>
       </c>
       <c r="Y396" t="s" s="2">
-        <v>685</v>
+        <v>43</v>
       </c>
       <c r="Z396" t="s" s="2">
         <v>43</v>
@@ -47719,13 +47718,13 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AF396" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>43</v>
@@ -47771,18 +47770,16 @@
         <v>43</v>
       </c>
       <c r="J397" t="s" s="2">
-        <v>436</v>
+        <v>52</v>
       </c>
       <c r="K397" t="s" s="2">
-        <v>1031</v>
+        <v>64</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>1032</v>
+        <v>65</v>
       </c>
       <c r="M397" s="2"/>
-      <c r="N397" t="s" s="2">
-        <v>1033</v>
-      </c>
+      <c r="N397" s="2"/>
       <c r="O397" t="s" s="2">
         <v>43</v>
       </c>
@@ -47830,7 +47827,7 @@
         <v>43</v>
       </c>
       <c r="AE397" t="s" s="2">
-        <v>1030</v>
+        <v>66</v>
       </c>
       <c r="AF397" t="s" s="2">
         <v>41</v>
@@ -47842,7 +47839,7 @@
         <v>43</v>
       </c>
       <c r="AI397" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ397" t="s" s="2">
         <v>43</v>
@@ -47854,23 +47851,23 @@
         <v>43</v>
       </c>
       <c r="AM397" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F398" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G398" t="s" s="2">
         <v>43</v>
@@ -47882,20 +47879,18 @@
         <v>43</v>
       </c>
       <c r="J398" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K398" t="s" s="2">
-        <v>1035</v>
+        <v>71</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>1036</v>
+        <v>72</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1037</v>
-      </c>
-      <c r="N398" t="s" s="2">
-        <v>1038</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N398" s="2"/>
       <c r="O398" t="s" s="2">
         <v>43</v>
       </c>
@@ -47943,19 +47938,19 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>1034</v>
+        <v>77</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI398" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ398" t="s" s="2">
         <v>43</v>
@@ -47967,47 +47962,47 @@
         <v>43</v>
       </c>
       <c r="AM398" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F399" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G399" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H399" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I399" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J399" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K399" t="s" s="2">
-        <v>1040</v>
+        <v>325</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>1041</v>
+        <v>326</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1042</v>
+        <v>73</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1043</v>
+        <v>156</v>
       </c>
       <c r="O399" t="s" s="2">
         <v>43</v>
@@ -48056,19 +48051,19 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>1039</v>
+        <v>327</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI399" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ399" t="s" s="2">
         <v>43</v>
@@ -48080,12 +48075,12 @@
         <v>43</v>
       </c>
       <c r="AM399" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48093,7 +48088,7 @@
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F400" t="s" s="2">
         <v>50</v>
@@ -48111,14 +48106,16 @@
         <v>180</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>1045</v>
+        <v>680</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>1046</v>
-      </c>
-      <c r="M400" s="2"/>
+        <v>681</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>682</v>
+      </c>
       <c r="N400" t="s" s="2">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48146,10 +48143,10 @@
         <v>116</v>
       </c>
       <c r="X400" t="s" s="2">
-        <v>1048</v>
+        <v>684</v>
       </c>
       <c r="Y400" t="s" s="2">
-        <v>1049</v>
+        <v>685</v>
       </c>
       <c r="Z400" t="s" s="2">
         <v>43</v>
@@ -48167,10 +48164,10 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="AF400" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG400" t="s" s="2">
         <v>50</v>
@@ -48196,7 +48193,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48219,17 +48216,17 @@
         <v>43</v>
       </c>
       <c r="J401" t="s" s="2">
-        <v>180</v>
+        <v>436</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48254,13 +48251,13 @@
         <v>43</v>
       </c>
       <c r="W401" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X401" t="s" s="2">
-        <v>1054</v>
+        <v>43</v>
       </c>
       <c r="Y401" t="s" s="2">
-        <v>1055</v>
+        <v>43</v>
       </c>
       <c r="Z401" t="s" s="2">
         <v>43</v>
@@ -48278,7 +48275,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48307,7 +48304,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48330,17 +48327,19 @@
         <v>43</v>
       </c>
       <c r="J402" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>1058</v>
-      </c>
-      <c r="M402" s="2"/>
+        <v>1041</v>
+      </c>
+      <c r="M402" t="s" s="2">
+        <v>1042</v>
+      </c>
       <c r="N402" t="s" s="2">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48365,13 +48364,13 @@
         <v>43</v>
       </c>
       <c r="W402" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X402" t="s" s="2">
-        <v>1059</v>
+        <v>43</v>
       </c>
       <c r="Y402" t="s" s="2">
-        <v>1060</v>
+        <v>43</v>
       </c>
       <c r="Z402" t="s" s="2">
         <v>43</v>
@@ -48389,7 +48388,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48418,7 +48417,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48429,7 +48428,7 @@
         <v>41</v>
       </c>
       <c r="F403" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G403" t="s" s="2">
         <v>43</v>
@@ -48441,16 +48440,20 @@
         <v>43</v>
       </c>
       <c r="J403" t="s" s="2">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>1063</v>
-      </c>
-      <c r="M403" s="2"/>
-      <c r="N403" s="2"/>
+        <v>1046</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="N403" t="s" s="2">
+        <v>1048</v>
+      </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
       </c>
@@ -48498,13 +48501,13 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>43</v>
@@ -48527,7 +48530,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48550,16 +48553,18 @@
         <v>43</v>
       </c>
       <c r="J404" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>64</v>
+        <v>1050</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>65</v>
+        <v>1051</v>
       </c>
       <c r="M404" s="2"/>
-      <c r="N404" s="2"/>
+      <c r="N404" t="s" s="2">
+        <v>1052</v>
+      </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
       </c>
@@ -48583,13 +48588,13 @@
         <v>43</v>
       </c>
       <c r="W404" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X404" t="s" s="2">
-        <v>43</v>
+        <v>1053</v>
       </c>
       <c r="Y404" t="s" s="2">
-        <v>43</v>
+        <v>1054</v>
       </c>
       <c r="Z404" t="s" s="2">
         <v>43</v>
@@ -48607,7 +48612,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>66</v>
+        <v>1049</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48619,7 +48624,7 @@
         <v>43</v>
       </c>
       <c r="AI404" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ404" t="s" s="2">
         <v>43</v>
@@ -48631,23 +48636,23 @@
         <v>43</v>
       </c>
       <c r="AM404" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F405" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G405" t="s" s="2">
         <v>43</v>
@@ -48659,18 +48664,18 @@
         <v>43</v>
       </c>
       <c r="J405" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>71</v>
+        <v>1056</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M405" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N405" s="2"/>
+        <v>1057</v>
+      </c>
+      <c r="M405" s="2"/>
+      <c r="N405" t="s" s="2">
+        <v>1058</v>
+      </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
       </c>
@@ -48694,13 +48699,13 @@
         <v>43</v>
       </c>
       <c r="W405" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
-        <v>43</v>
+        <v>1059</v>
       </c>
       <c r="Y405" t="s" s="2">
-        <v>43</v>
+        <v>1060</v>
       </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
@@ -48718,19 +48723,19 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>77</v>
+        <v>1055</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG405" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH405" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI405" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ405" t="s" s="2">
         <v>43</v>
@@ -48742,47 +48747,45 @@
         <v>43</v>
       </c>
       <c r="AM405" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F406" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G406" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H406" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I406" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J406" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>325</v>
+        <v>1062</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M406" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="M406" s="2"/>
       <c r="N406" t="s" s="2">
-        <v>156</v>
+        <v>1058</v>
       </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
@@ -48807,13 +48810,13 @@
         <v>43</v>
       </c>
       <c r="W406" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X406" t="s" s="2">
-        <v>43</v>
+        <v>1064</v>
       </c>
       <c r="Y406" t="s" s="2">
-        <v>43</v>
+        <v>1065</v>
       </c>
       <c r="Z406" t="s" s="2">
         <v>43</v>
@@ -48831,19 +48834,19 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>327</v>
+        <v>1061</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG406" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH406" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI406" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ406" t="s" s="2">
         <v>43</v>
@@ -48855,12 +48858,12 @@
         <v>43</v>
       </c>
       <c r="AM406" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48868,10 +48871,10 @@
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F407" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G407" t="s" s="2">
         <v>43</v>
@@ -48883,20 +48886,16 @@
         <v>43</v>
       </c>
       <c r="J407" t="s" s="2">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>680</v>
+        <v>1067</v>
       </c>
       <c r="L407" t="s" s="2">
         <v>1068</v>
       </c>
-      <c r="M407" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="N407" t="s" s="2">
-        <v>1070</v>
-      </c>
+      <c r="M407" s="2"/>
+      <c r="N407" s="2"/>
       <c r="O407" t="s" s="2">
         <v>43</v>
       </c>
@@ -48920,13 +48919,13 @@
         <v>43</v>
       </c>
       <c r="W407" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X407" t="s" s="2">
-        <v>1071</v>
+        <v>43</v>
       </c>
       <c r="Y407" t="s" s="2">
-        <v>1072</v>
+        <v>43</v>
       </c>
       <c r="Z407" t="s" s="2">
         <v>43</v>
@@ -48944,13 +48943,13 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AF407" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>43</v>
@@ -48973,7 +48972,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -48996,18 +48995,16 @@
         <v>43</v>
       </c>
       <c r="J408" t="s" s="2">
-        <v>1074</v>
+        <v>52</v>
       </c>
       <c r="K408" t="s" s="2">
-        <v>1075</v>
+        <v>64</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>1076</v>
+        <v>65</v>
       </c>
       <c r="M408" s="2"/>
-      <c r="N408" t="s" s="2">
-        <v>1077</v>
-      </c>
+      <c r="N408" s="2"/>
       <c r="O408" t="s" s="2">
         <v>43</v>
       </c>
@@ -49055,7 +49052,7 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>1073</v>
+        <v>66</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>41</v>
@@ -49067,7 +49064,7 @@
         <v>43</v>
       </c>
       <c r="AI408" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ408" t="s" s="2">
         <v>43</v>
@@ -49079,23 +49076,23 @@
         <v>43</v>
       </c>
       <c r="AM408" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F409" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G409" t="s" s="2">
         <v>43</v>
@@ -49107,18 +49104,18 @@
         <v>43</v>
       </c>
       <c r="J409" t="s" s="2">
-        <v>1079</v>
+        <v>70</v>
       </c>
       <c r="K409" t="s" s="2">
-        <v>1080</v>
+        <v>71</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>1081</v>
-      </c>
-      <c r="M409" s="2"/>
-      <c r="N409" t="s" s="2">
-        <v>1082</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M409" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N409" s="2"/>
       <c r="O409" t="s" s="2">
         <v>43</v>
       </c>
@@ -49166,35 +49163,483 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF409" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG409" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH409" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI409" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ409" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK409" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL409" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM409" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="410" hidden="true">
+      <c r="A410" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="B410" s="2"/>
+      <c r="C410" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D410" s="2"/>
+      <c r="E410" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F410" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H410" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I410" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J410" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K410" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L410" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M410" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N410" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P410" s="2"/>
+      <c r="Q410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE410" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF410" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG410" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI410" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM410" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="411" hidden="true">
+      <c r="A411" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="B411" s="2"/>
+      <c r="C411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D411" s="2"/>
+      <c r="E411" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F411" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J411" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K411" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L411" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="M411" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="N411" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="O411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P411" s="2"/>
+      <c r="Q411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W411" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X411" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="Y411" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE411" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="AF411" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG411" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI411" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM411" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="412" hidden="true">
+      <c r="A412" t="s" s="2">
         <v>1078</v>
       </c>
-      <c r="AF409" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG409" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH409" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI409" t="s" s="2">
+      <c r="B412" s="2"/>
+      <c r="C412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D412" s="2"/>
+      <c r="E412" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F412" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J412" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="K412" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="L412" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="M412" s="2"/>
+      <c r="N412" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="O412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P412" s="2"/>
+      <c r="Q412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE412" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="AF412" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG412" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI412" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AJ409" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK409" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL409" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM409" t="s" s="2">
+      <c r="AJ412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM412" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="413" hidden="true">
+      <c r="A413" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="B413" s="2"/>
+      <c r="C413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D413" s="2"/>
+      <c r="E413" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F413" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J413" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="K413" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="L413" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="M413" s="2"/>
+      <c r="N413" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="O413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P413" s="2"/>
+      <c r="Q413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE413" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="AF413" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG413" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI413" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM413" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM409">
+  <autoFilter ref="A1:AM413">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -49204,7 +49649,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI408">
+  <conditionalFormatting sqref="A2:AI412">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14554" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14555" uniqueCount="1090">
   <si>
     <t>Path</t>
   </si>
@@ -2066,6 +2066,9 @@
     <t>A claim line. Either a simple (a product or service) or a 'group' of details which can also be a simple items or groups of sub-details.</t>
   </si>
   <si>
+    <t>Put the definition here for item</t>
+  </si>
+  <si>
     <t>The items to be processed for adjudication.</t>
   </si>
   <si>
@@ -2187,7 +2190,7 @@
     <t>When the value is a group code then this item collects a set of related claim details, otherwise this contains the product, service, drug or other billing code for the item.</t>
   </si>
   <si>
-    <t>If this is an actual service or product line, i.e. not a Group, then use code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI). If a grouping item then use a group code to indicate the type of thing being grouped e.g. 'glasses' or 'compound'.</t>
+    <t>Put the definition here for item.productOrService here</t>
   </si>
   <si>
     <t>Necessary to state what was provided or done.</t>
@@ -2572,6 +2575,9 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.item.detail.productOrService</t>
+  </si>
+  <si>
+    <t>If this is an actual service or product line, i.e. not a Group, then use code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI). If a grouping item then use a group code to indicate the type of thing being grouped e.g. 'glasses' or 'compound'.</t>
   </si>
   <si>
     <t>Allowable service and product codes.</t>
@@ -25488,9 +25494,11 @@
       <c r="L197" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M197" s="2"/>
+      <c r="M197" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="N197" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25568,7 +25576,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25677,7 +25685,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25788,7 +25796,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25901,7 +25909,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25927,14 +25935,14 @@
         <v>425</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25983,7 +25991,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>50</v>
@@ -26012,7 +26020,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26038,14 +26046,14 @@
         <v>425</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26094,7 +26102,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26123,7 +26131,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26149,14 +26157,14 @@
         <v>425</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26205,7 +26213,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26234,7 +26242,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26260,14 +26268,14 @@
         <v>425</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26316,7 +26324,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26345,7 +26353,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26371,14 +26379,14 @@
         <v>425</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26427,7 +26435,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26456,7 +26464,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26482,14 +26490,14 @@
         <v>180</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26518,7 +26526,7 @@
       </c>
       <c r="X206" s="2"/>
       <c r="Y206" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>43</v>
@@ -26536,7 +26544,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26565,7 +26573,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26591,16 +26599,16 @@
         <v>180</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26628,10 +26636,10 @@
         <v>116</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>43</v>
@@ -26649,7 +26657,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -26678,11 +26686,11 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26704,16 +26712,16 @@
         <v>180</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26742,7 +26750,7 @@
       </c>
       <c r="X208" s="2"/>
       <c r="Y208" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
@@ -26760,7 +26768,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26789,7 +26797,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26815,16 +26823,16 @@
         <v>180</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26853,7 +26861,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
@@ -26871,7 +26879,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26900,7 +26908,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26926,16 +26934,16 @@
         <v>180</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26963,10 +26971,10 @@
         <v>116</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z210" t="s" s="2">
         <v>43</v>
@@ -26984,7 +26992,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -27013,7 +27021,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27039,14 +27047,14 @@
         <v>480</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27095,7 +27103,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27124,7 +27132,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27147,17 +27155,17 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27185,10 +27193,10 @@
         <v>116</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z212" t="s" s="2">
         <v>43</v>
@@ -27206,7 +27214,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27235,7 +27243,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27258,17 +27266,17 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27317,7 +27325,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27346,7 +27354,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27369,17 +27377,17 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27428,7 +27436,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27457,7 +27465,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27480,19 +27488,19 @@
         <v>43</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27541,7 +27549,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27570,7 +27578,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27593,19 +27601,19 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27654,7 +27662,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27683,7 +27691,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27765,7 +27773,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27794,7 +27802,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27820,16 +27828,16 @@
         <v>180</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27857,10 +27865,10 @@
         <v>116</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -27878,7 +27886,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27907,7 +27915,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27933,14 +27941,14 @@
         <v>180</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27968,10 +27976,10 @@
         <v>116</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
@@ -27989,7 +27997,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28018,7 +28026,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28041,17 +28049,17 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28100,7 +28108,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28129,7 +28137,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28155,14 +28163,14 @@
         <v>425</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28211,7 +28219,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28240,7 +28248,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28266,14 +28274,14 @@
         <v>316</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28322,7 +28330,7 @@
         <v>542</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28351,7 +28359,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28460,7 +28468,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28571,7 +28579,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28684,7 +28692,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28710,16 +28718,16 @@
         <v>180</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28748,7 +28756,7 @@
       </c>
       <c r="X226" s="2"/>
       <c r="Y226" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z226" t="s" s="2">
         <v>43</v>
@@ -28766,7 +28774,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>50</v>
@@ -28795,7 +28803,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28821,16 +28829,16 @@
         <v>180</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28858,10 +28866,10 @@
         <v>116</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z227" t="s" s="2">
         <v>43</v>
@@ -28879,7 +28887,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28908,7 +28916,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28931,19 +28939,19 @@
         <v>43</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28992,7 +29000,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29021,7 +29029,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29044,19 +29052,19 @@
         <v>43</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -29105,7 +29113,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -29134,10 +29142,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C230" t="s" s="2">
         <v>43</v>
@@ -29162,14 +29170,14 @@
         <v>316</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -29218,7 +29226,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29247,7 +29255,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29356,7 +29364,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29467,7 +29475,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29580,7 +29588,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29606,16 +29614,16 @@
         <v>180</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29644,7 +29652,7 @@
       </c>
       <c r="X234" s="2"/>
       <c r="Y234" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
@@ -29662,7 +29670,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>50</v>
@@ -29691,7 +29699,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29717,16 +29725,16 @@
         <v>180</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29754,10 +29762,10 @@
         <v>116</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29775,7 +29783,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29804,7 +29812,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29827,19 +29835,19 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29888,7 +29896,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29917,7 +29925,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29940,19 +29948,19 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30001,7 +30009,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30030,10 +30038,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>43</v>
@@ -30058,14 +30066,14 @@
         <v>316</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30114,7 +30122,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30143,7 +30151,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30252,7 +30260,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30363,7 +30371,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30476,7 +30484,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30502,16 +30510,16 @@
         <v>180</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30521,7 +30529,7 @@
         <v>43</v>
       </c>
       <c r="R242" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="S242" t="s" s="2">
         <v>43</v>
@@ -30540,7 +30548,7 @@
       </c>
       <c r="X242" s="2"/>
       <c r="Y242" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30558,7 +30566,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>50</v>
@@ -30587,7 +30595,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30613,16 +30621,16 @@
         <v>180</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30651,7 +30659,7 @@
       </c>
       <c r="X243" s="2"/>
       <c r="Y243" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30669,7 +30677,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30698,7 +30706,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30721,19 +30729,19 @@
         <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30782,7 +30790,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30811,7 +30819,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30834,19 +30842,19 @@
         <v>43</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30895,7 +30903,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30924,10 +30932,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C246" t="s" s="2">
         <v>43</v>
@@ -30952,14 +30960,14 @@
         <v>316</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -31008,7 +31016,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31037,7 +31045,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31146,7 +31154,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31257,7 +31265,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31370,7 +31378,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31396,16 +31404,16 @@
         <v>180</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31415,7 +31423,7 @@
         <v>43</v>
       </c>
       <c r="R250" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S250" t="s" s="2">
         <v>43</v>
@@ -31434,7 +31442,7 @@
       </c>
       <c r="X250" s="2"/>
       <c r="Y250" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31452,7 +31460,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>50</v>
@@ -31481,7 +31489,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31507,16 +31515,16 @@
         <v>180</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31544,10 +31552,10 @@
         <v>116</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
@@ -31565,7 +31573,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31594,7 +31602,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31617,19 +31625,19 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31678,7 +31686,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31707,7 +31715,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31730,19 +31738,19 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31791,7 +31799,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31820,7 +31828,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31846,10 +31854,10 @@
         <v>316</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
@@ -31900,7 +31908,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31929,7 +31937,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -32038,7 +32046,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32149,7 +32157,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32262,7 +32270,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32291,11 +32299,11 @@
         <v>648</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32344,7 +32352,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>50</v>
@@ -32373,7 +32381,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32399,14 +32407,14 @@
         <v>180</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32434,28 +32442,28 @@
         <v>116</v>
       </c>
       <c r="X259" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="Y259" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="Z259" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA259" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB259" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC259" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD259" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE259" t="s" s="2">
         <v>809</v>
-      </c>
-      <c r="Y259" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="Z259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE259" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32484,7 +32492,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32510,16 +32518,16 @@
         <v>180</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32547,10 +32555,10 @@
         <v>116</v>
       </c>
       <c r="X260" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
@@ -32568,7 +32576,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32597,11 +32605,11 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -32623,16 +32631,16 @@
         <v>180</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>690</v>
+        <v>815</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32660,28 +32668,28 @@
         <v>116</v>
       </c>
       <c r="X261" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="Y261" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="Z261" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA261" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB261" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC261" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD261" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE261" t="s" s="2">
         <v>814</v>
-      </c>
-      <c r="Y261" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="Z261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE261" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>50</v>
@@ -32710,7 +32718,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32736,16 +32744,16 @@
         <v>180</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32773,28 +32781,28 @@
         <v>116</v>
       </c>
       <c r="X262" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="Y262" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Z262" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA262" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB262" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC262" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD262" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE262" t="s" s="2">
         <v>818</v>
-      </c>
-      <c r="Y262" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="Z262" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA262" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB262" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC262" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD262" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE262" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32823,7 +32831,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32849,16 +32857,16 @@
         <v>180</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32886,10 +32894,10 @@
         <v>116</v>
       </c>
       <c r="X263" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>43</v>
@@ -32907,7 +32915,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32936,7 +32944,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32959,17 +32967,17 @@
         <v>43</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -33018,7 +33026,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -33047,7 +33055,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33070,17 +33078,17 @@
         <v>43</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -33129,7 +33137,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -33158,7 +33166,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33181,19 +33189,19 @@
         <v>43</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33242,7 +33250,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33271,7 +33279,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33294,19 +33302,19 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33355,7 +33363,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33384,7 +33392,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33466,7 +33474,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33495,7 +33503,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33521,14 +33529,14 @@
         <v>425</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33577,7 +33585,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33606,7 +33614,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33632,10 +33640,10 @@
         <v>43</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
@@ -33686,7 +33694,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33715,7 +33723,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33741,10 +33749,10 @@
         <v>316</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
@@ -33795,7 +33803,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33824,7 +33832,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33933,7 +33941,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34044,7 +34052,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34157,7 +34165,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34186,11 +34194,11 @@
         <v>648</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M275" s="2"/>
       <c r="N275" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34239,7 +34247,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>50</v>
@@ -34268,7 +34276,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34294,14 +34302,14 @@
         <v>180</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34329,10 +34337,10 @@
         <v>116</v>
       </c>
       <c r="X276" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Y276" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Z276" t="s" s="2">
         <v>43</v>
@@ -34350,7 +34358,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34379,7 +34387,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34405,16 +34413,16 @@
         <v>180</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34442,10 +34450,10 @@
         <v>116</v>
       </c>
       <c r="X277" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z277" t="s" s="2">
         <v>43</v>
@@ -34463,7 +34471,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34492,11 +34500,11 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -34518,16 +34526,16 @@
         <v>180</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>690</v>
+        <v>815</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34555,10 +34563,10 @@
         <v>116</v>
       </c>
       <c r="X278" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
@@ -34576,7 +34584,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>50</v>
@@ -34605,7 +34613,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34631,16 +34639,16 @@
         <v>180</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34668,10 +34676,10 @@
         <v>116</v>
       </c>
       <c r="X279" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="Z279" t="s" s="2">
         <v>43</v>
@@ -34689,7 +34697,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34718,7 +34726,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34744,16 +34752,16 @@
         <v>180</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34781,10 +34789,10 @@
         <v>116</v>
       </c>
       <c r="X280" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>43</v>
@@ -34802,7 +34810,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34831,7 +34839,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34854,17 +34862,17 @@
         <v>43</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34913,7 +34921,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34942,7 +34950,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34965,17 +34973,17 @@
         <v>43</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -35024,7 +35032,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -35053,7 +35061,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35076,19 +35084,19 @@
         <v>43</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -35137,7 +35145,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35166,7 +35174,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35189,19 +35197,19 @@
         <v>43</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35250,7 +35258,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35279,7 +35287,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35361,7 +35369,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35390,7 +35398,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35416,14 +35424,14 @@
         <v>425</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35472,7 +35480,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35501,7 +35509,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35527,10 +35535,10 @@
         <v>43</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
@@ -35581,7 +35589,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35610,7 +35618,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35636,14 +35644,14 @@
         <v>316</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="M288" s="2"/>
       <c r="N288" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35692,7 +35700,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35721,7 +35729,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35830,7 +35838,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35941,7 +35949,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36054,7 +36062,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36080,14 +36088,14 @@
         <v>425</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36136,7 +36144,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36165,7 +36173,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36191,14 +36199,14 @@
         <v>425</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36247,7 +36255,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36276,7 +36284,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36302,14 +36310,14 @@
         <v>425</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36358,7 +36366,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36387,7 +36395,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36413,14 +36421,14 @@
         <v>430</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36469,7 +36477,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36498,11 +36506,11 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -36524,16 +36532,16 @@
         <v>180</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>690</v>
+        <v>815</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>43</v>
@@ -36561,10 +36569,10 @@
         <v>116</v>
       </c>
       <c r="X296" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="Z296" t="s" s="2">
         <v>43</v>
@@ -36582,7 +36590,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>50</v>
@@ -36611,7 +36619,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36637,16 +36645,16 @@
         <v>180</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36674,10 +36682,10 @@
         <v>116</v>
       </c>
       <c r="X297" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="Y297" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="Z297" t="s" s="2">
         <v>43</v>
@@ -36695,7 +36703,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36724,7 +36732,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36750,16 +36758,16 @@
         <v>180</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36787,10 +36795,10 @@
         <v>116</v>
       </c>
       <c r="X298" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Y298" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z298" t="s" s="2">
         <v>43</v>
@@ -36808,7 +36816,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36837,7 +36845,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36863,14 +36871,14 @@
         <v>480</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36919,7 +36927,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36948,7 +36956,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36971,17 +36979,17 @@
         <v>43</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -37009,10 +37017,10 @@
         <v>116</v>
       </c>
       <c r="X300" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Y300" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>43</v>
@@ -37030,7 +37038,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37059,7 +37067,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37082,17 +37090,17 @@
         <v>43</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37141,7 +37149,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37170,7 +37178,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37193,17 +37201,17 @@
         <v>43</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37252,7 +37260,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37281,7 +37289,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37304,19 +37312,19 @@
         <v>43</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37365,7 +37373,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37394,7 +37402,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37417,19 +37425,19 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37478,7 +37486,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37507,7 +37515,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37533,16 +37541,16 @@
         <v>180</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37570,10 +37578,10 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Y305" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
@@ -37591,7 +37599,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37620,7 +37628,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37646,14 +37654,14 @@
         <v>180</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37681,10 +37689,10 @@
         <v>116</v>
       </c>
       <c r="X306" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Z306" t="s" s="2">
         <v>43</v>
@@ -37702,7 +37710,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37731,7 +37739,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37757,14 +37765,14 @@
         <v>425</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37813,7 +37821,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37842,7 +37850,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37868,10 +37876,10 @@
         <v>43</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
@@ -37922,7 +37930,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37951,7 +37959,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37977,10 +37985,10 @@
         <v>316</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="M309" s="2"/>
       <c r="N309" s="2"/>
@@ -38031,7 +38039,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38060,7 +38068,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38169,7 +38177,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38280,7 +38288,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38393,11 +38401,11 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -38419,16 +38427,16 @@
         <v>180</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>690</v>
+        <v>815</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38456,10 +38464,10 @@
         <v>116</v>
       </c>
       <c r="X313" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="Y313" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="Z313" t="s" s="2">
         <v>43</v>
@@ -38477,7 +38485,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>50</v>
@@ -38506,7 +38514,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38532,16 +38540,16 @@
         <v>180</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38569,10 +38577,10 @@
         <v>116</v>
       </c>
       <c r="X314" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="Y314" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="Z314" t="s" s="2">
         <v>43</v>
@@ -38590,7 +38598,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38619,7 +38627,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38642,17 +38650,17 @@
         <v>43</v>
       </c>
       <c r="J315" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38701,7 +38709,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38730,7 +38738,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38753,17 +38761,17 @@
         <v>43</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38812,7 +38820,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38841,7 +38849,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38864,19 +38872,19 @@
         <v>43</v>
       </c>
       <c r="J317" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38925,7 +38933,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38954,7 +38962,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38977,19 +38985,19 @@
         <v>43</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39038,7 +39046,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39067,7 +39075,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39093,14 +39101,14 @@
         <v>425</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39149,7 +39157,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39178,7 +39186,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39204,10 +39212,10 @@
         <v>43</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
@@ -39258,7 +39266,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39287,7 +39295,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39313,10 +39321,10 @@
         <v>316</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -39367,7 +39375,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
@@ -39396,7 +39404,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39505,7 +39513,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39616,7 +39624,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39729,11 +39737,11 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39755,16 +39763,16 @@
         <v>180</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>690</v>
+        <v>815</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39792,10 +39800,10 @@
         <v>116</v>
       </c>
       <c r="X325" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="Z325" t="s" s="2">
         <v>43</v>
@@ -39813,7 +39821,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>50</v>
@@ -39842,7 +39850,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39868,16 +39876,16 @@
         <v>180</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39905,10 +39913,10 @@
         <v>116</v>
       </c>
       <c r="X326" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="Y326" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="Z326" t="s" s="2">
         <v>43</v>
@@ -39926,7 +39934,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39955,7 +39963,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39978,17 +39986,17 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40037,7 +40045,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40066,7 +40074,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40089,17 +40097,17 @@
         <v>43</v>
       </c>
       <c r="J328" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -40148,7 +40156,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40177,7 +40185,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40200,19 +40208,19 @@
         <v>43</v>
       </c>
       <c r="J329" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40261,7 +40269,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40290,7 +40298,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40313,19 +40321,19 @@
         <v>43</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40374,7 +40382,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40403,7 +40411,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40429,14 +40437,14 @@
         <v>425</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40485,7 +40493,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40514,7 +40522,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40540,10 +40548,10 @@
         <v>43</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
@@ -40594,7 +40602,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40623,7 +40631,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40649,14 +40657,14 @@
         <v>316</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40705,7 +40713,7 @@
         <v>542</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40734,7 +40742,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40843,7 +40851,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40869,10 +40877,10 @@
         <v>70</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
@@ -40950,10 +40958,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C336" t="s" s="2">
         <v>43</v>
@@ -40975,13 +40983,13 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="K336" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="L336" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="K336" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="L336" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
@@ -41041,7 +41049,7 @@
         <v>42</v>
       </c>
       <c r="AH336" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="AI336" t="s" s="2">
         <v>78</v>
@@ -41061,7 +41069,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41174,7 +41182,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41200,16 +41208,16 @@
         <v>180</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41238,7 +41246,7 @@
       </c>
       <c r="X338" s="2"/>
       <c r="Y338" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>43</v>
@@ -41256,7 +41264,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>50</v>
@@ -41285,7 +41293,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41311,16 +41319,16 @@
         <v>180</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41348,10 +41356,10 @@
         <v>116</v>
       </c>
       <c r="X339" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y339" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z339" t="s" s="2">
         <v>43</v>
@@ -41369,7 +41377,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41398,7 +41406,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41421,19 +41429,19 @@
         <v>43</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41482,7 +41490,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41511,7 +41519,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41534,19 +41542,19 @@
         <v>43</v>
       </c>
       <c r="J341" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41595,7 +41603,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41624,10 +41632,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C342" t="s" s="2">
         <v>43</v>
@@ -41652,14 +41660,14 @@
         <v>316</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41708,7 +41716,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41737,7 +41745,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41846,7 +41854,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41872,10 +41880,10 @@
         <v>70</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
@@ -41953,10 +41961,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C345" t="s" s="2">
         <v>43</v>
@@ -41978,13 +41986,13 @@
         <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="K345" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="L345" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="K345" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="L345" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
@@ -42044,7 +42052,7 @@
         <v>42</v>
       </c>
       <c r="AH345" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="AI345" t="s" s="2">
         <v>78</v>
@@ -42064,7 +42072,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42177,7 +42185,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42203,16 +42211,16 @@
         <v>180</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42241,7 +42249,7 @@
       </c>
       <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
@@ -42259,7 +42267,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>50</v>
@@ -42288,7 +42296,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42314,16 +42322,16 @@
         <v>180</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42351,10 +42359,10 @@
         <v>116</v>
       </c>
       <c r="X348" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
@@ -42372,7 +42380,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42401,7 +42409,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42424,19 +42432,19 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42485,7 +42493,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42514,7 +42522,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42537,19 +42545,19 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42598,7 +42606,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42627,10 +42635,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C351" t="s" s="2">
         <v>43</v>
@@ -42655,14 +42663,14 @@
         <v>316</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42711,7 +42719,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42740,7 +42748,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42849,7 +42857,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42875,10 +42883,10 @@
         <v>70</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -42956,10 +42964,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C354" t="s" s="2">
         <v>43</v>
@@ -42981,13 +42989,13 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="K354" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="L354" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="K354" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="L354" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="M354" s="2"/>
       <c r="N354" s="2"/>
@@ -43047,7 +43055,7 @@
         <v>42</v>
       </c>
       <c r="AH354" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="AI354" t="s" s="2">
         <v>78</v>
@@ -43067,7 +43075,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43180,7 +43188,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43206,16 +43214,16 @@
         <v>180</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43225,7 +43233,7 @@
         <v>43</v>
       </c>
       <c r="R356" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="S356" t="s" s="2">
         <v>43</v>
@@ -43244,7 +43252,7 @@
       </c>
       <c r="X356" s="2"/>
       <c r="Y356" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43262,7 +43270,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>50</v>
@@ -43291,7 +43299,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43317,16 +43325,16 @@
         <v>180</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43355,7 +43363,7 @@
       </c>
       <c r="X357" s="2"/>
       <c r="Y357" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43373,7 +43381,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43402,7 +43410,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43425,19 +43433,19 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43486,7 +43494,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43515,7 +43523,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43538,19 +43546,19 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43599,7 +43607,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43628,10 +43636,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C360" t="s" s="2">
         <v>43</v>
@@ -43656,14 +43664,14 @@
         <v>316</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43712,7 +43720,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43741,7 +43749,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43850,7 +43858,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43876,10 +43884,10 @@
         <v>70</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
@@ -43957,10 +43965,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C363" t="s" s="2">
         <v>43</v>
@@ -43982,13 +43990,13 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="L363" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="K363" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="L363" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -44048,7 +44056,7 @@
         <v>42</v>
       </c>
       <c r="AH363" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="AI363" t="s" s="2">
         <v>78</v>
@@ -44068,7 +44076,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44181,7 +44189,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44207,16 +44215,16 @@
         <v>180</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44245,7 +44253,7 @@
       </c>
       <c r="X365" s="2"/>
       <c r="Y365" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="Z365" t="s" s="2">
         <v>43</v>
@@ -44263,7 +44271,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>50</v>
@@ -44292,7 +44300,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44318,16 +44326,16 @@
         <v>180</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44355,10 +44363,10 @@
         <v>116</v>
       </c>
       <c r="X366" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y366" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z366" t="s" s="2">
         <v>43</v>
@@ -44376,7 +44384,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44405,7 +44413,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44428,19 +44436,19 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44489,7 +44497,7 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
@@ -44518,7 +44526,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44541,19 +44549,19 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44602,7 +44610,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44631,7 +44639,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44657,16 +44665,16 @@
         <v>316</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44715,7 +44723,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
@@ -44744,7 +44752,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44853,7 +44861,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44964,7 +44972,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45077,7 +45085,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45103,16 +45111,16 @@
         <v>180</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45141,7 +45149,7 @@
       </c>
       <c r="X373" s="2"/>
       <c r="Y373" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="Z373" t="s" s="2">
         <v>43</v>
@@ -45159,7 +45167,7 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>50</v>
@@ -45188,7 +45196,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45211,17 +45219,17 @@
         <v>51</v>
       </c>
       <c r="J374" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45270,7 +45278,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>50</v>
@@ -45299,7 +45307,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45325,14 +45333,14 @@
         <v>316</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45381,7 +45389,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45410,7 +45418,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45519,7 +45527,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45630,7 +45638,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45743,7 +45751,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45769,14 +45777,14 @@
         <v>180</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45805,7 +45813,7 @@
       </c>
       <c r="X379" s="2"/>
       <c r="Y379" t="s" s="2">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>43</v>
@@ -45823,7 +45831,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45852,7 +45860,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45875,19 +45883,19 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45936,7 +45944,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45965,7 +45973,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45991,14 +45999,14 @@
         <v>180</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="M381" s="2"/>
       <c r="N381" t="s" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46027,7 +46035,7 @@
       </c>
       <c r="X381" s="2"/>
       <c r="Y381" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Z381" t="s" s="2">
         <v>43</v>
@@ -46045,7 +46053,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46074,7 +46082,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46100,14 +46108,14 @@
         <v>506</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="M382" s="2"/>
       <c r="N382" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46156,7 +46164,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46185,7 +46193,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46208,17 +46216,17 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46267,7 +46275,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46296,7 +46304,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46322,16 +46330,16 @@
         <v>159</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46380,7 +46388,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46409,7 +46417,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46435,16 +46443,16 @@
         <v>180</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
@@ -46472,10 +46480,10 @@
         <v>116</v>
       </c>
       <c r="X385" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="Y385" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
@@ -46493,7 +46501,7 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
@@ -46522,7 +46530,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46545,19 +46553,19 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46606,7 +46614,7 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
@@ -46635,7 +46643,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46661,14 +46669,14 @@
         <v>316</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46717,7 +46725,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46746,7 +46754,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46855,7 +46863,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46966,7 +46974,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47079,7 +47087,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47105,14 +47113,14 @@
         <v>425</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47161,7 +47169,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47190,7 +47198,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47216,14 +47224,14 @@
         <v>126</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="M392" s="2"/>
       <c r="N392" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47251,10 +47259,10 @@
         <v>174</v>
       </c>
       <c r="X392" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="Y392" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="Z392" t="s" s="2">
         <v>43</v>
@@ -47272,7 +47280,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47301,7 +47309,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47327,14 +47335,14 @@
         <v>52</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="M393" s="2"/>
       <c r="N393" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47383,7 +47391,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47412,7 +47420,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47438,16 +47446,16 @@
         <v>180</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47496,7 +47504,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47525,7 +47533,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47551,16 +47559,16 @@
         <v>207</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47609,7 +47617,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47638,7 +47646,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47664,10 +47672,10 @@
         <v>316</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -47718,7 +47726,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
@@ -47747,7 +47755,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47856,7 +47864,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -47967,7 +47975,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48080,7 +48088,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48106,16 +48114,16 @@
         <v>180</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48143,10 +48151,10 @@
         <v>116</v>
       </c>
       <c r="X400" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Y400" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z400" t="s" s="2">
         <v>43</v>
@@ -48164,7 +48172,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>50</v>
@@ -48193,7 +48201,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48219,14 +48227,14 @@
         <v>436</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48275,7 +48283,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48304,7 +48312,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48330,16 +48338,16 @@
         <v>52</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48388,7 +48396,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48417,7 +48425,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48443,16 +48451,16 @@
         <v>52</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48501,7 +48509,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48530,7 +48538,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48556,14 +48564,14 @@
         <v>180</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="M404" s="2"/>
       <c r="N404" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48591,10 +48599,10 @@
         <v>116</v>
       </c>
       <c r="X404" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="Y404" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="Z404" t="s" s="2">
         <v>43</v>
@@ -48612,7 +48620,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48641,7 +48649,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48667,14 +48675,14 @@
         <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="M405" s="2"/>
       <c r="N405" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48702,10 +48710,10 @@
         <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="Y405" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
@@ -48723,7 +48731,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48752,7 +48760,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48778,14 +48786,14 @@
         <v>180</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="M406" s="2"/>
       <c r="N406" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
@@ -48813,10 +48821,10 @@
         <v>116</v>
       </c>
       <c r="X406" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="Y406" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="Z406" t="s" s="2">
         <v>43</v>
@@ -48834,7 +48842,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -48863,7 +48871,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48889,10 +48897,10 @@
         <v>316</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -48943,7 +48951,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
@@ -48972,7 +48980,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49081,7 +49089,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49192,7 +49200,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49305,7 +49313,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49331,16 +49339,16 @@
         <v>180</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49368,10 +49376,10 @@
         <v>116</v>
       </c>
       <c r="X411" t="s" s="2">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="Y411" t="s" s="2">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="Z411" t="s" s="2">
         <v>43</v>
@@ -49389,7 +49397,7 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>50</v>
@@ -49418,7 +49426,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49441,17 +49449,17 @@
         <v>43</v>
       </c>
       <c r="J412" t="s" s="2">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" t="s" s="2">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49500,7 +49508,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49529,7 +49537,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49552,17 +49560,17 @@
         <v>43</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" t="s" s="2">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49611,7 +49619,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14555" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14554" uniqueCount="1089">
   <si>
     <t>Path</t>
   </si>
@@ -2063,9 +2063,6 @@
     <t>Product or service provided</t>
   </si>
   <si>
-    <t>A claim line. Either a simple (a product or service) or a 'group' of details which can also be a simple items or groups of sub-details.</t>
-  </si>
-  <si>
     <t>Put the definition here for item</t>
   </si>
   <si>
@@ -2187,10 +2184,10 @@
     <t>Billing, service, product, or drug code</t>
   </si>
   <si>
-    <t>When the value is a group code then this item collects a set of related claim details, otherwise this contains the product, service, drug or other billing code for the item.</t>
-  </si>
-  <si>
     <t>Put the definition here for item.productOrService here</t>
+  </si>
+  <si>
+    <t>If this is an actual service or product line, i.e. not a Group, then use code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI). If a grouping item then use a group code to indicate the type of thing being grouped e.g. 'glasses' or 'compound'.</t>
   </si>
   <si>
     <t>Necessary to state what was provided or done.</t>
@@ -2577,7 +2574,7 @@
     <t>ExplanationOfBenefit.item.detail.productOrService</t>
   </si>
   <si>
-    <t>If this is an actual service or product line, i.e. not a Group, then use code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI). If a grouping item then use a group code to indicate the type of thing being grouped e.g. 'glasses' or 'compound'.</t>
+    <t>When the value is a group code then this item collects a set of related claim details, otherwise this contains the product, service, drug or other billing code for the item.</t>
   </si>
   <si>
     <t>Allowable service and product codes.</t>
@@ -25494,11 +25491,9 @@
       <c r="L197" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M197" t="s" s="2">
+      <c r="M197" s="2"/>
+      <c r="N197" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25576,7 +25571,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25685,7 +25680,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25796,7 +25791,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25909,7 +25904,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25935,14 +25930,14 @@
         <v>425</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25991,7 +25986,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>50</v>
@@ -26020,7 +26015,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26046,14 +26041,14 @@
         <v>425</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L202" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26102,7 +26097,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26131,7 +26126,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26157,14 +26152,14 @@
         <v>425</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="L203" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26213,7 +26208,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26242,7 +26237,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26268,14 +26263,14 @@
         <v>425</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26324,7 +26319,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26353,7 +26348,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26379,14 +26374,14 @@
         <v>425</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26435,7 +26430,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26464,7 +26459,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26490,14 +26485,14 @@
         <v>180</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26526,7 +26521,7 @@
       </c>
       <c r="X206" s="2"/>
       <c r="Y206" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>43</v>
@@ -26544,7 +26539,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26573,7 +26568,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26599,16 +26594,16 @@
         <v>180</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L207" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="L207" t="s" s="2">
+      <c r="M207" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="M207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26636,11 +26631,11 @@
         <v>116</v>
       </c>
       <c r="X207" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="Y207" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="Y207" t="s" s="2">
-        <v>686</v>
-      </c>
       <c r="Z207" t="s" s="2">
         <v>43</v>
       </c>
@@ -26657,7 +26652,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -26686,11 +26681,11 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26712,16 +26707,16 @@
         <v>180</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26750,7 +26745,7 @@
       </c>
       <c r="X208" s="2"/>
       <c r="Y208" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
@@ -26768,7 +26763,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26797,7 +26792,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26823,16 +26818,16 @@
         <v>180</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L209" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="L209" t="s" s="2">
+      <c r="M209" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26861,7 +26856,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
@@ -26879,7 +26874,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26908,7 +26903,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26934,16 +26929,16 @@
         <v>180</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L210" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L210" t="s" s="2">
+      <c r="M210" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M210" t="s" s="2">
+      <c r="N210" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26971,11 +26966,11 @@
         <v>116</v>
       </c>
       <c r="X210" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="Y210" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="Y210" t="s" s="2">
-        <v>706</v>
-      </c>
       <c r="Z210" t="s" s="2">
         <v>43</v>
       </c>
@@ -26992,7 +26987,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -27021,7 +27016,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27047,14 +27042,14 @@
         <v>480</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="L211" t="s" s="2">
         <v>708</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27103,7 +27098,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27132,7 +27127,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27155,17 +27150,17 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="K212" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="K212" t="s" s="2">
+      <c r="L212" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="L212" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27193,11 +27188,11 @@
         <v>116</v>
       </c>
       <c r="X212" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="Y212" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="Y212" t="s" s="2">
-        <v>717</v>
-      </c>
       <c r="Z212" t="s" s="2">
         <v>43</v>
       </c>
@@ -27214,7 +27209,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27243,7 +27238,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27266,17 +27261,17 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="K213" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="K213" t="s" s="2">
+      <c r="L213" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27325,7 +27320,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27354,7 +27349,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27377,17 +27372,17 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="K214" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="K214" t="s" s="2">
+      <c r="L214" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27436,7 +27431,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27465,7 +27460,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27488,19 +27483,19 @@
         <v>43</v>
       </c>
       <c r="J215" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="K215" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="K215" t="s" s="2">
+      <c r="L215" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="L215" t="s" s="2">
+      <c r="M215" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M215" t="s" s="2">
+      <c r="N215" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27549,7 +27544,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27578,7 +27573,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27601,19 +27596,19 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K216" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L216" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L216" t="s" s="2">
+      <c r="M216" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27662,7 +27657,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27691,7 +27686,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27773,7 +27768,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27802,7 +27797,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27828,16 +27823,16 @@
         <v>180</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="L218" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="M218" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="M218" t="s" s="2">
+      <c r="N218" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27865,11 +27860,11 @@
         <v>116</v>
       </c>
       <c r="X218" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="Y218" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="Y218" t="s" s="2">
-        <v>746</v>
-      </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
       </c>
@@ -27886,7 +27881,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27915,7 +27910,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27941,14 +27936,14 @@
         <v>180</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="L219" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>749</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27976,11 +27971,11 @@
         <v>116</v>
       </c>
       <c r="X219" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="Y219" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="Y219" t="s" s="2">
-        <v>751</v>
-      </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
       </c>
@@ -27997,7 +27992,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28026,7 +28021,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28049,17 +28044,17 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="K220" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="K220" t="s" s="2">
+      <c r="L220" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28108,7 +28103,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28137,7 +28132,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28163,14 +28158,14 @@
         <v>425</v>
       </c>
       <c r="K221" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L221" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28219,7 +28214,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28248,7 +28243,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28274,14 +28269,14 @@
         <v>316</v>
       </c>
       <c r="K222" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="L222" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28330,7 +28325,7 @@
         <v>542</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28359,7 +28354,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28468,7 +28463,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28579,7 +28574,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28692,7 +28687,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28718,16 +28713,16 @@
         <v>180</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L226" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L226" t="s" s="2">
+      <c r="M226" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28756,7 +28751,7 @@
       </c>
       <c r="X226" s="2"/>
       <c r="Y226" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Z226" t="s" s="2">
         <v>43</v>
@@ -28774,7 +28769,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>50</v>
@@ -28803,7 +28798,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28829,16 +28824,16 @@
         <v>180</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L227" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L227" t="s" s="2">
+      <c r="M227" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M227" t="s" s="2">
+      <c r="N227" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28866,11 +28861,11 @@
         <v>116</v>
       </c>
       <c r="X227" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="Y227" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="Y227" t="s" s="2">
-        <v>780</v>
-      </c>
       <c r="Z227" t="s" s="2">
         <v>43</v>
       </c>
@@ -28887,7 +28882,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28916,7 +28911,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28939,19 +28934,19 @@
         <v>43</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L228" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="L228" t="s" s="2">
+      <c r="M228" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M228" t="s" s="2">
+      <c r="N228" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -29000,7 +28995,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29029,7 +29024,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29052,19 +29047,19 @@
         <v>43</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L229" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L229" t="s" s="2">
+      <c r="M229" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M229" t="s" s="2">
+      <c r="N229" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -29113,7 +29108,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -29142,10 +29137,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C230" t="s" s="2">
         <v>43</v>
@@ -29170,14 +29165,14 @@
         <v>316</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -29226,7 +29221,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29255,7 +29250,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29364,7 +29359,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29475,7 +29470,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29588,7 +29583,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29614,16 +29609,16 @@
         <v>180</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29652,7 +29647,7 @@
       </c>
       <c r="X234" s="2"/>
       <c r="Y234" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
@@ -29670,7 +29665,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>50</v>
@@ -29699,7 +29694,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29725,16 +29720,16 @@
         <v>180</v>
       </c>
       <c r="K235" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L235" t="s" s="2">
+      <c r="M235" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29762,11 +29757,11 @@
         <v>116</v>
       </c>
       <c r="X235" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="Y235" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="Y235" t="s" s="2">
-        <v>780</v>
-      </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
       </c>
@@ -29783,7 +29778,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29812,7 +29807,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29835,19 +29830,19 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L236" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="L236" t="s" s="2">
+      <c r="M236" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29896,7 +29891,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29925,7 +29920,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29948,19 +29943,19 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K237" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L237" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L237" t="s" s="2">
+      <c r="M237" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M237" t="s" s="2">
+      <c r="N237" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30009,7 +30004,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30038,10 +30033,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>43</v>
@@ -30066,14 +30061,14 @@
         <v>316</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30122,7 +30117,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30151,7 +30146,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30260,7 +30255,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30371,7 +30366,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30484,7 +30479,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30510,16 +30505,16 @@
         <v>180</v>
       </c>
       <c r="K242" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L242" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L242" t="s" s="2">
+      <c r="M242" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M242" t="s" s="2">
+      <c r="N242" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30529,7 +30524,7 @@
         <v>43</v>
       </c>
       <c r="R242" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S242" t="s" s="2">
         <v>43</v>
@@ -30548,7 +30543,7 @@
       </c>
       <c r="X242" s="2"/>
       <c r="Y242" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30566,7 +30561,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>50</v>
@@ -30595,7 +30590,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30621,16 +30616,16 @@
         <v>180</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L243" t="s" s="2">
+      <c r="M243" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M243" t="s" s="2">
+      <c r="N243" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30659,7 +30654,7 @@
       </c>
       <c r="X243" s="2"/>
       <c r="Y243" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30677,7 +30672,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30706,7 +30701,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30729,19 +30724,19 @@
         <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="L244" t="s" s="2">
+      <c r="M244" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="N244" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30790,7 +30785,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30819,7 +30814,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30842,19 +30837,19 @@
         <v>43</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L245" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L245" t="s" s="2">
+      <c r="M245" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M245" t="s" s="2">
+      <c r="N245" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30903,7 +30898,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30932,10 +30927,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C246" t="s" s="2">
         <v>43</v>
@@ -30960,14 +30955,14 @@
         <v>316</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -31016,7 +31011,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31045,7 +31040,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31154,7 +31149,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31265,7 +31260,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31378,7 +31373,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31404,16 +31399,16 @@
         <v>180</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L250" t="s" s="2">
+      <c r="M250" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M250" t="s" s="2">
+      <c r="N250" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31423,7 +31418,7 @@
         <v>43</v>
       </c>
       <c r="R250" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S250" t="s" s="2">
         <v>43</v>
@@ -31442,7 +31437,7 @@
       </c>
       <c r="X250" s="2"/>
       <c r="Y250" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31460,7 +31455,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>50</v>
@@ -31489,7 +31484,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31515,16 +31510,16 @@
         <v>180</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L251" t="s" s="2">
+      <c r="M251" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M251" t="s" s="2">
+      <c r="N251" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31552,11 +31547,11 @@
         <v>116</v>
       </c>
       <c r="X251" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="Y251" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="Y251" t="s" s="2">
-        <v>780</v>
-      </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
       </c>
@@ -31573,7 +31568,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31602,7 +31597,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31625,19 +31620,19 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K252" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L252" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="L252" t="s" s="2">
+      <c r="M252" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M252" t="s" s="2">
+      <c r="N252" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31686,7 +31681,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31715,7 +31710,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31738,19 +31733,19 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K253" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L253" t="s" s="2">
+      <c r="M253" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M253" t="s" s="2">
+      <c r="N253" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31799,7 +31794,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31828,7 +31823,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31854,10 +31849,10 @@
         <v>316</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>802</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
@@ -31908,7 +31903,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31937,7 +31932,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -32046,7 +32041,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32157,7 +32152,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32270,7 +32265,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32299,11 +32294,11 @@
         <v>648</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32352,7 +32347,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>50</v>
@@ -32381,7 +32376,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32407,14 +32402,14 @@
         <v>180</v>
       </c>
       <c r="K259" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L259" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="L259" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32442,11 +32437,11 @@
         <v>116</v>
       </c>
       <c r="X259" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="Y259" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="Y259" t="s" s="2">
-        <v>811</v>
-      </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
       </c>
@@ -32463,7 +32458,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32492,7 +32487,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32518,16 +32513,16 @@
         <v>180</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="L260" t="s" s="2">
-        <v>682</v>
-      </c>
       <c r="M260" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32555,11 +32550,11 @@
         <v>116</v>
       </c>
       <c r="X260" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="Y260" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="Y260" t="s" s="2">
-        <v>686</v>
-      </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
       </c>
@@ -32576,7 +32571,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32605,11 +32600,11 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -32631,16 +32626,16 @@
         <v>180</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L261" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M261" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M261" t="s" s="2">
-        <v>815</v>
-      </c>
       <c r="N261" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32668,11 +32663,11 @@
         <v>116</v>
       </c>
       <c r="X261" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="Y261" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="Y261" t="s" s="2">
-        <v>817</v>
-      </c>
       <c r="Z261" t="s" s="2">
         <v>43</v>
       </c>
@@ -32689,7 +32684,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>50</v>
@@ -32718,7 +32713,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32744,16 +32739,16 @@
         <v>180</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L262" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M262" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="M262" t="s" s="2">
+      <c r="N262" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32781,11 +32776,11 @@
         <v>116</v>
       </c>
       <c r="X262" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="Y262" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="Y262" t="s" s="2">
-        <v>821</v>
-      </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
       </c>
@@ -32802,7 +32797,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32831,7 +32826,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32857,16 +32852,16 @@
         <v>180</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L263" t="s" s="2">
+      <c r="M263" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M263" t="s" s="2">
+      <c r="N263" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32894,11 +32889,11 @@
         <v>116</v>
       </c>
       <c r="X263" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="Y263" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="Y263" t="s" s="2">
-        <v>706</v>
-      </c>
       <c r="Z263" t="s" s="2">
         <v>43</v>
       </c>
@@ -32915,7 +32910,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32944,7 +32939,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32967,17 +32962,17 @@
         <v>43</v>
       </c>
       <c r="J264" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="K264" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="K264" t="s" s="2">
+      <c r="L264" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L264" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -33026,7 +33021,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -33055,7 +33050,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33078,17 +33073,17 @@
         <v>43</v>
       </c>
       <c r="J265" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="K265" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="K265" t="s" s="2">
+      <c r="L265" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L265" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -33137,7 +33132,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -33166,7 +33161,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33189,19 +33184,19 @@
         <v>43</v>
       </c>
       <c r="J266" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="K266" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="K266" t="s" s="2">
+      <c r="L266" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="L266" t="s" s="2">
+      <c r="M266" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M266" t="s" s="2">
+      <c r="N266" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33250,7 +33245,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33279,7 +33274,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33302,19 +33297,19 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L267" t="s" s="2">
+      <c r="M267" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M267" t="s" s="2">
+      <c r="N267" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N267" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33363,7 +33358,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33392,7 +33387,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33474,7 +33469,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33503,7 +33498,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33529,14 +33524,14 @@
         <v>425</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L269" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33585,7 +33580,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33614,7 +33609,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33640,10 +33635,10 @@
         <v>43</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
@@ -33694,7 +33689,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33723,7 +33718,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33749,10 +33744,10 @@
         <v>316</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
@@ -33803,7 +33798,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33832,7 +33827,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33941,7 +33936,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34052,7 +34047,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34165,7 +34160,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34194,11 +34189,11 @@
         <v>648</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M275" s="2"/>
       <c r="N275" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34247,7 +34242,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>50</v>
@@ -34276,7 +34271,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34302,14 +34297,14 @@
         <v>180</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L276" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="L276" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34337,11 +34332,11 @@
         <v>116</v>
       </c>
       <c r="X276" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="Y276" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="Y276" t="s" s="2">
-        <v>811</v>
-      </c>
       <c r="Z276" t="s" s="2">
         <v>43</v>
       </c>
@@ -34358,7 +34353,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34387,7 +34382,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34413,16 +34408,16 @@
         <v>180</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="L277" t="s" s="2">
+      <c r="M277" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="M277" t="s" s="2">
+      <c r="N277" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34450,11 +34445,11 @@
         <v>116</v>
       </c>
       <c r="X277" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="Y277" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="Y277" t="s" s="2">
-        <v>686</v>
-      </c>
       <c r="Z277" t="s" s="2">
         <v>43</v>
       </c>
@@ -34471,7 +34466,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34500,11 +34495,11 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -34526,16 +34521,16 @@
         <v>180</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L278" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M278" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M278" t="s" s="2">
-        <v>815</v>
-      </c>
       <c r="N278" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34563,11 +34558,11 @@
         <v>116</v>
       </c>
       <c r="X278" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="Y278" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="Y278" t="s" s="2">
-        <v>817</v>
-      </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
       </c>
@@ -34584,7 +34579,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>50</v>
@@ -34613,7 +34608,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34639,16 +34634,16 @@
         <v>180</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34676,11 +34671,11 @@
         <v>116</v>
       </c>
       <c r="X279" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="Y279" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="Y279" t="s" s="2">
-        <v>821</v>
-      </c>
       <c r="Z279" t="s" s="2">
         <v>43</v>
       </c>
@@ -34697,7 +34692,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34726,7 +34721,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34752,16 +34747,16 @@
         <v>180</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L280" t="s" s="2">
+      <c r="M280" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M280" t="s" s="2">
+      <c r="N280" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34789,11 +34784,11 @@
         <v>116</v>
       </c>
       <c r="X280" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="Y280" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="Y280" t="s" s="2">
-        <v>706</v>
-      </c>
       <c r="Z280" t="s" s="2">
         <v>43</v>
       </c>
@@ -34810,7 +34805,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34839,7 +34834,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34862,17 +34857,17 @@
         <v>43</v>
       </c>
       <c r="J281" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="K281" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="K281" t="s" s="2">
+      <c r="L281" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L281" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34921,7 +34916,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34950,7 +34945,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34973,17 +34968,17 @@
         <v>43</v>
       </c>
       <c r="J282" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="K282" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="K282" t="s" s="2">
+      <c r="L282" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -35032,7 +35027,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -35061,7 +35056,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35084,19 +35079,19 @@
         <v>43</v>
       </c>
       <c r="J283" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="K283" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="K283" t="s" s="2">
+      <c r="L283" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="L283" t="s" s="2">
+      <c r="M283" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M283" t="s" s="2">
+      <c r="N283" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -35145,7 +35140,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35174,7 +35169,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35197,19 +35192,19 @@
         <v>43</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L284" t="s" s="2">
+      <c r="M284" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M284" t="s" s="2">
+      <c r="N284" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35258,7 +35253,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35287,7 +35282,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35369,7 +35364,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35398,7 +35393,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35424,14 +35419,14 @@
         <v>425</v>
       </c>
       <c r="K286" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L286" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L286" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35480,7 +35475,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35509,7 +35504,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35535,10 +35530,10 @@
         <v>43</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
@@ -35589,7 +35584,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35618,7 +35613,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35644,14 +35639,14 @@
         <v>316</v>
       </c>
       <c r="K288" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="L288" t="s" s="2">
         <v>853</v>
-      </c>
-      <c r="L288" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="M288" s="2"/>
       <c r="N288" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35700,7 +35695,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35729,7 +35724,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35838,7 +35833,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35949,7 +35944,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36062,7 +36057,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36088,14 +36083,14 @@
         <v>425</v>
       </c>
       <c r="K292" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="L292" t="s" s="2">
         <v>860</v>
-      </c>
-      <c r="L292" t="s" s="2">
-        <v>861</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36144,7 +36139,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36173,7 +36168,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36199,14 +36194,14 @@
         <v>425</v>
       </c>
       <c r="K293" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="L293" t="s" s="2">
         <v>864</v>
-      </c>
-      <c r="L293" t="s" s="2">
-        <v>865</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36255,7 +36250,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36284,7 +36279,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36310,14 +36305,14 @@
         <v>425</v>
       </c>
       <c r="K294" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="L294" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L294" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36366,7 +36361,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36395,7 +36390,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36421,14 +36416,14 @@
         <v>430</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="L295" t="s" s="2">
         <v>872</v>
-      </c>
-      <c r="L295" t="s" s="2">
-        <v>873</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36477,7 +36472,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36506,11 +36501,11 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -36532,16 +36527,16 @@
         <v>180</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L296" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M296" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M296" t="s" s="2">
-        <v>815</v>
-      </c>
       <c r="N296" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>43</v>
@@ -36569,11 +36564,11 @@
         <v>116</v>
       </c>
       <c r="X296" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="Y296" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="Y296" t="s" s="2">
-        <v>817</v>
-      </c>
       <c r="Z296" t="s" s="2">
         <v>43</v>
       </c>
@@ -36590,7 +36585,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>50</v>
@@ -36619,7 +36614,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36645,16 +36640,16 @@
         <v>180</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L297" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M297" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="M297" t="s" s="2">
+      <c r="N297" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="N297" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36682,11 +36677,11 @@
         <v>116</v>
       </c>
       <c r="X297" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="Y297" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="Y297" t="s" s="2">
-        <v>821</v>
-      </c>
       <c r="Z297" t="s" s="2">
         <v>43</v>
       </c>
@@ -36703,7 +36698,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36732,7 +36727,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36758,16 +36753,16 @@
         <v>180</v>
       </c>
       <c r="K298" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L298" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L298" t="s" s="2">
+      <c r="M298" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M298" t="s" s="2">
+      <c r="N298" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N298" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36795,11 +36790,11 @@
         <v>116</v>
       </c>
       <c r="X298" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="Y298" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="Y298" t="s" s="2">
-        <v>706</v>
-      </c>
       <c r="Z298" t="s" s="2">
         <v>43</v>
       </c>
@@ -36816,7 +36811,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36845,7 +36840,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36871,14 +36866,14 @@
         <v>480</v>
       </c>
       <c r="K299" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="L299" t="s" s="2">
         <v>708</v>
-      </c>
-      <c r="L299" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36927,7 +36922,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36956,7 +36951,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36979,17 +36974,17 @@
         <v>43</v>
       </c>
       <c r="J300" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="K300" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="K300" t="s" s="2">
+      <c r="L300" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="L300" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -37017,11 +37012,11 @@
         <v>116</v>
       </c>
       <c r="X300" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="Y300" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="Y300" t="s" s="2">
-        <v>717</v>
-      </c>
       <c r="Z300" t="s" s="2">
         <v>43</v>
       </c>
@@ -37038,7 +37033,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37067,7 +37062,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37090,17 +37085,17 @@
         <v>43</v>
       </c>
       <c r="J301" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="K301" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="K301" t="s" s="2">
+      <c r="L301" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L301" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37149,7 +37144,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37178,7 +37173,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37201,17 +37196,17 @@
         <v>43</v>
       </c>
       <c r="J302" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="K302" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="K302" t="s" s="2">
+      <c r="L302" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L302" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37260,7 +37255,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37289,7 +37284,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37312,19 +37307,19 @@
         <v>43</v>
       </c>
       <c r="J303" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="K303" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="K303" t="s" s="2">
+      <c r="L303" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="L303" t="s" s="2">
+      <c r="M303" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M303" t="s" s="2">
+      <c r="N303" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="N303" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37373,7 +37368,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37402,7 +37397,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37425,19 +37420,19 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L304" t="s" s="2">
+      <c r="M304" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M304" t="s" s="2">
+      <c r="N304" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N304" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37486,7 +37481,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37515,7 +37510,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37541,16 +37536,16 @@
         <v>180</v>
       </c>
       <c r="K305" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="L305" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="L305" t="s" s="2">
-        <v>742</v>
-      </c>
       <c r="M305" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37578,11 +37573,11 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="Y305" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="Y305" t="s" s="2">
-        <v>746</v>
-      </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
       </c>
@@ -37599,7 +37594,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37628,7 +37623,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37654,14 +37649,14 @@
         <v>180</v>
       </c>
       <c r="K306" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="L306" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="L306" t="s" s="2">
-        <v>749</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37689,11 +37684,11 @@
         <v>116</v>
       </c>
       <c r="X306" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="Y306" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="Y306" t="s" s="2">
-        <v>751</v>
-      </c>
       <c r="Z306" t="s" s="2">
         <v>43</v>
       </c>
@@ -37710,7 +37705,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37739,7 +37734,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37765,14 +37760,14 @@
         <v>425</v>
       </c>
       <c r="K307" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L307" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L307" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37821,7 +37816,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37850,7 +37845,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37876,10 +37871,10 @@
         <v>43</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
@@ -37930,7 +37925,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37959,7 +37954,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37985,10 +37980,10 @@
         <v>316</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M309" s="2"/>
       <c r="N309" s="2"/>
@@ -38039,7 +38034,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38068,7 +38063,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38177,7 +38172,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38288,7 +38283,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38401,11 +38396,11 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -38427,16 +38422,16 @@
         <v>180</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L313" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M313" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M313" t="s" s="2">
-        <v>815</v>
-      </c>
       <c r="N313" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38464,11 +38459,11 @@
         <v>116</v>
       </c>
       <c r="X313" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="Y313" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="Y313" t="s" s="2">
-        <v>817</v>
-      </c>
       <c r="Z313" t="s" s="2">
         <v>43</v>
       </c>
@@ -38485,7 +38480,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>50</v>
@@ -38514,7 +38509,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38540,16 +38535,16 @@
         <v>180</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L314" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M314" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="M314" t="s" s="2">
+      <c r="N314" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="N314" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38577,11 +38572,11 @@
         <v>116</v>
       </c>
       <c r="X314" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="Y314" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="Y314" t="s" s="2">
-        <v>821</v>
-      </c>
       <c r="Z314" t="s" s="2">
         <v>43</v>
       </c>
@@ -38598,7 +38593,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38627,7 +38622,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38650,17 +38645,17 @@
         <v>43</v>
       </c>
       <c r="J315" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="K315" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="K315" t="s" s="2">
+      <c r="L315" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L315" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38709,7 +38704,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38738,7 +38733,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38761,17 +38756,17 @@
         <v>43</v>
       </c>
       <c r="J316" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="K316" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="K316" t="s" s="2">
+      <c r="L316" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L316" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38820,7 +38815,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38849,7 +38844,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38872,19 +38867,19 @@
         <v>43</v>
       </c>
       <c r="J317" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="K317" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="K317" t="s" s="2">
+      <c r="L317" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="L317" t="s" s="2">
+      <c r="M317" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M317" t="s" s="2">
+      <c r="N317" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="N317" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38933,7 +38928,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38962,7 +38957,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38985,19 +38980,19 @@
         <v>43</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K318" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L318" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L318" t="s" s="2">
+      <c r="M318" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M318" t="s" s="2">
+      <c r="N318" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N318" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39046,7 +39041,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39075,7 +39070,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39101,14 +39096,14 @@
         <v>425</v>
       </c>
       <c r="K319" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L319" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L319" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39157,7 +39152,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39186,7 +39181,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39212,10 +39207,10 @@
         <v>43</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
@@ -39266,7 +39261,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39295,7 +39290,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39321,10 +39316,10 @@
         <v>316</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -39375,7 +39370,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
@@ -39404,7 +39399,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39513,7 +39508,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39624,7 +39619,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39737,11 +39732,11 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39763,16 +39758,16 @@
         <v>180</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L325" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M325" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M325" t="s" s="2">
-        <v>815</v>
-      </c>
       <c r="N325" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39800,11 +39795,11 @@
         <v>116</v>
       </c>
       <c r="X325" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="Y325" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="Y325" t="s" s="2">
-        <v>817</v>
-      </c>
       <c r="Z325" t="s" s="2">
         <v>43</v>
       </c>
@@ -39821,7 +39816,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>50</v>
@@ -39850,7 +39845,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39876,16 +39871,16 @@
         <v>180</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L326" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M326" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="M326" t="s" s="2">
+      <c r="N326" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="N326" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39913,11 +39908,11 @@
         <v>116</v>
       </c>
       <c r="X326" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="Y326" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="Y326" t="s" s="2">
-        <v>821</v>
-      </c>
       <c r="Z326" t="s" s="2">
         <v>43</v>
       </c>
@@ -39934,7 +39929,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39963,7 +39958,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39986,17 +39981,17 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="K327" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="K327" t="s" s="2">
+      <c r="L327" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L327" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40045,7 +40040,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40074,7 +40069,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40097,17 +40092,17 @@
         <v>43</v>
       </c>
       <c r="J328" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="K328" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="K328" t="s" s="2">
+      <c r="L328" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L328" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -40156,7 +40151,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40185,7 +40180,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40208,19 +40203,19 @@
         <v>43</v>
       </c>
       <c r="J329" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="K329" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="K329" t="s" s="2">
+      <c r="L329" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="L329" t="s" s="2">
+      <c r="M329" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M329" t="s" s="2">
+      <c r="N329" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="N329" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40269,7 +40264,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40298,7 +40293,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40321,19 +40316,19 @@
         <v>43</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L330" t="s" s="2">
+      <c r="M330" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M330" t="s" s="2">
+      <c r="N330" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N330" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40382,7 +40377,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40411,7 +40406,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40437,14 +40432,14 @@
         <v>425</v>
       </c>
       <c r="K331" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L331" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L331" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40493,7 +40488,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40522,7 +40517,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40548,10 +40543,10 @@
         <v>43</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
@@ -40602,7 +40597,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40631,7 +40626,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40657,14 +40652,14 @@
         <v>316</v>
       </c>
       <c r="K333" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="L333" t="s" s="2">
         <v>917</v>
-      </c>
-      <c r="L333" t="s" s="2">
-        <v>918</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40713,7 +40708,7 @@
         <v>542</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40742,7 +40737,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40851,7 +40846,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40877,10 +40872,10 @@
         <v>70</v>
       </c>
       <c r="K335" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="L335" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="L335" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
@@ -40958,10 +40953,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C336" t="s" s="2">
         <v>43</v>
@@ -40983,13 +40978,13 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K336" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="L336" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="L336" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
@@ -41049,7 +41044,7 @@
         <v>42</v>
       </c>
       <c r="AH336" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AI336" t="s" s="2">
         <v>78</v>
@@ -41069,7 +41064,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41182,7 +41177,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41208,16 +41203,16 @@
         <v>180</v>
       </c>
       <c r="K338" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L338" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L338" t="s" s="2">
+      <c r="M338" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M338" t="s" s="2">
+      <c r="N338" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N338" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41246,7 +41241,7 @@
       </c>
       <c r="X338" s="2"/>
       <c r="Y338" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>43</v>
@@ -41264,7 +41259,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>50</v>
@@ -41293,7 +41288,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41319,16 +41314,16 @@
         <v>180</v>
       </c>
       <c r="K339" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L339" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L339" t="s" s="2">
+      <c r="M339" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M339" t="s" s="2">
+      <c r="N339" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N339" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41356,11 +41351,11 @@
         <v>116</v>
       </c>
       <c r="X339" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="Y339" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="Y339" t="s" s="2">
-        <v>780</v>
-      </c>
       <c r="Z339" t="s" s="2">
         <v>43</v>
       </c>
@@ -41377,7 +41372,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41406,7 +41401,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41429,19 +41424,19 @@
         <v>43</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K340" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L340" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="L340" t="s" s="2">
+      <c r="M340" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M340" t="s" s="2">
+      <c r="N340" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N340" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41490,7 +41485,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41519,7 +41514,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41542,19 +41537,19 @@
         <v>43</v>
       </c>
       <c r="J341" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K341" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L341" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L341" t="s" s="2">
+      <c r="M341" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M341" t="s" s="2">
+      <c r="N341" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N341" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41603,7 +41598,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41632,10 +41627,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C342" t="s" s="2">
         <v>43</v>
@@ -41660,14 +41655,14 @@
         <v>316</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41716,7 +41711,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41745,7 +41740,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41854,7 +41849,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41880,10 +41875,10 @@
         <v>70</v>
       </c>
       <c r="K344" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="L344" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="L344" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
@@ -41961,10 +41956,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C345" t="s" s="2">
         <v>43</v>
@@ -41986,13 +41981,13 @@
         <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K345" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="L345" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="L345" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
@@ -42052,7 +42047,7 @@
         <v>42</v>
       </c>
       <c r="AH345" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AI345" t="s" s="2">
         <v>78</v>
@@ -42072,7 +42067,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42185,7 +42180,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42211,16 +42206,16 @@
         <v>180</v>
       </c>
       <c r="K347" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L347" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L347" t="s" s="2">
+      <c r="M347" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M347" t="s" s="2">
+      <c r="N347" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N347" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42249,7 +42244,7 @@
       </c>
       <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
@@ -42267,7 +42262,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>50</v>
@@ -42296,7 +42291,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42322,16 +42317,16 @@
         <v>180</v>
       </c>
       <c r="K348" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L348" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L348" t="s" s="2">
+      <c r="M348" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M348" t="s" s="2">
+      <c r="N348" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N348" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42359,11 +42354,11 @@
         <v>116</v>
       </c>
       <c r="X348" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="Y348" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="Y348" t="s" s="2">
-        <v>780</v>
-      </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
       </c>
@@ -42380,7 +42375,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42409,7 +42404,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42432,19 +42427,19 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K349" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L349" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="L349" t="s" s="2">
+      <c r="M349" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M349" t="s" s="2">
+      <c r="N349" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N349" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42493,7 +42488,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42522,7 +42517,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42545,19 +42540,19 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K350" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L350" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L350" t="s" s="2">
+      <c r="M350" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M350" t="s" s="2">
+      <c r="N350" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N350" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42606,7 +42601,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42635,10 +42630,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C351" t="s" s="2">
         <v>43</v>
@@ -42663,14 +42658,14 @@
         <v>316</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42719,7 +42714,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42748,7 +42743,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42857,7 +42852,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42883,10 +42878,10 @@
         <v>70</v>
       </c>
       <c r="K353" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="L353" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="L353" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -42964,10 +42959,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C354" t="s" s="2">
         <v>43</v>
@@ -42989,13 +42984,13 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K354" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="L354" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="L354" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="M354" s="2"/>
       <c r="N354" s="2"/>
@@ -43055,7 +43050,7 @@
         <v>42</v>
       </c>
       <c r="AH354" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AI354" t="s" s="2">
         <v>78</v>
@@ -43075,7 +43070,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43188,7 +43183,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43214,16 +43209,16 @@
         <v>180</v>
       </c>
       <c r="K356" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L356" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L356" t="s" s="2">
+      <c r="M356" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M356" t="s" s="2">
+      <c r="N356" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N356" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43233,7 +43228,7 @@
         <v>43</v>
       </c>
       <c r="R356" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S356" t="s" s="2">
         <v>43</v>
@@ -43252,7 +43247,7 @@
       </c>
       <c r="X356" s="2"/>
       <c r="Y356" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43270,7 +43265,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>50</v>
@@ -43299,7 +43294,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43325,16 +43320,16 @@
         <v>180</v>
       </c>
       <c r="K357" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L357" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L357" t="s" s="2">
+      <c r="M357" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M357" t="s" s="2">
+      <c r="N357" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N357" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43363,7 +43358,7 @@
       </c>
       <c r="X357" s="2"/>
       <c r="Y357" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43381,7 +43376,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43410,7 +43405,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43433,19 +43428,19 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K358" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L358" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="L358" t="s" s="2">
+      <c r="M358" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M358" t="s" s="2">
+      <c r="N358" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N358" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43494,7 +43489,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43523,7 +43518,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43546,19 +43541,19 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K359" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L359" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L359" t="s" s="2">
+      <c r="M359" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M359" t="s" s="2">
+      <c r="N359" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N359" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43607,7 +43602,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43636,10 +43631,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C360" t="s" s="2">
         <v>43</v>
@@ -43664,14 +43659,14 @@
         <v>316</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43720,7 +43715,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43749,7 +43744,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43858,7 +43853,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43884,10 +43879,10 @@
         <v>70</v>
       </c>
       <c r="K362" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="L362" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="L362" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
@@ -43965,10 +43960,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C363" t="s" s="2">
         <v>43</v>
@@ -43990,13 +43985,13 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K363" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="L363" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="L363" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -44056,7 +44051,7 @@
         <v>42</v>
       </c>
       <c r="AH363" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AI363" t="s" s="2">
         <v>78</v>
@@ -44076,7 +44071,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44189,7 +44184,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44215,16 +44210,16 @@
         <v>180</v>
       </c>
       <c r="K365" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L365" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L365" t="s" s="2">
+      <c r="M365" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M365" t="s" s="2">
+      <c r="N365" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N365" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44253,7 +44248,7 @@
       </c>
       <c r="X365" s="2"/>
       <c r="Y365" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Z365" t="s" s="2">
         <v>43</v>
@@ -44271,7 +44266,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>50</v>
@@ -44300,7 +44295,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44326,16 +44321,16 @@
         <v>180</v>
       </c>
       <c r="K366" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L366" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L366" t="s" s="2">
+      <c r="M366" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M366" t="s" s="2">
+      <c r="N366" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N366" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44363,11 +44358,11 @@
         <v>116</v>
       </c>
       <c r="X366" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="Y366" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="Y366" t="s" s="2">
-        <v>780</v>
-      </c>
       <c r="Z366" t="s" s="2">
         <v>43</v>
       </c>
@@ -44384,7 +44379,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44413,7 +44408,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44436,19 +44431,19 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K367" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L367" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="L367" t="s" s="2">
+      <c r="M367" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M367" t="s" s="2">
+      <c r="N367" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N367" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44497,7 +44492,7 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
@@ -44526,7 +44521,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44549,19 +44544,19 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K368" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L368" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L368" t="s" s="2">
+      <c r="M368" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M368" t="s" s="2">
+      <c r="N368" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N368" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44610,7 +44605,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44639,7 +44634,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44665,16 +44660,16 @@
         <v>316</v>
       </c>
       <c r="K369" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="L369" t="s" s="2">
         <v>936</v>
       </c>
-      <c r="L369" t="s" s="2">
+      <c r="M369" t="s" s="2">
         <v>937</v>
       </c>
-      <c r="M369" t="s" s="2">
+      <c r="N369" t="s" s="2">
         <v>938</v>
-      </c>
-      <c r="N369" t="s" s="2">
-        <v>939</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44723,7 +44718,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
@@ -44752,7 +44747,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44861,7 +44856,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44972,7 +44967,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45085,7 +45080,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45111,16 +45106,16 @@
         <v>180</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L373" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="N373" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="M373" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="N373" t="s" s="2">
-        <v>945</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45149,7 +45144,7 @@
       </c>
       <c r="X373" s="2"/>
       <c r="Y373" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="Z373" t="s" s="2">
         <v>43</v>
@@ -45167,7 +45162,7 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>50</v>
@@ -45196,7 +45191,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45219,17 +45214,17 @@
         <v>51</v>
       </c>
       <c r="J374" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K374" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="L374" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="L374" t="s" s="2">
-        <v>949</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45278,7 +45273,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>50</v>
@@ -45307,7 +45302,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45333,14 +45328,14 @@
         <v>316</v>
       </c>
       <c r="K375" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="L375" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="L375" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45389,7 +45384,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45418,7 +45413,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45527,7 +45522,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45638,7 +45633,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45751,7 +45746,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45777,14 +45772,14 @@
         <v>180</v>
       </c>
       <c r="K379" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="L379" t="s" s="2">
         <v>959</v>
-      </c>
-      <c r="L379" t="s" s="2">
-        <v>960</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45813,7 +45808,7 @@
       </c>
       <c r="X379" s="2"/>
       <c r="Y379" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>43</v>
@@ -45831,7 +45826,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45860,7 +45855,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45883,19 +45878,19 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K380" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="L380" t="s" s="2">
         <v>964</v>
       </c>
-      <c r="L380" t="s" s="2">
+      <c r="M380" t="s" s="2">
         <v>965</v>
       </c>
-      <c r="M380" t="s" s="2">
+      <c r="N380" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="N380" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45944,7 +45939,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45973,7 +45968,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45999,14 +45994,14 @@
         <v>180</v>
       </c>
       <c r="K381" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="L381" t="s" s="2">
         <v>969</v>
-      </c>
-      <c r="L381" t="s" s="2">
-        <v>970</v>
       </c>
       <c r="M381" s="2"/>
       <c r="N381" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46035,7 +46030,7 @@
       </c>
       <c r="X381" s="2"/>
       <c r="Y381" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Z381" t="s" s="2">
         <v>43</v>
@@ -46053,7 +46048,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46082,7 +46077,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46108,14 +46103,14 @@
         <v>506</v>
       </c>
       <c r="K382" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="L382" t="s" s="2">
         <v>973</v>
-      </c>
-      <c r="L382" t="s" s="2">
-        <v>974</v>
       </c>
       <c r="M382" s="2"/>
       <c r="N382" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46164,7 +46159,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46193,7 +46188,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46216,17 +46211,17 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K383" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="L383" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="L383" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46275,7 +46270,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46304,7 +46299,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46330,16 +46325,16 @@
         <v>159</v>
       </c>
       <c r="K384" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="L384" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="L384" t="s" s="2">
+      <c r="M384" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="M384" t="s" s="2">
+      <c r="N384" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="N384" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46388,7 +46383,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46417,7 +46412,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46443,16 +46438,16 @@
         <v>180</v>
       </c>
       <c r="K385" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="L385" t="s" s="2">
         <v>986</v>
       </c>
-      <c r="L385" t="s" s="2">
+      <c r="M385" t="s" s="2">
         <v>987</v>
       </c>
-      <c r="M385" t="s" s="2">
+      <c r="N385" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="N385" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
@@ -46480,11 +46475,11 @@
         <v>116</v>
       </c>
       <c r="X385" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="Y385" t="s" s="2">
         <v>990</v>
       </c>
-      <c r="Y385" t="s" s="2">
-        <v>991</v>
-      </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
       </c>
@@ -46501,7 +46496,7 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
@@ -46530,7 +46525,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46553,19 +46548,19 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="K386" t="s" s="2">
         <v>993</v>
       </c>
-      <c r="K386" t="s" s="2">
+      <c r="L386" t="s" s="2">
         <v>994</v>
       </c>
-      <c r="L386" t="s" s="2">
+      <c r="M386" t="s" s="2">
         <v>995</v>
       </c>
-      <c r="M386" t="s" s="2">
+      <c r="N386" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="N386" t="s" s="2">
-        <v>997</v>
       </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46614,7 +46609,7 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
@@ -46643,7 +46638,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46669,14 +46664,14 @@
         <v>316</v>
       </c>
       <c r="K387" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L387" t="s" s="2">
         <v>999</v>
-      </c>
-      <c r="L387" t="s" s="2">
-        <v>1000</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46725,7 +46720,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46754,7 +46749,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46863,7 +46858,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46974,7 +46969,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47087,7 +47082,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47113,14 +47108,14 @@
         <v>425</v>
       </c>
       <c r="K391" t="s" s="2">
+        <v>1005</v>
+      </c>
+      <c r="L391" t="s" s="2">
         <v>1006</v>
-      </c>
-      <c r="L391" t="s" s="2">
-        <v>1007</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47169,7 +47164,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47198,7 +47193,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47224,14 +47219,14 @@
         <v>126</v>
       </c>
       <c r="K392" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="L392" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="L392" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="M392" s="2"/>
       <c r="N392" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47259,11 +47254,11 @@
         <v>174</v>
       </c>
       <c r="X392" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="Y392" t="s" s="2">
         <v>1013</v>
       </c>
-      <c r="Y392" t="s" s="2">
-        <v>1014</v>
-      </c>
       <c r="Z392" t="s" s="2">
         <v>43</v>
       </c>
@@ -47280,7 +47275,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47309,7 +47304,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47335,14 +47330,14 @@
         <v>52</v>
       </c>
       <c r="K393" t="s" s="2">
+        <v>1015</v>
+      </c>
+      <c r="L393" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="L393" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="M393" s="2"/>
       <c r="N393" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47391,7 +47386,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47420,7 +47415,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47446,16 +47441,16 @@
         <v>180</v>
       </c>
       <c r="K394" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="L394" t="s" s="2">
         <v>1020</v>
       </c>
-      <c r="L394" t="s" s="2">
+      <c r="M394" t="s" s="2">
         <v>1021</v>
       </c>
-      <c r="M394" t="s" s="2">
+      <c r="N394" t="s" s="2">
         <v>1022</v>
-      </c>
-      <c r="N394" t="s" s="2">
-        <v>1023</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47504,7 +47499,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47533,7 +47528,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47559,16 +47554,16 @@
         <v>207</v>
       </c>
       <c r="K395" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L395" t="s" s="2">
         <v>1025</v>
       </c>
-      <c r="L395" t="s" s="2">
+      <c r="M395" t="s" s="2">
         <v>1026</v>
       </c>
-      <c r="M395" t="s" s="2">
+      <c r="N395" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="N395" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47617,7 +47612,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47646,7 +47641,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47672,10 +47667,10 @@
         <v>316</v>
       </c>
       <c r="K396" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="L396" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="L396" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -47726,7 +47721,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
@@ -47755,7 +47750,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47864,7 +47859,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -47975,7 +47970,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48088,7 +48083,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48114,16 +48109,16 @@
         <v>180</v>
       </c>
       <c r="K400" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L400" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="L400" t="s" s="2">
+      <c r="M400" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="M400" t="s" s="2">
-        <v>683</v>
-      </c>
       <c r="N400" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48151,11 +48146,11 @@
         <v>116</v>
       </c>
       <c r="X400" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="Y400" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="Y400" t="s" s="2">
-        <v>686</v>
-      </c>
       <c r="Z400" t="s" s="2">
         <v>43</v>
       </c>
@@ -48172,7 +48167,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>50</v>
@@ -48201,7 +48196,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48227,14 +48222,14 @@
         <v>436</v>
       </c>
       <c r="K401" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="L401" t="s" s="2">
         <v>1038</v>
-      </c>
-      <c r="L401" t="s" s="2">
-        <v>1039</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48283,7 +48278,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48312,7 +48307,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48338,16 +48333,16 @@
         <v>52</v>
       </c>
       <c r="K402" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="L402" t="s" s="2">
         <v>1042</v>
       </c>
-      <c r="L402" t="s" s="2">
+      <c r="M402" t="s" s="2">
         <v>1043</v>
       </c>
-      <c r="M402" t="s" s="2">
+      <c r="N402" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="N402" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48396,7 +48391,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48425,7 +48420,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48451,16 +48446,16 @@
         <v>52</v>
       </c>
       <c r="K403" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="L403" t="s" s="2">
         <v>1047</v>
       </c>
-      <c r="L403" t="s" s="2">
+      <c r="M403" t="s" s="2">
         <v>1048</v>
       </c>
-      <c r="M403" t="s" s="2">
+      <c r="N403" t="s" s="2">
         <v>1049</v>
-      </c>
-      <c r="N403" t="s" s="2">
-        <v>1050</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48509,7 +48504,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48538,7 +48533,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48564,14 +48559,14 @@
         <v>180</v>
       </c>
       <c r="K404" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="L404" t="s" s="2">
         <v>1052</v>
-      </c>
-      <c r="L404" t="s" s="2">
-        <v>1053</v>
       </c>
       <c r="M404" s="2"/>
       <c r="N404" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48599,11 +48594,11 @@
         <v>116</v>
       </c>
       <c r="X404" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="Y404" t="s" s="2">
         <v>1055</v>
       </c>
-      <c r="Y404" t="s" s="2">
-        <v>1056</v>
-      </c>
       <c r="Z404" t="s" s="2">
         <v>43</v>
       </c>
@@ -48620,7 +48615,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48649,7 +48644,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48675,14 +48670,14 @@
         <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="L405" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="L405" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="M405" s="2"/>
       <c r="N405" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48710,11 +48705,11 @@
         <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="Y405" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="Y405" t="s" s="2">
-        <v>1062</v>
-      </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
       </c>
@@ -48731,7 +48726,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48760,7 +48755,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48786,14 +48781,14 @@
         <v>180</v>
       </c>
       <c r="K406" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="L406" t="s" s="2">
         <v>1064</v>
-      </c>
-      <c r="L406" t="s" s="2">
-        <v>1065</v>
       </c>
       <c r="M406" s="2"/>
       <c r="N406" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
@@ -48821,11 +48816,11 @@
         <v>116</v>
       </c>
       <c r="X406" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="Y406" t="s" s="2">
         <v>1066</v>
       </c>
-      <c r="Y406" t="s" s="2">
-        <v>1067</v>
-      </c>
       <c r="Z406" t="s" s="2">
         <v>43</v>
       </c>
@@ -48842,7 +48837,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -48871,7 +48866,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48897,10 +48892,10 @@
         <v>316</v>
       </c>
       <c r="K407" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="L407" t="s" s="2">
         <v>1069</v>
-      </c>
-      <c r="L407" t="s" s="2">
-        <v>1070</v>
       </c>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -48951,7 +48946,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
@@ -48980,7 +48975,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49089,7 +49084,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49200,7 +49195,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49313,7 +49308,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49339,16 +49334,16 @@
         <v>180</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L411" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="M411" t="s" s="2">
         <v>1075</v>
       </c>
-      <c r="M411" t="s" s="2">
+      <c r="N411" t="s" s="2">
         <v>1076</v>
-      </c>
-      <c r="N411" t="s" s="2">
-        <v>1077</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49376,11 +49371,11 @@
         <v>116</v>
       </c>
       <c r="X411" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="Y411" t="s" s="2">
         <v>1078</v>
       </c>
-      <c r="Y411" t="s" s="2">
-        <v>1079</v>
-      </c>
       <c r="Z411" t="s" s="2">
         <v>43</v>
       </c>
@@ -49397,7 +49392,7 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>50</v>
@@ -49426,7 +49421,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49449,17 +49444,17 @@
         <v>43</v>
       </c>
       <c r="J412" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="K412" t="s" s="2">
         <v>1081</v>
       </c>
-      <c r="K412" t="s" s="2">
+      <c r="L412" t="s" s="2">
         <v>1082</v>
-      </c>
-      <c r="L412" t="s" s="2">
-        <v>1083</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49508,7 +49503,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49537,7 +49532,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49560,17 +49555,17 @@
         <v>43</v>
       </c>
       <c r="J413" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="K413" t="s" s="2">
         <v>1086</v>
       </c>
-      <c r="K413" t="s" s="2">
+      <c r="L413" t="s" s="2">
         <v>1087</v>
-      </c>
-      <c r="L413" t="s" s="2">
-        <v>1088</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49619,7 +49614,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14554" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14555" uniqueCount="1093">
   <si>
     <t>Path</t>
   </si>
@@ -2060,10 +2060,13 @@
     <t>ExplanationOfBenefit.item</t>
   </si>
   <si>
-    <t>Product or service provided</t>
+    <t>Put the short definition here for item</t>
   </si>
   <si>
     <t>Put the definition here for item</t>
+  </si>
+  <si>
+    <t>Put the comment here for item</t>
   </si>
   <si>
     <t>The items to be processed for adjudication.</t>
@@ -2181,13 +2184,13 @@
 Bill CodeService Code</t>
   </si>
   <si>
-    <t>Billing, service, product, or drug code</t>
+    <t>Put the short definition here for item.productOrService here</t>
   </si>
   <si>
     <t>Put the definition here for item.productOrService here</t>
   </si>
   <si>
-    <t>If this is an actual service or product line, i.e. not a Group, then use code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI). If a grouping item then use a group code to indicate the type of thing being grouped e.g. 'glasses' or 'compound'.</t>
+    <t>Put the comment here for item.productOrService here</t>
   </si>
   <si>
     <t>Necessary to state what was provided or done.</t>
@@ -2553,6 +2556,9 @@
     <t>ExplanationOfBenefit.item.detail.sequence</t>
   </si>
   <si>
+    <t>Product or service provided</t>
+  </si>
+  <si>
     <t>A claim detail line. Either a simple (a product or service) or a 'group' of sub-details which are simple items.</t>
   </si>
   <si>
@@ -2574,7 +2580,13 @@
     <t>ExplanationOfBenefit.item.detail.productOrService</t>
   </si>
   <si>
+    <t>Billing, service, product, or drug code</t>
+  </si>
+  <si>
     <t>When the value is a group code then this item collects a set of related claim details, otherwise this contains the product, service, drug or other billing code for the item.</t>
+  </si>
+  <si>
+    <t>If this is an actual service or product line, i.e. not a Group, then use code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI). If a grouping item then use a group code to indicate the type of thing being grouped e.g. 'glasses' or 'compound'.</t>
   </si>
   <si>
     <t>Allowable service and product codes.</t>
@@ -3569,7 +3581,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -25491,9 +25503,11 @@
       <c r="L197" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M197" s="2"/>
+      <c r="M197" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="N197" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25571,7 +25585,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25680,7 +25694,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25791,7 +25805,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25904,7 +25918,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25930,14 +25944,14 @@
         <v>425</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25986,7 +26000,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>50</v>
@@ -26015,7 +26029,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26041,14 +26055,14 @@
         <v>425</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26097,7 +26111,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26126,7 +26140,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26152,14 +26166,14 @@
         <v>425</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26208,7 +26222,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26237,7 +26251,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26263,14 +26277,14 @@
         <v>425</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26319,7 +26333,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26348,7 +26362,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26374,14 +26388,14 @@
         <v>425</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26430,7 +26444,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26459,7 +26473,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26485,14 +26499,14 @@
         <v>180</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26521,7 +26535,7 @@
       </c>
       <c r="X206" s="2"/>
       <c r="Y206" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>43</v>
@@ -26539,7 +26553,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26568,7 +26582,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26594,16 +26608,16 @@
         <v>180</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26631,10 +26645,10 @@
         <v>116</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>43</v>
@@ -26652,7 +26666,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -26681,11 +26695,11 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26707,16 +26721,16 @@
         <v>180</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26745,7 +26759,7 @@
       </c>
       <c r="X208" s="2"/>
       <c r="Y208" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
@@ -26763,7 +26777,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26792,7 +26806,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26818,16 +26832,16 @@
         <v>180</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26856,7 +26870,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
@@ -26874,7 +26888,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26903,7 +26917,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26929,16 +26943,16 @@
         <v>180</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26966,10 +26980,10 @@
         <v>116</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z210" t="s" s="2">
         <v>43</v>
@@ -26987,7 +27001,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -27016,7 +27030,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27042,14 +27056,14 @@
         <v>480</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27098,7 +27112,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27127,7 +27141,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27150,17 +27164,17 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27188,10 +27202,10 @@
         <v>116</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z212" t="s" s="2">
         <v>43</v>
@@ -27209,7 +27223,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27238,7 +27252,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27261,17 +27275,17 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27320,7 +27334,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27349,7 +27363,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27372,17 +27386,17 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27431,7 +27445,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27460,7 +27474,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27483,19 +27497,19 @@
         <v>43</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27544,7 +27558,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27573,7 +27587,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27596,19 +27610,19 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27657,7 +27671,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27686,7 +27700,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27768,7 +27782,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27797,7 +27811,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27823,16 +27837,16 @@
         <v>180</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27860,10 +27874,10 @@
         <v>116</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -27881,7 +27895,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27910,7 +27924,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27936,14 +27950,14 @@
         <v>180</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27971,10 +27985,10 @@
         <v>116</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
@@ -27992,7 +28006,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28021,7 +28035,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28044,17 +28058,17 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28103,7 +28117,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28132,7 +28146,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28158,14 +28172,14 @@
         <v>425</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28214,7 +28228,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28243,7 +28257,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28269,14 +28283,14 @@
         <v>316</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28325,7 +28339,7 @@
         <v>542</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28354,7 +28368,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28463,7 +28477,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28574,7 +28588,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28687,7 +28701,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28713,16 +28727,16 @@
         <v>180</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28751,7 +28765,7 @@
       </c>
       <c r="X226" s="2"/>
       <c r="Y226" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z226" t="s" s="2">
         <v>43</v>
@@ -28769,7 +28783,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>50</v>
@@ -28798,7 +28812,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28824,16 +28838,16 @@
         <v>180</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28861,10 +28875,10 @@
         <v>116</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z227" t="s" s="2">
         <v>43</v>
@@ -28882,7 +28896,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28911,7 +28925,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28934,19 +28948,19 @@
         <v>43</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28995,7 +29009,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29024,7 +29038,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29047,19 +29061,19 @@
         <v>43</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -29108,7 +29122,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -29137,10 +29151,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C230" t="s" s="2">
         <v>43</v>
@@ -29165,14 +29179,14 @@
         <v>316</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -29221,7 +29235,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29250,7 +29264,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29359,7 +29373,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29470,7 +29484,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29583,7 +29597,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29609,16 +29623,16 @@
         <v>180</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29647,7 +29661,7 @@
       </c>
       <c r="X234" s="2"/>
       <c r="Y234" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
@@ -29665,7 +29679,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>50</v>
@@ -29694,7 +29708,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29720,16 +29734,16 @@
         <v>180</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29757,10 +29771,10 @@
         <v>116</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29778,7 +29792,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29807,7 +29821,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29830,19 +29844,19 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29891,7 +29905,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29920,7 +29934,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29943,19 +29957,19 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30004,7 +30018,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30033,10 +30047,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>43</v>
@@ -30061,14 +30075,14 @@
         <v>316</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30117,7 +30131,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30146,7 +30160,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30255,7 +30269,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30366,7 +30380,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30479,7 +30493,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30505,16 +30519,16 @@
         <v>180</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30524,7 +30538,7 @@
         <v>43</v>
       </c>
       <c r="R242" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="S242" t="s" s="2">
         <v>43</v>
@@ -30543,7 +30557,7 @@
       </c>
       <c r="X242" s="2"/>
       <c r="Y242" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30561,7 +30575,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>50</v>
@@ -30590,7 +30604,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30616,16 +30630,16 @@
         <v>180</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30654,7 +30668,7 @@
       </c>
       <c r="X243" s="2"/>
       <c r="Y243" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30672,7 +30686,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30701,7 +30715,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30724,19 +30738,19 @@
         <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30785,7 +30799,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30814,7 +30828,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30837,19 +30851,19 @@
         <v>43</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30898,7 +30912,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30927,10 +30941,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C246" t="s" s="2">
         <v>43</v>
@@ -30955,14 +30969,14 @@
         <v>316</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -31011,7 +31025,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31040,7 +31054,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31149,7 +31163,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31260,7 +31274,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31373,7 +31387,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31399,16 +31413,16 @@
         <v>180</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31418,7 +31432,7 @@
         <v>43</v>
       </c>
       <c r="R250" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S250" t="s" s="2">
         <v>43</v>
@@ -31437,7 +31451,7 @@
       </c>
       <c r="X250" s="2"/>
       <c r="Y250" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31455,7 +31469,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>50</v>
@@ -31484,7 +31498,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31510,16 +31524,16 @@
         <v>180</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31547,10 +31561,10 @@
         <v>116</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
@@ -31568,7 +31582,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31597,7 +31611,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31620,19 +31634,19 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31681,7 +31695,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31710,7 +31724,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31733,19 +31747,19 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31794,7 +31808,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31823,7 +31837,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31849,10 +31863,10 @@
         <v>316</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
@@ -31903,7 +31917,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31932,7 +31946,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -32041,7 +32055,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32152,7 +32166,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32265,7 +32279,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32291,14 +32305,14 @@
         <v>425</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>648</v>
+        <v>808</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32347,7 +32361,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>50</v>
@@ -32376,7 +32390,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32402,14 +32416,14 @@
         <v>180</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32437,28 +32451,28 @@
         <v>116</v>
       </c>
       <c r="X259" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="Y259" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="Z259" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA259" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB259" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC259" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD259" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE259" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="Z259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE259" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32487,7 +32501,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32513,16 +32527,16 @@
         <v>180</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32550,10 +32564,10 @@
         <v>116</v>
       </c>
       <c r="X260" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
@@ -32571,7 +32585,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32600,11 +32614,11 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -32626,16 +32640,16 @@
         <v>180</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>688</v>
+        <v>816</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>690</v>
+        <v>818</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32663,28 +32677,28 @@
         <v>116</v>
       </c>
       <c r="X261" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="Y261" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="Z261" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA261" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB261" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC261" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD261" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE261" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="Y261" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="Z261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE261" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>50</v>
@@ -32713,7 +32727,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32739,16 +32753,16 @@
         <v>180</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32776,10 +32790,10 @@
         <v>116</v>
       </c>
       <c r="X262" t="s" s="2">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
@@ -32797,7 +32811,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32826,7 +32840,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32852,16 +32866,16 @@
         <v>180</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32889,10 +32903,10 @@
         <v>116</v>
       </c>
       <c r="X263" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>43</v>
@@ -32910,7 +32924,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32939,7 +32953,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32962,17 +32976,17 @@
         <v>43</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -33021,7 +33035,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -33050,7 +33064,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33073,17 +33087,17 @@
         <v>43</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -33132,7 +33146,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -33161,7 +33175,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33184,19 +33198,19 @@
         <v>43</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33245,7 +33259,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33274,7 +33288,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33297,19 +33311,19 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33358,7 +33372,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33387,7 +33401,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33469,7 +33483,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33498,7 +33512,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33524,14 +33538,14 @@
         <v>425</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33580,7 +33594,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33609,7 +33623,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33635,10 +33649,10 @@
         <v>43</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
@@ -33689,7 +33703,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33718,7 +33732,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33744,10 +33758,10 @@
         <v>316</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
@@ -33798,7 +33812,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33827,7 +33841,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33936,7 +33950,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34047,7 +34061,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34160,7 +34174,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34186,14 +34200,14 @@
         <v>425</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>648</v>
+        <v>808</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M275" s="2"/>
       <c r="N275" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34242,7 +34256,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>50</v>
@@ -34271,7 +34285,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34297,14 +34311,14 @@
         <v>180</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34332,10 +34346,10 @@
         <v>116</v>
       </c>
       <c r="X276" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="Y276" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="Z276" t="s" s="2">
         <v>43</v>
@@ -34353,7 +34367,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34382,7 +34396,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34408,16 +34422,16 @@
         <v>180</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34445,10 +34459,10 @@
         <v>116</v>
       </c>
       <c r="X277" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z277" t="s" s="2">
         <v>43</v>
@@ -34466,7 +34480,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34495,11 +34509,11 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -34521,16 +34535,16 @@
         <v>180</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>688</v>
+        <v>816</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>690</v>
+        <v>818</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34558,10 +34572,10 @@
         <v>116</v>
       </c>
       <c r="X278" t="s" s="2">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
@@ -34579,7 +34593,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>50</v>
@@ -34608,7 +34622,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34634,16 +34648,16 @@
         <v>180</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34671,10 +34685,10 @@
         <v>116</v>
       </c>
       <c r="X279" t="s" s="2">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="Z279" t="s" s="2">
         <v>43</v>
@@ -34692,7 +34706,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34721,7 +34735,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34747,16 +34761,16 @@
         <v>180</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34784,10 +34798,10 @@
         <v>116</v>
       </c>
       <c r="X280" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>43</v>
@@ -34805,7 +34819,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34834,7 +34848,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34857,17 +34871,17 @@
         <v>43</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34916,7 +34930,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34945,7 +34959,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34968,17 +34982,17 @@
         <v>43</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -35027,7 +35041,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -35056,7 +35070,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35079,19 +35093,19 @@
         <v>43</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -35140,7 +35154,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35169,7 +35183,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35192,19 +35206,19 @@
         <v>43</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35253,7 +35267,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35282,7 +35296,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35364,7 +35378,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35393,7 +35407,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35419,14 +35433,14 @@
         <v>425</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35475,7 +35489,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35504,7 +35518,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35530,10 +35544,10 @@
         <v>43</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
@@ -35584,7 +35598,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35613,7 +35627,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35639,14 +35653,14 @@
         <v>316</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="M288" s="2"/>
       <c r="N288" t="s" s="2">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35695,7 +35709,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35724,7 +35738,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35833,7 +35847,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35944,7 +35958,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36057,7 +36071,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36083,14 +36097,14 @@
         <v>425</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" t="s" s="2">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36139,7 +36153,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36168,7 +36182,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36194,14 +36208,14 @@
         <v>425</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36250,7 +36264,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36279,7 +36293,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36305,14 +36319,14 @@
         <v>425</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" t="s" s="2">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36361,7 +36375,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36390,7 +36404,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36416,14 +36430,14 @@
         <v>430</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" t="s" s="2">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36472,7 +36486,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36501,11 +36515,11 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -36527,16 +36541,16 @@
         <v>180</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>688</v>
+        <v>816</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>690</v>
+        <v>818</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>43</v>
@@ -36564,10 +36578,10 @@
         <v>116</v>
       </c>
       <c r="X296" t="s" s="2">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="Z296" t="s" s="2">
         <v>43</v>
@@ -36585,7 +36599,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>50</v>
@@ -36614,7 +36628,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36640,16 +36654,16 @@
         <v>180</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36677,10 +36691,10 @@
         <v>116</v>
       </c>
       <c r="X297" t="s" s="2">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="Y297" t="s" s="2">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="Z297" t="s" s="2">
         <v>43</v>
@@ -36698,7 +36712,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36727,7 +36741,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36753,16 +36767,16 @@
         <v>180</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36790,10 +36804,10 @@
         <v>116</v>
       </c>
       <c r="X298" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Y298" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z298" t="s" s="2">
         <v>43</v>
@@ -36811,7 +36825,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36840,7 +36854,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36866,14 +36880,14 @@
         <v>480</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36922,7 +36936,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36951,7 +36965,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36974,17 +36988,17 @@
         <v>43</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -37012,10 +37026,10 @@
         <v>116</v>
       </c>
       <c r="X300" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Y300" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>43</v>
@@ -37033,7 +37047,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37062,7 +37076,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37085,17 +37099,17 @@
         <v>43</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37144,7 +37158,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37173,7 +37187,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37196,17 +37210,17 @@
         <v>43</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37255,7 +37269,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37284,7 +37298,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37307,19 +37321,19 @@
         <v>43</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37368,7 +37382,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37397,7 +37411,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37420,19 +37434,19 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37481,7 +37495,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37510,7 +37524,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37536,16 +37550,16 @@
         <v>180</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37573,10 +37587,10 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Y305" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
@@ -37594,7 +37608,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37623,7 +37637,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37649,14 +37663,14 @@
         <v>180</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37684,10 +37698,10 @@
         <v>116</v>
       </c>
       <c r="X306" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Z306" t="s" s="2">
         <v>43</v>
@@ -37705,7 +37719,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37734,7 +37748,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37760,14 +37774,14 @@
         <v>425</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37816,7 +37830,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37845,7 +37859,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37871,10 +37885,10 @@
         <v>43</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
@@ -37925,7 +37939,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37954,7 +37968,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37980,10 +37994,10 @@
         <v>316</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="M309" s="2"/>
       <c r="N309" s="2"/>
@@ -38034,7 +38048,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38063,7 +38077,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38172,7 +38186,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38283,7 +38297,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38396,11 +38410,11 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -38422,16 +38436,16 @@
         <v>180</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>688</v>
+        <v>816</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>690</v>
+        <v>818</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38459,10 +38473,10 @@
         <v>116</v>
       </c>
       <c r="X313" t="s" s="2">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="Y313" t="s" s="2">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="Z313" t="s" s="2">
         <v>43</v>
@@ -38480,7 +38494,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>50</v>
@@ -38509,7 +38523,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38535,16 +38549,16 @@
         <v>180</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38572,10 +38586,10 @@
         <v>116</v>
       </c>
       <c r="X314" t="s" s="2">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="Y314" t="s" s="2">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="Z314" t="s" s="2">
         <v>43</v>
@@ -38593,7 +38607,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38622,7 +38636,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38645,17 +38659,17 @@
         <v>43</v>
       </c>
       <c r="J315" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38704,7 +38718,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38733,7 +38747,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38756,17 +38770,17 @@
         <v>43</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38815,7 +38829,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38844,7 +38858,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38867,19 +38881,19 @@
         <v>43</v>
       </c>
       <c r="J317" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38928,7 +38942,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38957,7 +38971,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38980,19 +38994,19 @@
         <v>43</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39041,7 +39055,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39070,7 +39084,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39096,14 +39110,14 @@
         <v>425</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39152,7 +39166,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39181,7 +39195,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39207,10 +39221,10 @@
         <v>43</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
@@ -39261,7 +39275,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39290,7 +39304,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39316,10 +39330,10 @@
         <v>316</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -39370,7 +39384,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
@@ -39399,7 +39413,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39508,7 +39522,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39619,7 +39633,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39732,11 +39746,11 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39758,16 +39772,16 @@
         <v>180</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>688</v>
+        <v>816</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>690</v>
+        <v>818</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39795,10 +39809,10 @@
         <v>116</v>
       </c>
       <c r="X325" t="s" s="2">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="Z325" t="s" s="2">
         <v>43</v>
@@ -39816,7 +39830,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>50</v>
@@ -39845,7 +39859,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39871,16 +39885,16 @@
         <v>180</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39908,10 +39922,10 @@
         <v>116</v>
       </c>
       <c r="X326" t="s" s="2">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="Y326" t="s" s="2">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="Z326" t="s" s="2">
         <v>43</v>
@@ -39929,7 +39943,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39958,7 +39972,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39981,17 +39995,17 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40040,7 +40054,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40069,7 +40083,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40092,17 +40106,17 @@
         <v>43</v>
       </c>
       <c r="J328" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -40151,7 +40165,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40180,7 +40194,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40203,19 +40217,19 @@
         <v>43</v>
       </c>
       <c r="J329" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40264,7 +40278,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40293,7 +40307,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40316,19 +40330,19 @@
         <v>43</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40377,7 +40391,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40406,7 +40420,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40432,14 +40446,14 @@
         <v>425</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40488,7 +40502,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40517,7 +40531,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40543,10 +40557,10 @@
         <v>43</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
@@ -40597,7 +40611,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40626,7 +40640,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40652,14 +40666,14 @@
         <v>316</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" t="s" s="2">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40708,7 +40722,7 @@
         <v>542</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40737,7 +40751,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40846,7 +40860,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40872,10 +40886,10 @@
         <v>70</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
@@ -40953,10 +40967,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C336" t="s" s="2">
         <v>43</v>
@@ -40978,13 +40992,13 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
@@ -41044,7 +41058,7 @@
         <v>42</v>
       </c>
       <c r="AH336" t="s" s="2">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="AI336" t="s" s="2">
         <v>78</v>
@@ -41064,7 +41078,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41177,7 +41191,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41203,16 +41217,16 @@
         <v>180</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41241,7 +41255,7 @@
       </c>
       <c r="X338" s="2"/>
       <c r="Y338" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>43</v>
@@ -41259,7 +41273,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>50</v>
@@ -41288,7 +41302,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41314,16 +41328,16 @@
         <v>180</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41351,10 +41365,10 @@
         <v>116</v>
       </c>
       <c r="X339" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y339" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z339" t="s" s="2">
         <v>43</v>
@@ -41372,7 +41386,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41401,7 +41415,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41424,19 +41438,19 @@
         <v>43</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41485,7 +41499,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41514,7 +41528,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41537,19 +41551,19 @@
         <v>43</v>
       </c>
       <c r="J341" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41598,7 +41612,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41627,10 +41641,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C342" t="s" s="2">
         <v>43</v>
@@ -41655,14 +41669,14 @@
         <v>316</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41711,7 +41725,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41740,7 +41754,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41849,7 +41863,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41875,10 +41889,10 @@
         <v>70</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
@@ -41956,10 +41970,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C345" t="s" s="2">
         <v>43</v>
@@ -41981,13 +41995,13 @@
         <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
@@ -42047,7 +42061,7 @@
         <v>42</v>
       </c>
       <c r="AH345" t="s" s="2">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="AI345" t="s" s="2">
         <v>78</v>
@@ -42067,7 +42081,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42180,7 +42194,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42206,16 +42220,16 @@
         <v>180</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42244,7 +42258,7 @@
       </c>
       <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
@@ -42262,7 +42276,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>50</v>
@@ -42291,7 +42305,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42317,16 +42331,16 @@
         <v>180</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42354,10 +42368,10 @@
         <v>116</v>
       </c>
       <c r="X348" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
@@ -42375,7 +42389,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42404,7 +42418,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42427,19 +42441,19 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42488,7 +42502,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42517,7 +42531,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42540,19 +42554,19 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42601,7 +42615,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42630,10 +42644,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C351" t="s" s="2">
         <v>43</v>
@@ -42658,14 +42672,14 @@
         <v>316</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42714,7 +42728,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42743,7 +42757,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42852,7 +42866,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42878,10 +42892,10 @@
         <v>70</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -42959,10 +42973,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C354" t="s" s="2">
         <v>43</v>
@@ -42984,13 +42998,13 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="M354" s="2"/>
       <c r="N354" s="2"/>
@@ -43050,7 +43064,7 @@
         <v>42</v>
       </c>
       <c r="AH354" t="s" s="2">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="AI354" t="s" s="2">
         <v>78</v>
@@ -43070,7 +43084,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43183,7 +43197,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43209,16 +43223,16 @@
         <v>180</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43228,7 +43242,7 @@
         <v>43</v>
       </c>
       <c r="R356" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="S356" t="s" s="2">
         <v>43</v>
@@ -43247,7 +43261,7 @@
       </c>
       <c r="X356" s="2"/>
       <c r="Y356" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43265,7 +43279,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>50</v>
@@ -43294,7 +43308,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43320,16 +43334,16 @@
         <v>180</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43358,7 +43372,7 @@
       </c>
       <c r="X357" s="2"/>
       <c r="Y357" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43376,7 +43390,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43405,7 +43419,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43428,19 +43442,19 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43489,7 +43503,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43518,7 +43532,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43541,19 +43555,19 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43602,7 +43616,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43631,10 +43645,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C360" t="s" s="2">
         <v>43</v>
@@ -43659,14 +43673,14 @@
         <v>316</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43715,7 +43729,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43744,7 +43758,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43853,7 +43867,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43879,10 +43893,10 @@
         <v>70</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
@@ -43960,10 +43974,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C363" t="s" s="2">
         <v>43</v>
@@ -43985,13 +43999,13 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -44051,7 +44065,7 @@
         <v>42</v>
       </c>
       <c r="AH363" t="s" s="2">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="AI363" t="s" s="2">
         <v>78</v>
@@ -44071,7 +44085,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44184,7 +44198,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44210,16 +44224,16 @@
         <v>180</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44248,7 +44262,7 @@
       </c>
       <c r="X365" s="2"/>
       <c r="Y365" t="s" s="2">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="Z365" t="s" s="2">
         <v>43</v>
@@ -44266,7 +44280,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>50</v>
@@ -44295,7 +44309,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44321,16 +44335,16 @@
         <v>180</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44358,10 +44372,10 @@
         <v>116</v>
       </c>
       <c r="X366" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y366" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z366" t="s" s="2">
         <v>43</v>
@@ -44379,7 +44393,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44408,7 +44422,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44431,19 +44445,19 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44492,7 +44506,7 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
@@ -44521,7 +44535,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44544,19 +44558,19 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44605,7 +44619,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44634,7 +44648,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44660,16 +44674,16 @@
         <v>316</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44718,7 +44732,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
@@ -44747,7 +44761,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44856,7 +44870,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44967,7 +44981,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45080,7 +45094,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45106,16 +45120,16 @@
         <v>180</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45144,7 +45158,7 @@
       </c>
       <c r="X373" s="2"/>
       <c r="Y373" t="s" s="2">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="Z373" t="s" s="2">
         <v>43</v>
@@ -45162,7 +45176,7 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>50</v>
@@ -45191,7 +45205,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45214,17 +45228,17 @@
         <v>51</v>
       </c>
       <c r="J374" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45273,7 +45287,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>50</v>
@@ -45302,7 +45316,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45328,14 +45342,14 @@
         <v>316</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" t="s" s="2">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45384,7 +45398,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45413,7 +45427,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45522,7 +45536,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45633,7 +45647,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45746,7 +45760,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45772,14 +45786,14 @@
         <v>180</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45808,25 +45822,25 @@
       </c>
       <c r="X379" s="2"/>
       <c r="Y379" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC379" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE379" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="Z379" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA379" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB379" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC379" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD379" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE379" t="s" s="2">
-        <v>957</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45855,7 +45869,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45878,19 +45892,19 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45939,7 +45953,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45968,7 +45982,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45994,14 +46008,14 @@
         <v>180</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="M381" s="2"/>
       <c r="N381" t="s" s="2">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46030,7 +46044,7 @@
       </c>
       <c r="X381" s="2"/>
       <c r="Y381" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Z381" t="s" s="2">
         <v>43</v>
@@ -46048,7 +46062,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46077,7 +46091,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46103,14 +46117,14 @@
         <v>506</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="M382" s="2"/>
       <c r="N382" t="s" s="2">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46159,7 +46173,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46188,7 +46202,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46211,17 +46225,17 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46270,7 +46284,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46299,7 +46313,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46325,16 +46339,16 @@
         <v>159</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46383,7 +46397,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46412,7 +46426,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46438,16 +46452,16 @@
         <v>180</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
@@ -46475,10 +46489,10 @@
         <v>116</v>
       </c>
       <c r="X385" t="s" s="2">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="Y385" t="s" s="2">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
@@ -46496,7 +46510,7 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
@@ -46525,7 +46539,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46548,19 +46562,19 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46609,7 +46623,7 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
@@ -46638,7 +46652,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46664,14 +46678,14 @@
         <v>316</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46720,7 +46734,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46749,7 +46763,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46858,7 +46872,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46969,7 +46983,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47082,7 +47096,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47108,14 +47122,14 @@
         <v>425</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" t="s" s="2">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47164,7 +47178,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47193,7 +47207,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47219,14 +47233,14 @@
         <v>126</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="M392" s="2"/>
       <c r="N392" t="s" s="2">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47254,28 +47268,28 @@
         <v>174</v>
       </c>
       <c r="X392" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="Y392" t="s" s="2">
+        <v>1017</v>
+      </c>
+      <c r="Z392" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA392" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC392" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD392" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE392" t="s" s="2">
         <v>1012</v>
-      </c>
-      <c r="Y392" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="Z392" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA392" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB392" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC392" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD392" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE392" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47304,7 +47318,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47330,14 +47344,14 @@
         <v>52</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="M393" s="2"/>
       <c r="N393" t="s" s="2">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47386,7 +47400,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47415,7 +47429,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47441,16 +47455,16 @@
         <v>180</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47499,7 +47513,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47528,7 +47542,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47554,16 +47568,16 @@
         <v>207</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47612,7 +47626,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47641,7 +47655,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47667,10 +47681,10 @@
         <v>316</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -47721,7 +47735,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
@@ -47750,7 +47764,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47859,7 +47873,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -47970,7 +47984,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48083,7 +48097,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48109,16 +48123,16 @@
         <v>180</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48146,10 +48160,10 @@
         <v>116</v>
       </c>
       <c r="X400" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Y400" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z400" t="s" s="2">
         <v>43</v>
@@ -48167,7 +48181,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>50</v>
@@ -48196,7 +48210,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48222,14 +48236,14 @@
         <v>436</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48278,7 +48292,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48307,7 +48321,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48333,16 +48347,16 @@
         <v>52</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48391,7 +48405,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48420,7 +48434,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48446,16 +48460,16 @@
         <v>52</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48504,7 +48518,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48533,7 +48547,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48559,14 +48573,14 @@
         <v>180</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="M404" s="2"/>
       <c r="N404" t="s" s="2">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48594,28 +48608,28 @@
         <v>116</v>
       </c>
       <c r="X404" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="Y404" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="Z404" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA404" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB404" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC404" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD404" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE404" t="s" s="2">
         <v>1054</v>
-      </c>
-      <c r="Y404" t="s" s="2">
-        <v>1055</v>
-      </c>
-      <c r="Z404" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA404" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB404" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC404" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD404" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE404" t="s" s="2">
-        <v>1050</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48644,7 +48658,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48670,14 +48684,14 @@
         <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="M405" s="2"/>
       <c r="N405" t="s" s="2">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48705,28 +48719,28 @@
         <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="Y405" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="Z405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE405" t="s" s="2">
         <v>1060</v>
-      </c>
-      <c r="Y405" t="s" s="2">
-        <v>1061</v>
-      </c>
-      <c r="Z405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE405" t="s" s="2">
-        <v>1056</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48755,7 +48769,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48781,14 +48795,14 @@
         <v>180</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="M406" s="2"/>
       <c r="N406" t="s" s="2">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
@@ -48816,28 +48830,28 @@
         <v>116</v>
       </c>
       <c r="X406" t="s" s="2">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="Y406" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="Z406" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA406" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB406" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC406" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD406" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE406" t="s" s="2">
         <v>1066</v>
-      </c>
-      <c r="Z406" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA406" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB406" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC406" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD406" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE406" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -48866,7 +48880,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48892,10 +48906,10 @@
         <v>316</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -48946,7 +48960,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
@@ -48975,7 +48989,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49084,7 +49098,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49195,7 +49209,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49308,7 +49322,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49334,16 +49348,16 @@
         <v>180</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49371,28 +49385,28 @@
         <v>116</v>
       </c>
       <c r="X411" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="Y411" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE411" t="s" s="2">
         <v>1077</v>
-      </c>
-      <c r="Y411" t="s" s="2">
-        <v>1078</v>
-      </c>
-      <c r="Z411" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA411" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB411" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC411" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD411" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE411" t="s" s="2">
-        <v>1073</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>50</v>
@@ -49421,7 +49435,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49444,17 +49458,17 @@
         <v>43</v>
       </c>
       <c r="J412" t="s" s="2">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" t="s" s="2">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49503,7 +49517,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49532,7 +49546,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49555,17 +49569,17 @@
         <v>43</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" t="s" s="2">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49614,7 +49628,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -772,7 +772,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/claim-type</t>
+    <t>http://hl7.org/fhir/ValueSet/claim-type</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -1411,7 +1411,7 @@
     <t>When multiple parties are present it is required to distinguish the roles performed by each member.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerOutpatientFacilityProviderRoleVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerInstitutionalProviderRoleVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.qualification</t>
@@ -3595,7 +3595,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.76171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -157,7 +157,10 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}EOB-inst-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code in 
+('attending' | 'pcp' | 'referring' | 'supervising')) implies 
+ExplanationOfBenefit.careTeam.provider.reference.resolve().conformsTo('http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Practitioner')}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code='performing') implies 
+ExplanationOfBenefit.careTeam.provider.reference.resolve().conformsTo('http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Organization')}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -159,8 +159,8 @@
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}EOB-inst-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code in 
 ('attending' | 'pcp' | 'referring' | 'supervising')) implies 
-ExplanationOfBenefit.careTeam.provider.reference.resolve().conformsTo('http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Practitioner')}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code='performing') implies 
-ExplanationOfBenefit.careTeam.provider.reference.resolve().conformsTo('http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Organization')}</t>
+ExplanationOfBenefit.careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code='performing') implies 
+ExplanationOfBenefit.careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
   </si>
   <si>
     <t>Event</t>
@@ -29837,7 +29837,7 @@
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F236" t="s" s="2">
         <v>50</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -1635,7 +1635,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCTypeOfBillVS</t>
+    <t>http://hl7.org/fhir/ValueSet/nubc-type-of-bill</t>
   </si>
   <si>
     <t>pointoforigin</t>
@@ -1652,7 +1652,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPointOfOriginVS</t>
+    <t>http://hl7.org/fhir/ValueSet/nubc-admission-source</t>
   </si>
   <si>
     <t>admtype</t>
@@ -2161,7 +2161,7 @@
     <t>Needed in the processing of institutional claims.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCRevenueCodeVS</t>
+    <t>http://hl7.org/fhir/ValueSet/nubc-service-line-revenue</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.category</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -1170,7 +1170,7 @@
     <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payee.party</t>
@@ -1419,7 +1419,7 @@
     <t>When multiple parties are present it is required to distinguish the roles performed by each member.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerInstitutionalProviderRoleVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerInstitutionalProviderRole</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.qualification</t>
@@ -1498,7 +1498,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.code</t>
@@ -1586,7 +1586,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ProviderNetworkStatusVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ProviderNetworkStatus</t>
   </si>
   <si>
     <t>referringnetworkcontractingstatus</t>
@@ -1669,7 +1669,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPriorityOfAdmissionnVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPriorityOfAdmissionn</t>
   </si>
   <si>
     <t>discharge-status</t>
@@ -1686,7 +1686,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPatientDischargeStatusVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPatientDischargeStatus</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis</t>
@@ -1753,7 +1753,7 @@
     <t>diagnosisCodeableConcept</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10CMVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10CM</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.type</t>
@@ -1891,7 +1891,7 @@
     <t>procedureCodeableConcept</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCSVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.procedure.udi</t>
@@ -2204,7 +2204,7 @@
     <t>Necessary to state what was provided or done.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSProcedureCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSProcedureCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.modifier</t>
@@ -2222,7 +2222,7 @@
     <t>To support inclusion of the item for adjudication or to charge an elevated fee.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSModifierCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSModifierCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.programCode</t>
@@ -2449,7 +2449,7 @@
     <t>Needed to enable understanding of the context of the other information in the adjudication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.reason</t>
@@ -2509,7 +2509,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodesVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodes</t>
   </si>
   <si>
     <t>denialreason</t>
@@ -2526,7 +2526,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationDenialReasonVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationDenialReason</t>
   </si>
   <si>
     <t>allowedunits</t>
@@ -2953,7 +2953,7 @@
     <t>Benefit Payment Status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatus</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total</t>
@@ -2989,7 +2989,7 @@
     <t>Needed to convey the type of total provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -3037,7 +3037,7 @@
     <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.adjustment</t>
@@ -3603,7 +3603,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -2220,7 +2220,7 @@
     <t>Necessary to state what was provided or done.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSProcedureCode</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AMACPTCMSHCPCSProcedureCodes</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.modifier</t>
@@ -2238,7 +2238,7 @@
     <t>To support inclusion of the item for adjudication or to charge an elevated fee.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSModifierCode</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AMACPTCMSHCPCSProcedureModifiers</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.programCode</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$434</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$431</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15311" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15212" uniqueCount="1095">
   <si>
     <t>Path</t>
   </si>
@@ -2938,23 +2938,6 @@
     <t>ExplanationOfBenefit.adjudication.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>adjudication-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
   </si>
   <si>
@@ -2985,7 +2968,7 @@
     <t>To provide the requestor with financial totals by category for the adjudication.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:null}
+    <t xml:space="preserve">value:category}
 </t>
   </si>
   <si>
@@ -3600,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM434"/>
+  <dimension ref="A1:AM431"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -42936,11 +42919,11 @@
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F353" t="s" s="2">
         <v>42</v>
@@ -42958,12 +42941,14 @@
         <v>70</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>930</v>
+        <v>71</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="M353" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M353" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N353" s="2"/>
       <c r="O353" t="s" s="2">
         <v>43</v>
@@ -43000,14 +42985,16 @@
         <v>43</v>
       </c>
       <c r="AA353" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB353" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB353" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC353" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD353" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
         <v>77</v>
@@ -43034,46 +43021,48 @@
         <v>43</v>
       </c>
       <c r="AM353" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="B354" t="s" s="2">
-        <v>932</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F354" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G354" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H354" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H354" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I354" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>933</v>
+        <v>70</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>930</v>
+        <v>325</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="M354" s="2"/>
-      <c r="N354" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N354" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O354" t="s" s="2">
         <v>43</v>
       </c>
@@ -43121,7 +43110,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
@@ -43130,7 +43119,7 @@
         <v>42</v>
       </c>
       <c r="AH354" t="s" s="2">
-        <v>934</v>
+        <v>43</v>
       </c>
       <c r="AI354" t="s" s="2">
         <v>78</v>
@@ -43145,47 +43134,47 @@
         <v>43</v>
       </c>
       <c r="AM354" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="355" hidden="true">
+    <row r="355">
       <c r="A355" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F355" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G355" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H355" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I355" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>325</v>
+        <v>773</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>326</v>
+        <v>774</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>73</v>
+        <v>775</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>156</v>
+        <v>776</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43210,13 +43199,11 @@
         <v>43</v>
       </c>
       <c r="W355" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X355" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X355" s="2"/>
       <c r="Y355" t="s" s="2">
-        <v>43</v>
+        <v>777</v>
       </c>
       <c r="Z355" t="s" s="2">
         <v>43</v>
@@ -43234,19 +43221,19 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>327</v>
+        <v>772</v>
       </c>
       <c r="AF355" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI355" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ355" t="s" s="2">
         <v>43</v>
@@ -43258,12 +43245,12 @@
         <v>43</v>
       </c>
       <c r="AM355" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43271,13 +43258,13 @@
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F356" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G356" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H356" t="s" s="2">
         <v>43</v>
@@ -43289,16 +43276,16 @@
         <v>180</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43323,11 +43310,13 @@
         <v>43</v>
       </c>
       <c r="W356" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X356" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X356" t="s" s="2">
+        <v>783</v>
+      </c>
       <c r="Y356" t="s" s="2">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43345,10 +43334,10 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG356" t="s" s="2">
         <v>50</v>
@@ -43374,7 +43363,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43397,19 +43386,19 @@
         <v>43</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>180</v>
+        <v>727</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43434,13 +43423,13 @@
         <v>43</v>
       </c>
       <c r="W357" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X357" t="s" s="2">
-        <v>783</v>
+        <v>43</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>784</v>
+        <v>43</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43458,7 +43447,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43487,7 +43476,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43510,19 +43499,19 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43571,7 +43560,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43598,11 +43587,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="359" hidden="true">
+    <row r="359">
       <c r="A359" t="s" s="2">
-        <v>939</v>
-      </c>
-      <c r="B359" s="2"/>
+        <v>924</v>
+      </c>
+      <c r="B359" t="s" s="2">
+        <v>795</v>
+      </c>
       <c r="C359" t="s" s="2">
         <v>43</v>
       </c>
@@ -43611,10 +43602,10 @@
         <v>41</v>
       </c>
       <c r="F359" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G359" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H359" t="s" s="2">
         <v>43</v>
@@ -43623,19 +43614,17 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>732</v>
+        <v>316</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="M359" t="s" s="2">
-        <v>793</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="M359" s="2"/>
       <c r="N359" t="s" s="2">
-        <v>794</v>
+        <v>927</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43684,13 +43673,13 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>790</v>
+        <v>924</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>43</v>
@@ -43711,13 +43700,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="B360" t="s" s="2">
-        <v>795</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
         <v>43</v>
       </c>
@@ -43726,10 +43713,10 @@
         <v>41</v>
       </c>
       <c r="F360" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G360" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H360" t="s" s="2">
         <v>43</v>
@@ -43738,18 +43725,16 @@
         <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>926</v>
+        <v>65</v>
       </c>
       <c r="M360" s="2"/>
-      <c r="N360" t="s" s="2">
-        <v>927</v>
-      </c>
+      <c r="N360" s="2"/>
       <c r="O360" t="s" s="2">
         <v>43</v>
       </c>
@@ -43797,19 +43782,19 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>924</v>
+        <v>66</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI360" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ360" t="s" s="2">
         <v>43</v>
@@ -43821,23 +43806,23 @@
         <v>43</v>
       </c>
       <c r="AM360" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F361" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G361" t="s" s="2">
         <v>43</v>
@@ -43849,15 +43834,17 @@
         <v>43</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M361" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M361" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N361" s="2"/>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43906,19 +43893,19 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI361" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ361" t="s" s="2">
         <v>43</v>
@@ -43935,15 +43922,15 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F362" t="s" s="2">
         <v>42</v>
@@ -43952,22 +43939,26 @@
         <v>43</v>
       </c>
       <c r="H362" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I362" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J362" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>930</v>
+        <v>325</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="M362" s="2"/>
-      <c r="N362" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N362" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
       </c>
@@ -44003,17 +43994,19 @@
         <v>43</v>
       </c>
       <c r="AA362" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB362" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB362" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC362" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD362" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -44037,16 +44030,14 @@
         <v>43</v>
       </c>
       <c r="AM362" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="B363" t="s" s="2">
-        <v>932</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
         <v>43</v>
       </c>
@@ -44058,7 +44049,7 @@
         <v>50</v>
       </c>
       <c r="G363" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H363" t="s" s="2">
         <v>43</v>
@@ -44067,16 +44058,20 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>933</v>
+        <v>180</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>930</v>
+        <v>773</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="M363" s="2"/>
-      <c r="N363" s="2"/>
+        <v>774</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>776</v>
+      </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
       </c>
@@ -44100,13 +44095,11 @@
         <v>43</v>
       </c>
       <c r="W363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X363" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X363" s="2"/>
       <c r="Y363" t="s" s="2">
-        <v>43</v>
+        <v>797</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>43</v>
@@ -44124,19 +44117,19 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>77</v>
+        <v>772</v>
       </c>
       <c r="AF363" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH363" t="s" s="2">
-        <v>934</v>
+        <v>43</v>
       </c>
       <c r="AI363" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ363" t="s" s="2">
         <v>43</v>
@@ -44153,42 +44146,42 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F364" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G364" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H364" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I364" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>325</v>
+        <v>779</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>326</v>
+        <v>780</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>73</v>
+        <v>781</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>156</v>
+        <v>782</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44213,13 +44206,13 @@
         <v>43</v>
       </c>
       <c r="W364" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X364" t="s" s="2">
-        <v>43</v>
+        <v>783</v>
       </c>
       <c r="Y364" t="s" s="2">
-        <v>43</v>
+        <v>784</v>
       </c>
       <c r="Z364" t="s" s="2">
         <v>43</v>
@@ -44237,19 +44230,19 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>327</v>
+        <v>778</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI364" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ364" t="s" s="2">
         <v>43</v>
@@ -44261,12 +44254,12 @@
         <v>43</v>
       </c>
       <c r="AM364" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="365" hidden="true">
+    <row r="365">
       <c r="A365" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44280,7 +44273,7 @@
         <v>50</v>
       </c>
       <c r="G365" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H365" t="s" s="2">
         <v>43</v>
@@ -44289,19 +44282,19 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>180</v>
+        <v>727</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44326,11 +44319,13 @@
         <v>43</v>
       </c>
       <c r="W365" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X365" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X365" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y365" t="s" s="2">
-        <v>797</v>
+        <v>43</v>
       </c>
       <c r="Z365" t="s" s="2">
         <v>43</v>
@@ -44348,10 +44343,10 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="AF365" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG365" t="s" s="2">
         <v>50</v>
@@ -44377,7 +44372,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44400,19 +44395,19 @@
         <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>180</v>
+        <v>732</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44437,13 +44432,13 @@
         <v>43</v>
       </c>
       <c r="W366" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X366" t="s" s="2">
-        <v>783</v>
+        <v>43</v>
       </c>
       <c r="Y366" t="s" s="2">
-        <v>784</v>
+        <v>43</v>
       </c>
       <c r="Z366" t="s" s="2">
         <v>43</v>
@@ -44461,7 +44456,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44490,15 +44485,17 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>938</v>
-      </c>
-      <c r="B367" s="2"/>
+        <v>924</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>798</v>
+      </c>
       <c r="C367" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F367" t="s" s="2">
         <v>50</v>
@@ -44513,19 +44510,17 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>727</v>
+        <v>316</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="M367" t="s" s="2">
-        <v>788</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="M367" s="2"/>
       <c r="N367" t="s" s="2">
-        <v>789</v>
+        <v>927</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44574,13 +44569,13 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>785</v>
+        <v>924</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>43</v>
@@ -44603,7 +44598,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44626,20 +44621,16 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>732</v>
+        <v>52</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>791</v>
+        <v>64</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="M368" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N368" t="s" s="2">
-        <v>794</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M368" s="2"/>
+      <c r="N368" s="2"/>
       <c r="O368" t="s" s="2">
         <v>43</v>
       </c>
@@ -44687,7 +44678,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>790</v>
+        <v>66</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44699,7 +44690,7 @@
         <v>43</v>
       </c>
       <c r="AI368" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ368" t="s" s="2">
         <v>43</v>
@@ -44711,28 +44702,26 @@
         <v>43</v>
       </c>
       <c r="AM368" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="B369" t="s" s="2">
-        <v>798</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F369" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G369" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H369" t="s" s="2">
         <v>43</v>
@@ -44741,18 +44730,18 @@
         <v>43</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>799</v>
+        <v>71</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="M369" s="2"/>
-      <c r="N369" t="s" s="2">
-        <v>927</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N369" s="2"/>
       <c r="O369" t="s" s="2">
         <v>43</v>
       </c>
@@ -44800,7 +44789,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>924</v>
+        <v>77</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
@@ -44812,7 +44801,7 @@
         <v>43</v>
       </c>
       <c r="AI369" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ369" t="s" s="2">
         <v>43</v>
@@ -44824,44 +44813,48 @@
         <v>43</v>
       </c>
       <c r="AM369" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F370" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G370" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H370" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I370" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J370" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>64</v>
+        <v>325</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M370" s="2"/>
-      <c r="N370" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N370" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
       </c>
@@ -44909,19 +44902,19 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI370" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ370" t="s" s="2">
         <v>43</v>
@@ -44933,12 +44926,12 @@
         <v>43</v>
       </c>
       <c r="AM370" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44949,7 +44942,7 @@
         <v>50</v>
       </c>
       <c r="F371" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G371" t="s" s="2">
         <v>43</v>
@@ -44961,16 +44954,20 @@
         <v>43</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>930</v>
+        <v>773</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="M371" s="2"/>
-      <c r="N371" s="2"/>
+        <v>774</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>776</v>
+      </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
       </c>
@@ -44979,7 +44976,7 @@
         <v>43</v>
       </c>
       <c r="R371" t="s" s="2">
-        <v>43</v>
+        <v>800</v>
       </c>
       <c r="S371" t="s" s="2">
         <v>43</v>
@@ -44994,41 +44991,41 @@
         <v>43</v>
       </c>
       <c r="W371" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X371" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X371" s="2"/>
       <c r="Y371" t="s" s="2">
-        <v>43</v>
+        <v>777</v>
       </c>
       <c r="Z371" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA371" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB371" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC371" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD371" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>77</v>
+        <v>772</v>
       </c>
       <c r="AF371" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH371" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI371" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ371" t="s" s="2">
         <v>43</v>
@@ -45045,11 +45042,9 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="B372" t="s" s="2">
         <v>932</v>
       </c>
+      <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
         <v>43</v>
       </c>
@@ -45070,16 +45065,20 @@
         <v>43</v>
       </c>
       <c r="J372" t="s" s="2">
-        <v>933</v>
+        <v>180</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>930</v>
+        <v>779</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="M372" s="2"/>
-      <c r="N372" s="2"/>
+        <v>780</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>782</v>
+      </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
       </c>
@@ -45103,13 +45102,11 @@
         <v>43</v>
       </c>
       <c r="W372" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X372" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X372" s="2"/>
       <c r="Y372" t="s" s="2">
-        <v>43</v>
+        <v>801</v>
       </c>
       <c r="Z372" t="s" s="2">
         <v>43</v>
@@ -45127,19 +45124,19 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>77</v>
+        <v>778</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH372" t="s" s="2">
-        <v>934</v>
+        <v>43</v>
       </c>
       <c r="AI372" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ372" t="s" s="2">
         <v>43</v>
@@ -45156,42 +45153,42 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F373" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G373" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H373" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I373" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J373" t="s" s="2">
-        <v>70</v>
+        <v>727</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>325</v>
+        <v>786</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>326</v>
+        <v>787</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>73</v>
+        <v>788</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>156</v>
+        <v>789</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45240,19 +45237,19 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>327</v>
+        <v>785</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI373" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ373" t="s" s="2">
         <v>43</v>
@@ -45264,12 +45261,12 @@
         <v>43</v>
       </c>
       <c r="AM373" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45277,7 +45274,7 @@
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F374" t="s" s="2">
         <v>50</v>
@@ -45292,19 +45289,19 @@
         <v>43</v>
       </c>
       <c r="J374" t="s" s="2">
-        <v>180</v>
+        <v>732</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45314,7 +45311,7 @@
         <v>43</v>
       </c>
       <c r="R374" t="s" s="2">
-        <v>800</v>
+        <v>43</v>
       </c>
       <c r="S374" t="s" s="2">
         <v>43</v>
@@ -45329,11 +45326,13 @@
         <v>43</v>
       </c>
       <c r="W374" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X374" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y374" t="s" s="2">
-        <v>777</v>
+        <v>43</v>
       </c>
       <c r="Z374" t="s" s="2">
         <v>43</v>
@@ -45351,10 +45350,10 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="AF374" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG374" t="s" s="2">
         <v>50</v>
@@ -45378,9 +45377,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45391,31 +45390,31 @@
         <v>50</v>
       </c>
       <c r="F375" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G375" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I375" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H375" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I375" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J375" t="s" s="2">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>779</v>
+        <v>936</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>780</v>
+        <v>937</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>781</v>
+        <v>938</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>782</v>
+        <v>939</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45440,35 +45439,37 @@
         <v>43</v>
       </c>
       <c r="W375" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X375" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y375" t="s" s="2">
-        <v>801</v>
+        <v>43</v>
       </c>
       <c r="Z375" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA375" t="s" s="2">
-        <v>43</v>
+        <v>940</v>
       </c>
       <c r="AB375" t="s" s="2">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="AC375" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD375" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>778</v>
+        <v>935</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>43</v>
@@ -45491,7 +45492,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45514,20 +45515,16 @@
         <v>43</v>
       </c>
       <c r="J376" t="s" s="2">
-        <v>727</v>
+        <v>52</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>786</v>
+        <v>64</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="M376" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="N376" t="s" s="2">
-        <v>789</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M376" s="2"/>
+      <c r="N376" s="2"/>
       <c r="O376" t="s" s="2">
         <v>43</v>
       </c>
@@ -45575,7 +45572,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>785</v>
+        <v>66</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>41</v>
@@ -45587,7 +45584,7 @@
         <v>43</v>
       </c>
       <c r="AI376" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ376" t="s" s="2">
         <v>43</v>
@@ -45599,23 +45596,23 @@
         <v>43</v>
       </c>
       <c r="AM376" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F377" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G377" t="s" s="2">
         <v>43</v>
@@ -45627,20 +45624,18 @@
         <v>43</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>732</v>
+        <v>70</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>791</v>
+        <v>71</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>792</v>
+        <v>72</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N377" t="s" s="2">
-        <v>794</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N377" s="2"/>
       <c r="O377" t="s" s="2">
         <v>43</v>
       </c>
@@ -45688,19 +45683,19 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>790</v>
+        <v>77</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI377" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ377" t="s" s="2">
         <v>43</v>
@@ -45712,20 +45707,20 @@
         <v>43</v>
       </c>
       <c r="AM377" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F378" t="s" s="2">
         <v>42</v>
@@ -45734,25 +45729,25 @@
         <v>43</v>
       </c>
       <c r="H378" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I378" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>941</v>
+        <v>325</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>942</v>
+        <v>326</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>943</v>
+        <v>73</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>944</v>
+        <v>156</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45789,19 +45784,19 @@
         <v>43</v>
       </c>
       <c r="AA378" t="s" s="2">
-        <v>945</v>
+        <v>43</v>
       </c>
       <c r="AB378" t="s" s="2">
-        <v>461</v>
+        <v>43</v>
       </c>
       <c r="AC378" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD378" t="s" s="2">
-        <v>768</v>
+        <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>940</v>
+        <v>327</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
@@ -45813,7 +45808,7 @@
         <v>43</v>
       </c>
       <c r="AI378" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ378" t="s" s="2">
         <v>43</v>
@@ -45825,12 +45820,12 @@
         <v>43</v>
       </c>
       <c r="AM378" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="379" hidden="true">
+    <row r="379">
       <c r="A379" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45838,31 +45833,35 @@
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F379" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G379" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H379" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I379" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>64</v>
+        <v>773</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M379" s="2"/>
-      <c r="N379" s="2"/>
+        <v>945</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>946</v>
+      </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
       </c>
@@ -45886,13 +45885,11 @@
         <v>43</v>
       </c>
       <c r="W379" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X379" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X379" s="2"/>
       <c r="Y379" t="s" s="2">
-        <v>43</v>
+        <v>777</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>43</v>
@@ -45910,10 +45907,10 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>66</v>
+        <v>944</v>
       </c>
       <c r="AF379" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG379" t="s" s="2">
         <v>50</v>
@@ -45922,7 +45919,7 @@
         <v>43</v>
       </c>
       <c r="AI379" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ379" t="s" s="2">
         <v>43</v>
@@ -45934,7 +45931,7 @@
         <v>43</v>
       </c>
       <c r="AM379" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="380" hidden="true">
@@ -45943,14 +45940,14 @@
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F380" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G380" t="s" s="2">
         <v>43</v>
@@ -45959,21 +45956,21 @@
         <v>43</v>
       </c>
       <c r="I380" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>70</v>
+        <v>727</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>71</v>
+        <v>948</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M380" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N380" s="2"/>
+        <v>949</v>
+      </c>
+      <c r="M380" s="2"/>
+      <c r="N380" t="s" s="2">
+        <v>950</v>
+      </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
       </c>
@@ -46021,19 +46018,19 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>77</v>
+        <v>947</v>
       </c>
       <c r="AF380" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI380" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ380" t="s" s="2">
         <v>43</v>
@@ -46045,16 +46042,18 @@
         <v>43</v>
       </c>
       <c r="AM380" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="381" hidden="true">
+    <row r="381">
       <c r="A381" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="B381" s="2"/>
+        <v>935</v>
+      </c>
+      <c r="B381" t="s" s="2">
+        <v>795</v>
+      </c>
       <c r="C381" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -46064,28 +46063,28 @@
         <v>42</v>
       </c>
       <c r="G381" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H381" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I381" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>70</v>
+        <v>316</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>325</v>
+        <v>796</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>326</v>
+        <v>937</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>73</v>
+        <v>938</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>156</v>
+        <v>939</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46134,7 +46133,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>327</v>
+        <v>935</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46146,7 +46145,7 @@
         <v>43</v>
       </c>
       <c r="AI381" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ381" t="s" s="2">
         <v>43</v>
@@ -46158,12 +46157,12 @@
         <v>43</v>
       </c>
       <c r="AM381" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46171,35 +46170,31 @@
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F382" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G382" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H382" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I382" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J382" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>773</v>
+        <v>64</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="M382" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N382" t="s" s="2">
-        <v>951</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M382" s="2"/>
+      <c r="N382" s="2"/>
       <c r="O382" t="s" s="2">
         <v>43</v>
       </c>
@@ -46223,11 +46218,13 @@
         <v>43</v>
       </c>
       <c r="W382" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X382" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X382" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y382" t="s" s="2">
-        <v>777</v>
+        <v>43</v>
       </c>
       <c r="Z382" t="s" s="2">
         <v>43</v>
@@ -46245,10 +46242,10 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>949</v>
+        <v>66</v>
       </c>
       <c r="AF382" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG382" t="s" s="2">
         <v>50</v>
@@ -46257,7 +46254,7 @@
         <v>43</v>
       </c>
       <c r="AI382" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ382" t="s" s="2">
         <v>43</v>
@@ -46269,23 +46266,23 @@
         <v>43</v>
       </c>
       <c r="AM382" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F383" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G383" t="s" s="2">
         <v>43</v>
@@ -46294,21 +46291,21 @@
         <v>43</v>
       </c>
       <c r="I383" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>727</v>
+        <v>70</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>953</v>
+        <v>71</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="M383" s="2"/>
-      <c r="N383" t="s" s="2">
-        <v>955</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M383" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N383" s="2"/>
       <c r="O383" t="s" s="2">
         <v>43</v>
       </c>
@@ -46356,19 +46353,19 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>952</v>
+        <v>77</v>
       </c>
       <c r="AF383" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI383" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ383" t="s" s="2">
         <v>43</v>
@@ -46380,18 +46377,16 @@
         <v>43</v>
       </c>
       <c r="AM383" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="B384" t="s" s="2">
-        <v>795</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -46401,28 +46396,28 @@
         <v>42</v>
       </c>
       <c r="G384" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H384" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H384" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I384" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>796</v>
+        <v>325</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>942</v>
+        <v>326</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>943</v>
+        <v>73</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>944</v>
+        <v>156</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46471,7 +46466,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>940</v>
+        <v>327</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46483,7 +46478,7 @@
         <v>43</v>
       </c>
       <c r="AI384" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ384" t="s" s="2">
         <v>43</v>
@@ -46495,12 +46490,12 @@
         <v>43</v>
       </c>
       <c r="AM384" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46508,7 +46503,7 @@
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F385" t="s" s="2">
         <v>50</v>
@@ -46520,19 +46515,23 @@
         <v>43</v>
       </c>
       <c r="I385" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J385" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>64</v>
+        <v>773</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M385" s="2"/>
-      <c r="N385" s="2"/>
+        <v>945</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>946</v>
+      </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
       </c>
@@ -46556,13 +46555,11 @@
         <v>43</v>
       </c>
       <c r="W385" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X385" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X385" s="2"/>
       <c r="Y385" t="s" s="2">
-        <v>43</v>
+        <v>797</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
@@ -46580,10 +46577,10 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>66</v>
+        <v>944</v>
       </c>
       <c r="AF385" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG385" t="s" s="2">
         <v>50</v>
@@ -46592,7 +46589,7 @@
         <v>43</v>
       </c>
       <c r="AI385" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ385" t="s" s="2">
         <v>43</v>
@@ -46604,7 +46601,7 @@
         <v>43</v>
       </c>
       <c r="AM385" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="386" hidden="true">
@@ -46613,14 +46610,14 @@
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F386" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G386" t="s" s="2">
         <v>43</v>
@@ -46629,21 +46626,21 @@
         <v>43</v>
       </c>
       <c r="I386" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>70</v>
+        <v>727</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>71</v>
+        <v>948</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M386" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N386" s="2"/>
+        <v>949</v>
+      </c>
+      <c r="M386" s="2"/>
+      <c r="N386" t="s" s="2">
+        <v>950</v>
+      </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
       </c>
@@ -46691,19 +46688,19 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>77</v>
+        <v>947</v>
       </c>
       <c r="AF386" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI386" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ386" t="s" s="2">
         <v>43</v>
@@ -46715,47 +46712,49 @@
         <v>43</v>
       </c>
       <c r="AM386" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="387" hidden="true">
+    <row r="387">
       <c r="A387" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="B387" s="2"/>
+        <v>935</v>
+      </c>
+      <c r="B387" t="s" s="2">
+        <v>951</v>
+      </c>
       <c r="C387" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F387" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G387" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H387" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I387" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J387" t="s" s="2">
-        <v>70</v>
+        <v>316</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>325</v>
+        <v>952</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>326</v>
+        <v>937</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>73</v>
+        <v>938</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>156</v>
+        <v>939</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46804,7 +46803,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>327</v>
+        <v>935</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46816,7 +46815,7 @@
         <v>43</v>
       </c>
       <c r="AI387" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ387" t="s" s="2">
         <v>43</v>
@@ -46828,12 +46827,12 @@
         <v>43</v>
       </c>
       <c r="AM387" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46841,7 +46840,7 @@
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F388" t="s" s="2">
         <v>50</v>
@@ -46853,23 +46852,19 @@
         <v>43</v>
       </c>
       <c r="I388" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J388" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>773</v>
+        <v>64</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="M388" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N388" t="s" s="2">
-        <v>951</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M388" s="2"/>
+      <c r="N388" s="2"/>
       <c r="O388" t="s" s="2">
         <v>43</v>
       </c>
@@ -46893,11 +46888,13 @@
         <v>43</v>
       </c>
       <c r="W388" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X388" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X388" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y388" t="s" s="2">
-        <v>797</v>
+        <v>43</v>
       </c>
       <c r="Z388" t="s" s="2">
         <v>43</v>
@@ -46915,10 +46912,10 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>949</v>
+        <v>66</v>
       </c>
       <c r="AF388" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG388" t="s" s="2">
         <v>50</v>
@@ -46927,7 +46924,7 @@
         <v>43</v>
       </c>
       <c r="AI388" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ388" t="s" s="2">
         <v>43</v>
@@ -46939,23 +46936,23 @@
         <v>43</v>
       </c>
       <c r="AM388" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F389" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G389" t="s" s="2">
         <v>43</v>
@@ -46964,21 +46961,21 @@
         <v>43</v>
       </c>
       <c r="I389" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J389" t="s" s="2">
-        <v>727</v>
+        <v>70</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>953</v>
+        <v>71</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="M389" s="2"/>
-      <c r="N389" t="s" s="2">
-        <v>955</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N389" s="2"/>
       <c r="O389" t="s" s="2">
         <v>43</v>
       </c>
@@ -47026,19 +47023,19 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>952</v>
+        <v>77</v>
       </c>
       <c r="AF389" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI389" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ389" t="s" s="2">
         <v>43</v>
@@ -47050,49 +47047,47 @@
         <v>43</v>
       </c>
       <c r="AM389" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="B390" t="s" s="2">
-        <v>956</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F390" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G390" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H390" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H390" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I390" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J390" t="s" s="2">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>957</v>
+        <v>325</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>942</v>
+        <v>326</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>943</v>
+        <v>73</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>944</v>
+        <v>156</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -47141,7 +47136,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>940</v>
+        <v>327</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
@@ -47153,7 +47148,7 @@
         <v>43</v>
       </c>
       <c r="AI390" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ390" t="s" s="2">
         <v>43</v>
@@ -47165,12 +47160,12 @@
         <v>43</v>
       </c>
       <c r="AM390" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47178,7 +47173,7 @@
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F391" t="s" s="2">
         <v>50</v>
@@ -47190,19 +47185,23 @@
         <v>43</v>
       </c>
       <c r="I391" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J391" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>64</v>
+        <v>773</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M391" s="2"/>
-      <c r="N391" s="2"/>
+        <v>945</v>
+      </c>
+      <c r="M391" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N391" t="s" s="2">
+        <v>946</v>
+      </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
       </c>
@@ -47226,13 +47225,11 @@
         <v>43</v>
       </c>
       <c r="W391" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X391" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X391" s="2"/>
       <c r="Y391" t="s" s="2">
-        <v>43</v>
+        <v>953</v>
       </c>
       <c r="Z391" t="s" s="2">
         <v>43</v>
@@ -47250,10 +47247,10 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>66</v>
+        <v>944</v>
       </c>
       <c r="AF391" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG391" t="s" s="2">
         <v>50</v>
@@ -47262,7 +47259,7 @@
         <v>43</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ391" t="s" s="2">
         <v>43</v>
@@ -47274,7 +47271,7 @@
         <v>43</v>
       </c>
       <c r="AM391" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="392" hidden="true">
@@ -47283,14 +47280,14 @@
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F392" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G392" t="s" s="2">
         <v>43</v>
@@ -47299,21 +47296,21 @@
         <v>43</v>
       </c>
       <c r="I392" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J392" t="s" s="2">
-        <v>70</v>
+        <v>727</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>71</v>
+        <v>948</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M392" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N392" s="2"/>
+        <v>949</v>
+      </c>
+      <c r="M392" s="2"/>
+      <c r="N392" t="s" s="2">
+        <v>950</v>
+      </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
       </c>
@@ -47361,19 +47358,19 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>77</v>
+        <v>947</v>
       </c>
       <c r="AF392" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI392" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ392" t="s" s="2">
         <v>43</v>
@@ -47385,47 +47382,45 @@
         <v>43</v>
       </c>
       <c r="AM392" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="393" hidden="true">
+    <row r="393">
       <c r="A393" t="s" s="2">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F393" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G393" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H393" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I393" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J393" t="s" s="2">
-        <v>70</v>
+        <v>316</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>325</v>
+        <v>955</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M393" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="M393" s="2"/>
       <c r="N393" t="s" s="2">
-        <v>156</v>
+        <v>957</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47474,19 +47469,19 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>327</v>
+        <v>954</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI393" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ393" t="s" s="2">
         <v>43</v>
@@ -47498,12 +47493,12 @@
         <v>43</v>
       </c>
       <c r="AM393" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47511,7 +47506,7 @@
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F394" t="s" s="2">
         <v>50</v>
@@ -47523,23 +47518,19 @@
         <v>43</v>
       </c>
       <c r="I394" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J394" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>773</v>
+        <v>64</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="M394" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N394" t="s" s="2">
-        <v>951</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M394" s="2"/>
+      <c r="N394" s="2"/>
       <c r="O394" t="s" s="2">
         <v>43</v>
       </c>
@@ -47563,11 +47554,13 @@
         <v>43</v>
       </c>
       <c r="W394" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X394" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X394" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y394" t="s" s="2">
-        <v>958</v>
+        <v>43</v>
       </c>
       <c r="Z394" t="s" s="2">
         <v>43</v>
@@ -47585,10 +47578,10 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>949</v>
+        <v>66</v>
       </c>
       <c r="AF394" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG394" t="s" s="2">
         <v>50</v>
@@ -47597,7 +47590,7 @@
         <v>43</v>
       </c>
       <c r="AI394" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ394" t="s" s="2">
         <v>43</v>
@@ -47609,23 +47602,23 @@
         <v>43</v>
       </c>
       <c r="AM394" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F395" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G395" t="s" s="2">
         <v>43</v>
@@ -47634,21 +47627,21 @@
         <v>43</v>
       </c>
       <c r="I395" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J395" t="s" s="2">
-        <v>727</v>
+        <v>70</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>953</v>
+        <v>71</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="M395" s="2"/>
-      <c r="N395" t="s" s="2">
-        <v>955</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M395" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N395" s="2"/>
       <c r="O395" t="s" s="2">
         <v>43</v>
       </c>
@@ -47696,19 +47689,19 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>952</v>
+        <v>77</v>
       </c>
       <c r="AF395" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG395" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI395" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ395" t="s" s="2">
         <v>43</v>
@@ -47720,45 +47713,47 @@
         <v>43</v>
       </c>
       <c r="AM395" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F396" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H396" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H396" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I396" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J396" t="s" s="2">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>960</v>
+        <v>325</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>961</v>
-      </c>
-      <c r="M396" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M396" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N396" t="s" s="2">
-        <v>962</v>
+        <v>156</v>
       </c>
       <c r="O396" t="s" s="2">
         <v>43</v>
@@ -47807,19 +47802,19 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>959</v>
+        <v>327</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI396" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ396" t="s" s="2">
         <v>43</v>
@@ -47831,12 +47826,12 @@
         <v>43</v>
       </c>
       <c r="AM396" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47859,16 +47854,18 @@
         <v>43</v>
       </c>
       <c r="J397" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K397" t="s" s="2">
-        <v>64</v>
+        <v>962</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>65</v>
+        <v>963</v>
       </c>
       <c r="M397" s="2"/>
-      <c r="N397" s="2"/>
+      <c r="N397" t="s" s="2">
+        <v>964</v>
+      </c>
       <c r="O397" t="s" s="2">
         <v>43</v>
       </c>
@@ -47892,13 +47889,11 @@
         <v>43</v>
       </c>
       <c r="W397" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X397" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X397" s="2"/>
       <c r="Y397" t="s" s="2">
-        <v>43</v>
+        <v>965</v>
       </c>
       <c r="Z397" t="s" s="2">
         <v>43</v>
@@ -47916,7 +47911,7 @@
         <v>43</v>
       </c>
       <c r="AE397" t="s" s="2">
-        <v>66</v>
+        <v>961</v>
       </c>
       <c r="AF397" t="s" s="2">
         <v>41</v>
@@ -47928,7 +47923,7 @@
         <v>43</v>
       </c>
       <c r="AI397" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ397" t="s" s="2">
         <v>43</v>
@@ -47940,23 +47935,23 @@
         <v>43</v>
       </c>
       <c r="AM397" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F398" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G398" t="s" s="2">
         <v>43</v>
@@ -47968,18 +47963,20 @@
         <v>43</v>
       </c>
       <c r="J398" t="s" s="2">
-        <v>70</v>
+        <v>727</v>
       </c>
       <c r="K398" t="s" s="2">
-        <v>71</v>
+        <v>967</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>72</v>
+        <v>968</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N398" s="2"/>
+        <v>969</v>
+      </c>
+      <c r="N398" t="s" s="2">
+        <v>970</v>
+      </c>
       <c r="O398" t="s" s="2">
         <v>43</v>
       </c>
@@ -48027,19 +48024,19 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>77</v>
+        <v>966</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI398" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ398" t="s" s="2">
         <v>43</v>
@@ -48051,47 +48048,45 @@
         <v>43</v>
       </c>
       <c r="AM398" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F399" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G399" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H399" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I399" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J399" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K399" t="s" s="2">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M399" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>973</v>
+      </c>
+      <c r="M399" s="2"/>
       <c r="N399" t="s" s="2">
-        <v>156</v>
+        <v>974</v>
       </c>
       <c r="O399" t="s" s="2">
         <v>43</v>
@@ -48116,13 +48111,13 @@
         <v>43</v>
       </c>
       <c r="W399" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X399" t="s" s="2">
-        <v>43</v>
+        <v>975</v>
       </c>
       <c r="Y399" t="s" s="2">
-        <v>43</v>
+        <v>976</v>
       </c>
       <c r="Z399" t="s" s="2">
         <v>43</v>
@@ -48140,19 +48135,19 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>327</v>
+        <v>971</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI399" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ399" t="s" s="2">
         <v>43</v>
@@ -48164,12 +48159,12 @@
         <v>43</v>
       </c>
       <c r="AM399" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48192,17 +48187,17 @@
         <v>43</v>
       </c>
       <c r="J400" t="s" s="2">
-        <v>180</v>
+        <v>514</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>967</v>
+        <v>978</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>968</v>
+        <v>979</v>
       </c>
       <c r="M400" s="2"/>
       <c r="N400" t="s" s="2">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48227,11 +48222,13 @@
         <v>43</v>
       </c>
       <c r="W400" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X400" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X400" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y400" t="s" s="2">
-        <v>970</v>
+        <v>43</v>
       </c>
       <c r="Z400" t="s" s="2">
         <v>43</v>
@@ -48249,7 +48246,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
@@ -48278,7 +48275,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48304,16 +48301,14 @@
         <v>727</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="M401" t="s" s="2">
-        <v>974</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>975</v>
+        <v>984</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48362,7 +48357,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48391,7 +48386,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48414,17 +48409,19 @@
         <v>43</v>
       </c>
       <c r="J402" t="s" s="2">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>977</v>
+        <v>986</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>978</v>
-      </c>
-      <c r="M402" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M402" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="N402" t="s" s="2">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48449,13 +48446,13 @@
         <v>43</v>
       </c>
       <c r="W402" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X402" t="s" s="2">
-        <v>980</v>
+        <v>43</v>
       </c>
       <c r="Y402" t="s" s="2">
-        <v>981</v>
+        <v>43</v>
       </c>
       <c r="Z402" t="s" s="2">
         <v>43</v>
@@ -48473,7 +48470,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48502,7 +48499,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48525,17 +48522,19 @@
         <v>43</v>
       </c>
       <c r="J403" t="s" s="2">
-        <v>514</v>
+        <v>180</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="M403" s="2"/>
+        <v>992</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>993</v>
+      </c>
       <c r="N403" t="s" s="2">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48560,13 +48559,13 @@
         <v>43</v>
       </c>
       <c r="W403" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X403" t="s" s="2">
-        <v>43</v>
+        <v>995</v>
       </c>
       <c r="Y403" t="s" s="2">
-        <v>43</v>
+        <v>996</v>
       </c>
       <c r="Z403" t="s" s="2">
         <v>43</v>
@@ -48584,7 +48583,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48613,7 +48612,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48636,17 +48635,19 @@
         <v>43</v>
       </c>
       <c r="J404" t="s" s="2">
-        <v>727</v>
+        <v>998</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="M404" s="2"/>
+        <v>1000</v>
+      </c>
+      <c r="M404" t="s" s="2">
+        <v>1001</v>
+      </c>
       <c r="N404" t="s" s="2">
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48695,7 +48696,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48724,7 +48725,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>990</v>
+        <v>1003</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48735,7 +48736,7 @@
         <v>41</v>
       </c>
       <c r="F405" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G405" t="s" s="2">
         <v>43</v>
@@ -48747,19 +48748,17 @@
         <v>43</v>
       </c>
       <c r="J405" t="s" s="2">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>991</v>
+        <v>1004</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>992</v>
-      </c>
-      <c r="M405" t="s" s="2">
-        <v>993</v>
-      </c>
+        <v>1005</v>
+      </c>
+      <c r="M405" s="2"/>
       <c r="N405" t="s" s="2">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48808,13 +48807,13 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>990</v>
+        <v>1003</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG405" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH405" t="s" s="2">
         <v>43</v>
@@ -48837,7 +48836,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48860,20 +48859,16 @@
         <v>43</v>
       </c>
       <c r="J406" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>996</v>
+        <v>64</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>997</v>
-      </c>
-      <c r="M406" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N406" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M406" s="2"/>
+      <c r="N406" s="2"/>
       <c r="O406" t="s" s="2">
         <v>43</v>
       </c>
@@ -48897,13 +48892,13 @@
         <v>43</v>
       </c>
       <c r="W406" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X406" t="s" s="2">
-        <v>1000</v>
+        <v>43</v>
       </c>
       <c r="Y406" t="s" s="2">
-        <v>1001</v>
+        <v>43</v>
       </c>
       <c r="Z406" t="s" s="2">
         <v>43</v>
@@ -48921,7 +48916,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>995</v>
+        <v>66</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -48933,7 +48928,7 @@
         <v>43</v>
       </c>
       <c r="AI406" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ406" t="s" s="2">
         <v>43</v>
@@ -48945,23 +48940,23 @@
         <v>43</v>
       </c>
       <c r="AM406" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F407" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G407" t="s" s="2">
         <v>43</v>
@@ -48973,20 +48968,18 @@
         <v>43</v>
       </c>
       <c r="J407" t="s" s="2">
-        <v>1003</v>
+        <v>70</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>1004</v>
+        <v>71</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>1005</v>
+        <v>72</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>1006</v>
-      </c>
-      <c r="N407" t="s" s="2">
-        <v>1007</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N407" s="2"/>
       <c r="O407" t="s" s="2">
         <v>43</v>
       </c>
@@ -49034,19 +49027,19 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>1002</v>
+        <v>77</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI407" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ407" t="s" s="2">
         <v>43</v>
@@ -49058,16 +49051,16 @@
         <v>43</v>
       </c>
       <c r="AM407" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -49080,23 +49073,25 @@
         <v>43</v>
       </c>
       <c r="H408" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I408" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J408" t="s" s="2">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="K408" t="s" s="2">
-        <v>1009</v>
+        <v>325</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>1010</v>
-      </c>
-      <c r="M408" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M408" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N408" t="s" s="2">
-        <v>1011</v>
+        <v>156</v>
       </c>
       <c r="O408" t="s" s="2">
         <v>43</v>
@@ -49145,7 +49140,7 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>1008</v>
+        <v>327</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>41</v>
@@ -49157,7 +49152,7 @@
         <v>43</v>
       </c>
       <c r="AI408" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ408" t="s" s="2">
         <v>43</v>
@@ -49169,12 +49164,12 @@
         <v>43</v>
       </c>
       <c r="AM408" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49197,16 +49192,18 @@
         <v>43</v>
       </c>
       <c r="J409" t="s" s="2">
-        <v>52</v>
+        <v>427</v>
       </c>
       <c r="K409" t="s" s="2">
-        <v>64</v>
+        <v>1011</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>65</v>
+        <v>1012</v>
       </c>
       <c r="M409" s="2"/>
-      <c r="N409" s="2"/>
+      <c r="N409" t="s" s="2">
+        <v>1013</v>
+      </c>
       <c r="O409" t="s" s="2">
         <v>43</v>
       </c>
@@ -49254,7 +49251,7 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>66</v>
+        <v>1010</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>41</v>
@@ -49266,7 +49263,7 @@
         <v>43</v>
       </c>
       <c r="AI409" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ409" t="s" s="2">
         <v>43</v>
@@ -49278,23 +49275,23 @@
         <v>43</v>
       </c>
       <c r="AM409" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F410" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G410" t="s" s="2">
         <v>43</v>
@@ -49306,18 +49303,18 @@
         <v>43</v>
       </c>
       <c r="J410" t="s" s="2">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="K410" t="s" s="2">
-        <v>71</v>
+        <v>1015</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M410" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N410" s="2"/>
+        <v>1016</v>
+      </c>
+      <c r="M410" s="2"/>
+      <c r="N410" t="s" s="2">
+        <v>1017</v>
+      </c>
       <c r="O410" t="s" s="2">
         <v>43</v>
       </c>
@@ -49341,13 +49338,13 @@
         <v>43</v>
       </c>
       <c r="W410" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="X410" t="s" s="2">
-        <v>43</v>
+        <v>1018</v>
       </c>
       <c r="Y410" t="s" s="2">
-        <v>43</v>
+        <v>1019</v>
       </c>
       <c r="Z410" t="s" s="2">
         <v>43</v>
@@ -49365,19 +49362,19 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>77</v>
+        <v>1014</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI410" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ410" t="s" s="2">
         <v>43</v>
@@ -49389,47 +49386,45 @@
         <v>43</v>
       </c>
       <c r="AM410" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F411" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G411" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H411" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I411" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J411" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>325</v>
+        <v>1021</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M411" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1022</v>
+      </c>
+      <c r="M411" s="2"/>
       <c r="N411" t="s" s="2">
-        <v>156</v>
+        <v>1023</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49478,19 +49473,19 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>327</v>
+        <v>1020</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI411" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ411" t="s" s="2">
         <v>43</v>
@@ -49502,12 +49497,12 @@
         <v>43</v>
       </c>
       <c r="AM411" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49530,17 +49525,19 @@
         <v>43</v>
       </c>
       <c r="J412" t="s" s="2">
-        <v>427</v>
+        <v>180</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1017</v>
-      </c>
-      <c r="M412" s="2"/>
+        <v>1026</v>
+      </c>
+      <c r="M412" t="s" s="2">
+        <v>1027</v>
+      </c>
       <c r="N412" t="s" s="2">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49565,13 +49562,13 @@
         <v>43</v>
       </c>
       <c r="W412" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X412" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y412" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z412" t="s" s="2">
         <v>43</v>
@@ -49589,7 +49586,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49618,7 +49615,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49641,17 +49638,19 @@
         <v>43</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>1021</v>
-      </c>
-      <c r="M413" s="2"/>
+        <v>1031</v>
+      </c>
+      <c r="M413" t="s" s="2">
+        <v>1032</v>
+      </c>
       <c r="N413" t="s" s="2">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49676,13 +49675,13 @@
         <v>43</v>
       </c>
       <c r="W413" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="X413" t="s" s="2">
-        <v>1023</v>
+        <v>43</v>
       </c>
       <c r="Y413" t="s" s="2">
-        <v>1024</v>
+        <v>43</v>
       </c>
       <c r="Z413" t="s" s="2">
         <v>43</v>
@@ -49700,7 +49699,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>
@@ -49729,7 +49728,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
@@ -49740,7 +49739,7 @@
         <v>41</v>
       </c>
       <c r="F414" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G414" t="s" s="2">
         <v>43</v>
@@ -49752,18 +49751,16 @@
         <v>43</v>
       </c>
       <c r="J414" t="s" s="2">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="K414" t="s" s="2">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="M414" s="2"/>
-      <c r="N414" t="s" s="2">
-        <v>1028</v>
-      </c>
+      <c r="N414" s="2"/>
       <c r="O414" t="s" s="2">
         <v>43</v>
       </c>
@@ -49811,13 +49808,13 @@
         <v>43</v>
       </c>
       <c r="AE414" t="s" s="2">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="AF414" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>43</v>
@@ -49840,7 +49837,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
@@ -49863,20 +49860,16 @@
         <v>43</v>
       </c>
       <c r="J415" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K415" t="s" s="2">
-        <v>1030</v>
+        <v>64</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>1031</v>
-      </c>
-      <c r="M415" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="N415" t="s" s="2">
-        <v>1033</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M415" s="2"/>
+      <c r="N415" s="2"/>
       <c r="O415" t="s" s="2">
         <v>43</v>
       </c>
@@ -49900,13 +49893,13 @@
         <v>43</v>
       </c>
       <c r="W415" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X415" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y415" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z415" t="s" s="2">
         <v>43</v>
@@ -49924,7 +49917,7 @@
         <v>43</v>
       </c>
       <c r="AE415" t="s" s="2">
-        <v>1029</v>
+        <v>66</v>
       </c>
       <c r="AF415" t="s" s="2">
         <v>41</v>
@@ -49936,7 +49929,7 @@
         <v>43</v>
       </c>
       <c r="AI415" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ415" t="s" s="2">
         <v>43</v>
@@ -49948,23 +49941,23 @@
         <v>43</v>
       </c>
       <c r="AM415" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F416" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G416" t="s" s="2">
         <v>43</v>
@@ -49976,20 +49969,18 @@
         <v>43</v>
       </c>
       <c r="J416" t="s" s="2">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="K416" t="s" s="2">
-        <v>1035</v>
+        <v>71</v>
       </c>
       <c r="L416" t="s" s="2">
-        <v>1036</v>
+        <v>72</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1037</v>
-      </c>
-      <c r="N416" t="s" s="2">
-        <v>1038</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N416" s="2"/>
       <c r="O416" t="s" s="2">
         <v>43</v>
       </c>
@@ -50037,19 +50028,19 @@
         <v>43</v>
       </c>
       <c r="AE416" t="s" s="2">
-        <v>1034</v>
+        <v>77</v>
       </c>
       <c r="AF416" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI416" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ416" t="s" s="2">
         <v>43</v>
@@ -50061,7 +50052,7 @@
         <v>43</v>
       </c>
       <c r="AM416" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="417" hidden="true">
@@ -50070,7 +50061,7 @@
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -50083,22 +50074,26 @@
         <v>43</v>
       </c>
       <c r="H417" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I417" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J417" t="s" s="2">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="K417" t="s" s="2">
-        <v>1040</v>
+        <v>325</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>1041</v>
-      </c>
-      <c r="M417" s="2"/>
-      <c r="N417" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M417" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N417" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O417" t="s" s="2">
         <v>43</v>
       </c>
@@ -50146,7 +50141,7 @@
         <v>43</v>
       </c>
       <c r="AE417" t="s" s="2">
-        <v>1039</v>
+        <v>327</v>
       </c>
       <c r="AF417" t="s" s="2">
         <v>41</v>
@@ -50158,7 +50153,7 @@
         <v>43</v>
       </c>
       <c r="AI417" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ417" t="s" s="2">
         <v>43</v>
@@ -50170,12 +50165,12 @@
         <v>43</v>
       </c>
       <c r="AM417" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
@@ -50183,7 +50178,7 @@
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F418" t="s" s="2">
         <v>50</v>
@@ -50198,16 +50193,20 @@
         <v>43</v>
       </c>
       <c r="J418" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K418" t="s" s="2">
-        <v>64</v>
+        <v>684</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M418" s="2"/>
-      <c r="N418" s="2"/>
+        <v>685</v>
+      </c>
+      <c r="M418" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="N418" t="s" s="2">
+        <v>1041</v>
+      </c>
       <c r="O418" t="s" s="2">
         <v>43</v>
       </c>
@@ -50231,13 +50230,13 @@
         <v>43</v>
       </c>
       <c r="W418" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X418" t="s" s="2">
-        <v>43</v>
+        <v>688</v>
       </c>
       <c r="Y418" t="s" s="2">
-        <v>43</v>
+        <v>689</v>
       </c>
       <c r="Z418" t="s" s="2">
         <v>43</v>
@@ -50255,10 +50254,10 @@
         <v>43</v>
       </c>
       <c r="AE418" t="s" s="2">
-        <v>66</v>
+        <v>1040</v>
       </c>
       <c r="AF418" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG418" t="s" s="2">
         <v>50</v>
@@ -50267,7 +50266,7 @@
         <v>43</v>
       </c>
       <c r="AI418" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ418" t="s" s="2">
         <v>43</v>
@@ -50279,23 +50278,23 @@
         <v>43</v>
       </c>
       <c r="AM418" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F419" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G419" t="s" s="2">
         <v>43</v>
@@ -50307,18 +50306,18 @@
         <v>43</v>
       </c>
       <c r="J419" t="s" s="2">
-        <v>70</v>
+        <v>438</v>
       </c>
       <c r="K419" t="s" s="2">
-        <v>71</v>
+        <v>1043</v>
       </c>
       <c r="L419" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M419" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N419" s="2"/>
+        <v>1044</v>
+      </c>
+      <c r="M419" s="2"/>
+      <c r="N419" t="s" s="2">
+        <v>1045</v>
+      </c>
       <c r="O419" t="s" s="2">
         <v>43</v>
       </c>
@@ -50366,19 +50365,19 @@
         <v>43</v>
       </c>
       <c r="AE419" t="s" s="2">
-        <v>77</v>
+        <v>1042</v>
       </c>
       <c r="AF419" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH419" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI419" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ419" t="s" s="2">
         <v>43</v>
@@ -50390,47 +50389,47 @@
         <v>43</v>
       </c>
       <c r="AM419" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F420" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G420" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H420" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I420" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J420" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K420" t="s" s="2">
-        <v>325</v>
+        <v>1047</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>326</v>
+        <v>1048</v>
       </c>
       <c r="M420" t="s" s="2">
-        <v>73</v>
+        <v>1049</v>
       </c>
       <c r="N420" t="s" s="2">
-        <v>156</v>
+        <v>1050</v>
       </c>
       <c r="O420" t="s" s="2">
         <v>43</v>
@@ -50479,19 +50478,19 @@
         <v>43</v>
       </c>
       <c r="AE420" t="s" s="2">
-        <v>327</v>
+        <v>1046</v>
       </c>
       <c r="AF420" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG420" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH420" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI420" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ420" t="s" s="2">
         <v>43</v>
@@ -50503,12 +50502,12 @@
         <v>43</v>
       </c>
       <c r="AM420" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
@@ -50516,7 +50515,7 @@
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F421" t="s" s="2">
         <v>50</v>
@@ -50531,19 +50530,19 @@
         <v>43</v>
       </c>
       <c r="J421" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K421" t="s" s="2">
-        <v>684</v>
+        <v>1052</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>685</v>
+        <v>1053</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>686</v>
+        <v>1054</v>
       </c>
       <c r="N421" t="s" s="2">
-        <v>1046</v>
+        <v>1055</v>
       </c>
       <c r="O421" t="s" s="2">
         <v>43</v>
@@ -50568,13 +50567,13 @@
         <v>43</v>
       </c>
       <c r="W421" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X421" t="s" s="2">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="Y421" t="s" s="2">
-        <v>689</v>
+        <v>43</v>
       </c>
       <c r="Z421" t="s" s="2">
         <v>43</v>
@@ -50592,10 +50591,10 @@
         <v>43</v>
       </c>
       <c r="AE421" t="s" s="2">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="AF421" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG421" t="s" s="2">
         <v>50</v>
@@ -50621,7 +50620,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>1047</v>
+        <v>1056</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
@@ -50644,17 +50643,17 @@
         <v>43</v>
       </c>
       <c r="J422" t="s" s="2">
-        <v>438</v>
+        <v>180</v>
       </c>
       <c r="K422" t="s" s="2">
-        <v>1048</v>
+        <v>1057</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="M422" s="2"/>
       <c r="N422" t="s" s="2">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="O422" t="s" s="2">
         <v>43</v>
@@ -50679,13 +50678,13 @@
         <v>43</v>
       </c>
       <c r="W422" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X422" t="s" s="2">
-        <v>43</v>
+        <v>1060</v>
       </c>
       <c r="Y422" t="s" s="2">
-        <v>43</v>
+        <v>1061</v>
       </c>
       <c r="Z422" t="s" s="2">
         <v>43</v>
@@ -50703,7 +50702,7 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>1047</v>
+        <v>1056</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>41</v>
@@ -50732,7 +50731,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s" s="2">
@@ -50755,19 +50754,17 @@
         <v>43</v>
       </c>
       <c r="J423" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>1053</v>
-      </c>
-      <c r="M423" t="s" s="2">
-        <v>1054</v>
-      </c>
+        <v>1064</v>
+      </c>
+      <c r="M423" s="2"/>
       <c r="N423" t="s" s="2">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="O423" t="s" s="2">
         <v>43</v>
@@ -50792,13 +50789,13 @@
         <v>43</v>
       </c>
       <c r="W423" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X423" t="s" s="2">
-        <v>43</v>
+        <v>1066</v>
       </c>
       <c r="Y423" t="s" s="2">
-        <v>43</v>
+        <v>1067</v>
       </c>
       <c r="Z423" t="s" s="2">
         <v>43</v>
@@ -50816,7 +50813,7 @@
         <v>43</v>
       </c>
       <c r="AE423" t="s" s="2">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="AF423" t="s" s="2">
         <v>41</v>
@@ -50845,7 +50842,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" t="s" s="2">
@@ -50868,19 +50865,17 @@
         <v>43</v>
       </c>
       <c r="J424" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K424" t="s" s="2">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="L424" t="s" s="2">
-        <v>1058</v>
-      </c>
-      <c r="M424" t="s" s="2">
-        <v>1059</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="M424" s="2"/>
       <c r="N424" t="s" s="2">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="O424" t="s" s="2">
         <v>43</v>
@@ -50905,13 +50900,13 @@
         <v>43</v>
       </c>
       <c r="W424" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X424" t="s" s="2">
-        <v>43</v>
+        <v>1071</v>
       </c>
       <c r="Y424" t="s" s="2">
-        <v>43</v>
+        <v>1072</v>
       </c>
       <c r="Z424" t="s" s="2">
         <v>43</v>
@@ -50929,7 +50924,7 @@
         <v>43</v>
       </c>
       <c r="AE424" t="s" s="2">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="AF424" t="s" s="2">
         <v>41</v>
@@ -50958,7 +50953,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" t="s" s="2">
@@ -50969,7 +50964,7 @@
         <v>41</v>
       </c>
       <c r="F425" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G425" t="s" s="2">
         <v>43</v>
@@ -50981,18 +50976,16 @@
         <v>43</v>
       </c>
       <c r="J425" t="s" s="2">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="K425" t="s" s="2">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="M425" s="2"/>
-      <c r="N425" t="s" s="2">
-        <v>1064</v>
-      </c>
+      <c r="N425" s="2"/>
       <c r="O425" t="s" s="2">
         <v>43</v>
       </c>
@@ -51016,13 +51009,13 @@
         <v>43</v>
       </c>
       <c r="W425" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X425" t="s" s="2">
-        <v>1065</v>
+        <v>43</v>
       </c>
       <c r="Y425" t="s" s="2">
-        <v>1066</v>
+        <v>43</v>
       </c>
       <c r="Z425" t="s" s="2">
         <v>43</v>
@@ -51040,13 +51033,13 @@
         <v>43</v>
       </c>
       <c r="AE425" t="s" s="2">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="AF425" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH425" t="s" s="2">
         <v>43</v>
@@ -51069,7 +51062,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>1067</v>
+        <v>1076</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s" s="2">
@@ -51092,18 +51085,16 @@
         <v>43</v>
       </c>
       <c r="J426" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>1068</v>
+        <v>64</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>1069</v>
+        <v>65</v>
       </c>
       <c r="M426" s="2"/>
-      <c r="N426" t="s" s="2">
-        <v>1070</v>
-      </c>
+      <c r="N426" s="2"/>
       <c r="O426" t="s" s="2">
         <v>43</v>
       </c>
@@ -51127,13 +51118,13 @@
         <v>43</v>
       </c>
       <c r="W426" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X426" t="s" s="2">
-        <v>1071</v>
+        <v>43</v>
       </c>
       <c r="Y426" t="s" s="2">
-        <v>1072</v>
+        <v>43</v>
       </c>
       <c r="Z426" t="s" s="2">
         <v>43</v>
@@ -51151,7 +51142,7 @@
         <v>43</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>1067</v>
+        <v>66</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>41</v>
@@ -51163,7 +51154,7 @@
         <v>43</v>
       </c>
       <c r="AI426" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ426" t="s" s="2">
         <v>43</v>
@@ -51175,23 +51166,23 @@
         <v>43</v>
       </c>
       <c r="AM426" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F427" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G427" t="s" s="2">
         <v>43</v>
@@ -51203,18 +51194,18 @@
         <v>43</v>
       </c>
       <c r="J427" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K427" t="s" s="2">
-        <v>1074</v>
+        <v>71</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>1075</v>
-      </c>
-      <c r="M427" s="2"/>
-      <c r="N427" t="s" s="2">
-        <v>1070</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M427" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N427" s="2"/>
       <c r="O427" t="s" s="2">
         <v>43</v>
       </c>
@@ -51238,13 +51229,13 @@
         <v>43</v>
       </c>
       <c r="W427" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X427" t="s" s="2">
-        <v>1076</v>
+        <v>43</v>
       </c>
       <c r="Y427" t="s" s="2">
-        <v>1077</v>
+        <v>43</v>
       </c>
       <c r="Z427" t="s" s="2">
         <v>43</v>
@@ -51262,19 +51253,19 @@
         <v>43</v>
       </c>
       <c r="AE427" t="s" s="2">
-        <v>1073</v>
+        <v>77</v>
       </c>
       <c r="AF427" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI427" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ427" t="s" s="2">
         <v>43</v>
@@ -51286,7 +51277,7 @@
         <v>43</v>
       </c>
       <c r="AM427" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="428" hidden="true">
@@ -51295,7 +51286,7 @@
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -51308,22 +51299,26 @@
         <v>43</v>
       </c>
       <c r="H428" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I428" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J428" t="s" s="2">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="K428" t="s" s="2">
-        <v>1079</v>
+        <v>325</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>1080</v>
-      </c>
-      <c r="M428" s="2"/>
-      <c r="N428" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M428" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N428" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O428" t="s" s="2">
         <v>43</v>
       </c>
@@ -51371,7 +51366,7 @@
         <v>43</v>
       </c>
       <c r="AE428" t="s" s="2">
-        <v>1078</v>
+        <v>327</v>
       </c>
       <c r="AF428" t="s" s="2">
         <v>41</v>
@@ -51383,7 +51378,7 @@
         <v>43</v>
       </c>
       <c r="AI428" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ428" t="s" s="2">
         <v>43</v>
@@ -51395,12 +51390,12 @@
         <v>43</v>
       </c>
       <c r="AM428" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s" s="2">
@@ -51408,7 +51403,7 @@
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F429" t="s" s="2">
         <v>50</v>
@@ -51423,16 +51418,20 @@
         <v>43</v>
       </c>
       <c r="J429" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K429" t="s" s="2">
-        <v>64</v>
+        <v>684</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M429" s="2"/>
-      <c r="N429" s="2"/>
+        <v>1080</v>
+      </c>
+      <c r="M429" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="N429" t="s" s="2">
+        <v>1082</v>
+      </c>
       <c r="O429" t="s" s="2">
         <v>43</v>
       </c>
@@ -51456,13 +51455,13 @@
         <v>43</v>
       </c>
       <c r="W429" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X429" t="s" s="2">
-        <v>43</v>
+        <v>1083</v>
       </c>
       <c r="Y429" t="s" s="2">
-        <v>43</v>
+        <v>1084</v>
       </c>
       <c r="Z429" t="s" s="2">
         <v>43</v>
@@ -51480,10 +51479,10 @@
         <v>43</v>
       </c>
       <c r="AE429" t="s" s="2">
-        <v>66</v>
+        <v>1079</v>
       </c>
       <c r="AF429" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG429" t="s" s="2">
         <v>50</v>
@@ -51492,7 +51491,7 @@
         <v>43</v>
       </c>
       <c r="AI429" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ429" t="s" s="2">
         <v>43</v>
@@ -51504,23 +51503,23 @@
         <v>43</v>
       </c>
       <c r="AM429" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F430" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G430" t="s" s="2">
         <v>43</v>
@@ -51532,18 +51531,18 @@
         <v>43</v>
       </c>
       <c r="J430" t="s" s="2">
-        <v>70</v>
+        <v>1086</v>
       </c>
       <c r="K430" t="s" s="2">
-        <v>71</v>
+        <v>1087</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M430" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N430" s="2"/>
+        <v>1088</v>
+      </c>
+      <c r="M430" s="2"/>
+      <c r="N430" t="s" s="2">
+        <v>1089</v>
+      </c>
       <c r="O430" t="s" s="2">
         <v>43</v>
       </c>
@@ -51591,19 +51590,19 @@
         <v>43</v>
       </c>
       <c r="AE430" t="s" s="2">
-        <v>77</v>
+        <v>1085</v>
       </c>
       <c r="AF430" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG430" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH430" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI430" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ430" t="s" s="2">
         <v>43</v>
@@ -51615,47 +51614,45 @@
         <v>43</v>
       </c>
       <c r="AM430" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F431" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G431" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H431" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I431" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J431" t="s" s="2">
-        <v>70</v>
+        <v>1091</v>
       </c>
       <c r="K431" t="s" s="2">
-        <v>325</v>
+        <v>1092</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M431" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1093</v>
+      </c>
+      <c r="M431" s="2"/>
       <c r="N431" t="s" s="2">
-        <v>156</v>
+        <v>1094</v>
       </c>
       <c r="O431" t="s" s="2">
         <v>43</v>
@@ -51704,19 +51701,19 @@
         <v>43</v>
       </c>
       <c r="AE431" t="s" s="2">
-        <v>327</v>
+        <v>1090</v>
       </c>
       <c r="AF431" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG431" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH431" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI431" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ431" t="s" s="2">
         <v>43</v>
@@ -51728,346 +51725,11 @@
         <v>43</v>
       </c>
       <c r="AM431" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="432" hidden="true">
-      <c r="A432" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="B432" s="2"/>
-      <c r="C432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D432" s="2"/>
-      <c r="E432" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F432" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J432" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K432" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="L432" t="s" s="2">
-        <v>1085</v>
-      </c>
-      <c r="M432" t="s" s="2">
-        <v>1086</v>
-      </c>
-      <c r="N432" t="s" s="2">
-        <v>1087</v>
-      </c>
-      <c r="O432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P432" s="2"/>
-      <c r="Q432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W432" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X432" t="s" s="2">
-        <v>1088</v>
-      </c>
-      <c r="Y432" t="s" s="2">
-        <v>1089</v>
-      </c>
-      <c r="Z432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE432" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="AF432" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG432" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI432" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL432" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM432" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="433" hidden="true">
-      <c r="A433" t="s" s="2">
-        <v>1090</v>
-      </c>
-      <c r="B433" s="2"/>
-      <c r="C433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D433" s="2"/>
-      <c r="E433" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F433" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J433" t="s" s="2">
-        <v>1091</v>
-      </c>
-      <c r="K433" t="s" s="2">
-        <v>1092</v>
-      </c>
-      <c r="L433" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="M433" s="2"/>
-      <c r="N433" t="s" s="2">
-        <v>1094</v>
-      </c>
-      <c r="O433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P433" s="2"/>
-      <c r="Q433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE433" t="s" s="2">
-        <v>1090</v>
-      </c>
-      <c r="AF433" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG433" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI433" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL433" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM433" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="434" hidden="true">
-      <c r="A434" t="s" s="2">
-        <v>1095</v>
-      </c>
-      <c r="B434" s="2"/>
-      <c r="C434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D434" s="2"/>
-      <c r="E434" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F434" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J434" t="s" s="2">
-        <v>1096</v>
-      </c>
-      <c r="K434" t="s" s="2">
-        <v>1097</v>
-      </c>
-      <c r="L434" t="s" s="2">
-        <v>1098</v>
-      </c>
-      <c r="M434" s="2"/>
-      <c r="N434" t="s" s="2">
-        <v>1099</v>
-      </c>
-      <c r="O434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P434" s="2"/>
-      <c r="Q434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE434" t="s" s="2">
-        <v>1095</v>
-      </c>
-      <c r="AF434" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG434" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI434" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL434" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM434" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM434">
+  <autoFilter ref="A1:AM431">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -52077,7 +51739,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI433">
+  <conditionalFormatting sqref="A2:AI430">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -1600,7 +1600,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/nubc-type-of-bill</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCTypeOfBill</t>
   </si>
   <si>
     <t>pointoforigin</t>
@@ -1617,7 +1617,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/nubc-admission-source</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPointOfOriginForAdmissionOrVisit</t>
   </si>
   <si>
     <t>admtype</t>
@@ -2112,7 +2112,7 @@
     <t>Needed in the processing of institutional claims.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/nubc-service-line-revenue</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCRevenueCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.category</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -1308,9 +1308,9 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-EOB-inst-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
-('attending' or 'pcp' or 'referring' or 'supervising')) implies 
- careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code='performing') implies 
+EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {ExplanationOfBenefit.careTeam.role.coding.code='performing' implies ExplanationOfBenefit.careTeam.qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')}EOB-inst-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
+('attending' or 'primary' or 'referring' or 'supervising')) implies 
+ careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to an organization {( careTeam.role.coding.code='performing') implies 
  careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
   </si>
   <si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -1308,10 +1308,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {ExplanationOfBenefit.careTeam.role.coding.code='performing' implies ExplanationOfBenefit.careTeam.qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')}EOB-inst-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
+EOB-inst-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
 ('attending' or 'primary' or 'referring' or 'supervising')) implies 
  careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to an organization {( careTeam.role.coding.code='performing') implies 
- careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
+ careTeam.provider.reference.resolve().is(FHIR.Organization)}EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {ExplanationOfBenefit.careTeam.role.coding.code='performing' implies ExplanationOfBenefit.careTeam.qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')}</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.id</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -2167,7 +2167,7 @@
     <t>To support inclusion of the item for adjudication or to charge an elevated fee.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AMACPTCMSHCPCSProcedureModifiers</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AMACPTCMSHCPCSModifiers</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.programCode</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -1562,7 +1562,7 @@
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProviderContractingStatus</t>
   </si>
   <si>
-    <t>clmrecvddate</t>
+    <t>claimrecvddate</t>
   </si>
   <si>
     <t>Claim Received Date</t>
@@ -1571,7 +1571,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
-    &lt;code value="clmrecvddate"/&gt;
+    &lt;code value="claimrecvddate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13830" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13836" uniqueCount="1081">
   <si>
     <t>Path</t>
   </si>
@@ -1392,7 +1392,7 @@
     <t>When multiple parties are present it is required to distinguish the roles performed by each member.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CARINBBInstitutionalClaimCareTeamRoleCodes</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBClaimInstitutionalCareTeamRole</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.qualification</t>
@@ -1559,7 +1559,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProviderContractingStatus</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayerProviderContractingStatus</t>
   </si>
   <si>
     <t>claimrecvddate</t>
@@ -1714,7 +1714,7 @@
     <t>Often required to capture a particular diagnosis, for example: primary or discharge.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerOutpatientinstitutionaldiagnosistype</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBClaimOutpatientInstitutionalDiagnosisType</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.onAdmission</t>
@@ -2400,7 +2400,10 @@
     <t>Needed to enable understanding of the context of the other information in the adjudication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategory</t>
+    <t>The adjudication codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/adjudication</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.reason</t>
@@ -2460,7 +2463,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationCarinBBValueCodes</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBAdjudication</t>
   </si>
   <si>
     <t>denialreason</t>
@@ -2940,7 +2943,7 @@
     <t>Benefit Payment Status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatus</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayerBenefitPaymentStatus</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment</t>
@@ -2976,7 +2979,7 @@
     <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCode</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayerClaimPaymentStatusCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.adjustment</t>
@@ -3548,7 +3551,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.60546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="81.46484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -26385,11 +26388,13 @@
         <v>43</v>
       </c>
       <c r="W205" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X205" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>762</v>
+      </c>
       <c r="Y205" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>43</v>
@@ -26436,7 +26441,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26462,16 +26467,16 @@
         <v>178</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26499,10 +26504,10 @@
         <v>116</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>43</v>
@@ -26520,7 +26525,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26549,7 +26554,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26575,16 +26580,16 @@
         <v>711</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26633,7 +26638,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -26662,7 +26667,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26688,16 +26693,16 @@
         <v>716</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26746,7 +26751,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>41</v>
@@ -26778,7 +26783,7 @@
         <v>748</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>43</v>
@@ -26803,7 +26808,7 @@
         <v>310</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L209" t="s" s="2">
         <v>750</v>
@@ -27285,7 +27290,7 @@
       </c>
       <c r="X213" s="2"/>
       <c r="Y213" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Z213" t="s" s="2">
         <v>43</v>
@@ -27332,7 +27337,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27358,16 +27363,16 @@
         <v>178</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27395,10 +27400,10 @@
         <v>116</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Z214" t="s" s="2">
         <v>43</v>
@@ -27416,7 +27421,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27445,7 +27450,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27471,16 +27476,16 @@
         <v>711</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27529,7 +27534,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27558,7 +27563,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27584,16 +27589,16 @@
         <v>716</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27642,7 +27647,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27674,7 +27679,7 @@
         <v>748</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C217" t="s" s="2">
         <v>43</v>
@@ -27699,7 +27704,7 @@
         <v>310</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L217" t="s" s="2">
         <v>750</v>
@@ -28162,7 +28167,7 @@
         <v>43</v>
       </c>
       <c r="R221" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>43</v>
@@ -28177,11 +28182,13 @@
         <v>43</v>
       </c>
       <c r="W221" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X221" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X221" t="s" s="2">
+        <v>762</v>
+      </c>
       <c r="Y221" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Z221" t="s" s="2">
         <v>43</v>
@@ -28228,7 +28235,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28254,16 +28261,16 @@
         <v>178</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28292,7 +28299,7 @@
       </c>
       <c r="X222" s="2"/>
       <c r="Y222" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="Z222" t="s" s="2">
         <v>43</v>
@@ -28310,7 +28317,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28339,7 +28346,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28365,16 +28372,16 @@
         <v>711</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28423,7 +28430,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28452,7 +28459,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28478,16 +28485,16 @@
         <v>716</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28536,7 +28543,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28568,7 +28575,7 @@
         <v>748</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C225" t="s" s="2">
         <v>43</v>
@@ -28593,7 +28600,7 @@
         <v>310</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L225" t="s" s="2">
         <v>750</v>
@@ -29056,7 +29063,7 @@
         <v>43</v>
       </c>
       <c r="R229" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="S229" t="s" s="2">
         <v>43</v>
@@ -29071,11 +29078,13 @@
         <v>43</v>
       </c>
       <c r="W229" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X229" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>762</v>
+      </c>
       <c r="Y229" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Z229" t="s" s="2">
         <v>43</v>
@@ -29122,7 +29131,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29148,16 +29157,16 @@
         <v>178</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -29185,10 +29194,10 @@
         <v>116</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Z230" t="s" s="2">
         <v>43</v>
@@ -29206,7 +29215,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29235,7 +29244,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29261,16 +29270,16 @@
         <v>711</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>43</v>
@@ -29319,7 +29328,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -29348,7 +29357,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29374,16 +29383,16 @@
         <v>716</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29432,7 +29441,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>41</v>
@@ -29461,7 +29470,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29487,10 +29496,10 @@
         <v>310</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
@@ -29541,7 +29550,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29570,7 +29579,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29679,7 +29688,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29790,7 +29799,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29903,7 +29912,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29929,10 +29938,10 @@
         <v>420</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
@@ -29985,7 +29994,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>50</v>
@@ -30014,7 +30023,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30075,28 +30084,28 @@
         <v>116</v>
       </c>
       <c r="X238" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="Z238" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA238" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB238" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC238" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD238" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE238" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="Y238" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="Z238" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA238" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB238" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC238" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD238" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE238" t="s" s="2">
-        <v>799</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30125,7 +30134,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30157,7 +30166,7 @@
         <v>669</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N239" t="s" s="2">
         <v>671</v>
@@ -30209,7 +30218,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30238,7 +30247,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30264,13 +30273,13 @@
         <v>178</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L240" t="s" s="2">
         <v>677</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N240" t="s" s="2">
         <v>679</v>
@@ -30301,10 +30310,10 @@
         <v>116</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Z240" t="s" s="2">
         <v>43</v>
@@ -30322,7 +30331,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>50</v>
@@ -30351,7 +30360,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30377,7 +30386,7 @@
         <v>178</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L241" t="s" s="2">
         <v>683</v>
@@ -30414,10 +30423,10 @@
         <v>116</v>
       </c>
       <c r="X241" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
@@ -30435,7 +30444,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -30464,7 +30473,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30548,7 +30557,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30577,7 +30586,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30659,7 +30668,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30688,7 +30697,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30770,7 +30779,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30799,7 +30808,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30883,7 +30892,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30912,7 +30921,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30996,7 +31005,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31025,7 +31034,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31107,7 +31116,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -31136,7 +31145,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31162,7 +31171,7 @@
         <v>420</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L248" t="s" s="2">
         <v>746</v>
@@ -31218,7 +31227,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -31247,7 +31256,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31273,10 +31282,10 @@
         <v>43</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
@@ -31327,7 +31336,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31356,7 +31365,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31382,10 +31391,10 @@
         <v>310</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
@@ -31436,7 +31445,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31465,7 +31474,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31574,7 +31583,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31685,7 +31694,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31798,7 +31807,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31824,10 +31833,10 @@
         <v>420</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" t="s" s="2">
@@ -31880,7 +31889,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>50</v>
@@ -31909,7 +31918,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31970,10 +31979,10 @@
         <v>116</v>
       </c>
       <c r="X255" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="Z255" t="s" s="2">
         <v>43</v>
@@ -31991,7 +32000,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32020,7 +32029,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32104,7 +32113,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -32133,7 +32142,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32159,13 +32168,13 @@
         <v>178</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L257" t="s" s="2">
         <v>677</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N257" t="s" s="2">
         <v>679</v>
@@ -32196,10 +32205,10 @@
         <v>116</v>
       </c>
       <c r="X257" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Z257" t="s" s="2">
         <v>43</v>
@@ -32217,7 +32226,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>50</v>
@@ -32246,7 +32255,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32272,13 +32281,13 @@
         <v>178</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L258" t="s" s="2">
         <v>683</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N258" t="s" s="2">
         <v>685</v>
@@ -32309,10 +32318,10 @@
         <v>116</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>43</v>
@@ -32330,7 +32339,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32359,7 +32368,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32443,7 +32452,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32472,7 +32481,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32554,7 +32563,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32583,7 +32592,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32665,7 +32674,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32694,7 +32703,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32778,7 +32787,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32807,7 +32816,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32891,7 +32900,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32920,7 +32929,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33002,7 +33011,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -33031,7 +33040,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33057,7 +33066,7 @@
         <v>420</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L265" t="s" s="2">
         <v>746</v>
@@ -33113,7 +33122,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -33142,7 +33151,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33168,10 +33177,10 @@
         <v>43</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
@@ -33222,7 +33231,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33251,7 +33260,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33277,14 +33286,14 @@
         <v>310</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33333,7 +33342,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33362,7 +33371,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33471,7 +33480,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33582,7 +33591,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33695,7 +33704,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33721,14 +33730,14 @@
         <v>420</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33777,7 +33786,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33806,7 +33815,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33832,14 +33841,14 @@
         <v>420</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33888,7 +33897,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33917,7 +33926,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33943,14 +33952,14 @@
         <v>420</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33999,7 +34008,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34028,7 +34037,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34051,17 +34060,17 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -34110,7 +34119,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34139,7 +34148,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34165,13 +34174,13 @@
         <v>178</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L275" t="s" s="2">
         <v>677</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N275" t="s" s="2">
         <v>679</v>
@@ -34202,10 +34211,10 @@
         <v>116</v>
       </c>
       <c r="X275" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Y275" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Z275" t="s" s="2">
         <v>43</v>
@@ -34223,7 +34232,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>50</v>
@@ -34252,7 +34261,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34278,7 +34287,7 @@
         <v>178</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L276" t="s" s="2">
         <v>683</v>
@@ -34315,10 +34324,10 @@
         <v>116</v>
       </c>
       <c r="X276" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Y276" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="Z276" t="s" s="2">
         <v>43</v>
@@ -34336,7 +34345,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34365,7 +34374,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34449,7 +34458,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34478,7 +34487,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34560,7 +34569,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34589,7 +34598,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34671,7 +34680,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34700,7 +34709,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34782,7 +34791,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34811,7 +34820,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34893,7 +34902,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34922,7 +34931,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35006,7 +35015,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -35035,7 +35044,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35119,7 +35128,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35148,7 +35157,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35180,7 +35189,7 @@
         <v>729</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N284" t="s" s="2">
         <v>731</v>
@@ -35232,7 +35241,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35261,7 +35270,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35343,7 +35352,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35372,7 +35381,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35398,7 +35407,7 @@
         <v>420</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L286" t="s" s="2">
         <v>746</v>
@@ -35454,7 +35463,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35483,7 +35492,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35509,10 +35518,10 @@
         <v>43</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
@@ -35563,7 +35572,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35592,7 +35601,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35618,10 +35627,10 @@
         <v>310</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
@@ -35672,7 +35681,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35701,7 +35710,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35810,7 +35819,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35921,7 +35930,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36034,7 +36043,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36060,13 +36069,13 @@
         <v>178</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L292" t="s" s="2">
         <v>677</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N292" t="s" s="2">
         <v>679</v>
@@ -36097,10 +36106,10 @@
         <v>116</v>
       </c>
       <c r="X292" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Y292" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Z292" t="s" s="2">
         <v>43</v>
@@ -36118,7 +36127,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>50</v>
@@ -36147,7 +36156,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36173,7 +36182,7 @@
         <v>178</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L293" t="s" s="2">
         <v>683</v>
@@ -36210,10 +36219,10 @@
         <v>116</v>
       </c>
       <c r="X293" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Y293" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="Z293" t="s" s="2">
         <v>43</v>
@@ -36231,7 +36240,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36260,7 +36269,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36342,7 +36351,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36371,7 +36380,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36453,7 +36462,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36482,7 +36491,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36566,7 +36575,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36595,7 +36604,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36679,7 +36688,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36708,7 +36717,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36734,7 +36743,7 @@
         <v>420</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L298" t="s" s="2">
         <v>746</v>
@@ -36790,7 +36799,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36819,7 +36828,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36845,10 +36854,10 @@
         <v>43</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -36899,7 +36908,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36928,7 +36937,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36954,10 +36963,10 @@
         <v>310</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -37008,7 +37017,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37037,7 +37046,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37146,7 +37155,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37257,7 +37266,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37370,7 +37379,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37396,13 +37405,13 @@
         <v>178</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L304" t="s" s="2">
         <v>677</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N304" t="s" s="2">
         <v>679</v>
@@ -37433,10 +37442,10 @@
         <v>116</v>
       </c>
       <c r="X304" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Y304" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Z304" t="s" s="2">
         <v>43</v>
@@ -37454,7 +37463,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>50</v>
@@ -37483,7 +37492,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37509,7 +37518,7 @@
         <v>178</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L305" t="s" s="2">
         <v>683</v>
@@ -37546,10 +37555,10 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Y305" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
@@ -37567,7 +37576,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37596,7 +37605,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37678,7 +37687,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37707,7 +37716,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37789,7 +37798,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37818,7 +37827,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37902,7 +37911,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37931,7 +37940,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -38015,7 +38024,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38044,7 +38053,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38070,7 +38079,7 @@
         <v>420</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L310" t="s" s="2">
         <v>746</v>
@@ -38126,7 +38135,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38155,7 +38164,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38181,10 +38190,10 @@
         <v>43</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -38235,7 +38244,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38264,7 +38273,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38290,14 +38299,14 @@
         <v>310</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38346,7 +38355,7 @@
         <v>753</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38375,7 +38384,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38484,7 +38493,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38595,7 +38604,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38708,7 +38717,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38768,11 +38777,13 @@
         <v>43</v>
       </c>
       <c r="W316" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X316" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X316" t="s" s="2">
+        <v>762</v>
+      </c>
       <c r="Y316" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Z316" t="s" s="2">
         <v>43</v>
@@ -38819,7 +38830,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38845,16 +38856,16 @@
         <v>178</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38882,10 +38893,10 @@
         <v>116</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Z317" t="s" s="2">
         <v>43</v>
@@ -38903,7 +38914,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38932,7 +38943,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38958,16 +38969,16 @@
         <v>711</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39016,7 +39027,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39045,7 +39056,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39071,16 +39082,16 @@
         <v>716</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39129,7 +39140,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39158,10 +39169,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C320" t="s" s="2">
         <v>43</v>
@@ -39186,14 +39197,14 @@
         <v>310</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -39242,7 +39253,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39271,7 +39282,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39380,7 +39391,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39491,7 +39502,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39602,9 +39613,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="324" hidden="true">
+    <row r="324">
       <c r="A324" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39618,7 +39629,7 @@
         <v>50</v>
       </c>
       <c r="G324" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H324" t="s" s="2">
         <v>43</v>
@@ -39668,7 +39679,7 @@
       </c>
       <c r="X324" s="2"/>
       <c r="Y324" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Z324" t="s" s="2">
         <v>43</v>
@@ -39715,7 +39726,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39741,16 +39752,16 @@
         <v>178</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39778,10 +39789,10 @@
         <v>116</v>
       </c>
       <c r="X325" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Z325" t="s" s="2">
         <v>43</v>
@@ -39799,7 +39810,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39828,7 +39839,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39854,16 +39865,16 @@
         <v>711</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39912,7 +39923,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39941,7 +39952,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39967,16 +39978,16 @@
         <v>716</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40025,7 +40036,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40054,10 +40065,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C328" t="s" s="2">
         <v>43</v>
@@ -40082,14 +40093,14 @@
         <v>310</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -40138,7 +40149,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40167,7 +40178,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40276,7 +40287,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40387,7 +40398,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40498,9 +40509,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="332" hidden="true">
+    <row r="332">
       <c r="A332" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40514,7 +40525,7 @@
         <v>50</v>
       </c>
       <c r="G332" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H332" t="s" s="2">
         <v>43</v>
@@ -40545,7 +40556,7 @@
         <v>43</v>
       </c>
       <c r="R332" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="S332" t="s" s="2">
         <v>43</v>
@@ -40560,11 +40571,13 @@
         <v>43</v>
       </c>
       <c r="W332" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X332" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X332" t="s" s="2">
+        <v>762</v>
+      </c>
       <c r="Y332" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Z332" t="s" s="2">
         <v>43</v>
@@ -40611,7 +40624,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40637,16 +40650,16 @@
         <v>178</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40675,7 +40688,7 @@
       </c>
       <c r="X333" s="2"/>
       <c r="Y333" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="Z333" t="s" s="2">
         <v>43</v>
@@ -40693,7 +40706,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40722,7 +40735,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40748,16 +40761,16 @@
         <v>711</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40806,7 +40819,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
@@ -40835,7 +40848,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40861,16 +40874,16 @@
         <v>716</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40919,7 +40932,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -40948,7 +40961,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40974,16 +40987,16 @@
         <v>310</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41020,7 +41033,7 @@
         <v>43</v>
       </c>
       <c r="AA336" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AB336" t="s" s="2">
         <v>453</v>
@@ -41032,7 +41045,7 @@
         <v>76</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41061,7 +41074,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41170,7 +41183,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41281,7 +41294,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41394,7 +41407,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41423,13 +41436,13 @@
         <v>758</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M340" t="s" s="2">
         <v>760</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41454,11 +41467,13 @@
         <v>43</v>
       </c>
       <c r="W340" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X340" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X340" t="s" s="2">
+        <v>762</v>
+      </c>
       <c r="Y340" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Z340" t="s" s="2">
         <v>43</v>
@@ -41476,7 +41491,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>50</v>
@@ -41505,7 +41520,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41531,14 +41546,14 @@
         <v>711</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M341" s="2"/>
       <c r="N341" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41587,7 +41602,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>50</v>
@@ -41616,10 +41631,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C342" t="s" s="2">
         <v>43</v>
@@ -41644,16 +41659,16 @@
         <v>310</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41702,7 +41717,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41731,7 +41746,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41840,7 +41855,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41951,7 +41966,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42064,7 +42079,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42093,13 +42108,13 @@
         <v>758</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M346" t="s" s="2">
         <v>760</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42128,7 +42143,7 @@
       </c>
       <c r="X346" s="2"/>
       <c r="Y346" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Z346" t="s" s="2">
         <v>43</v>
@@ -42146,7 +42161,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>50</v>
@@ -42175,7 +42190,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42201,14 +42216,14 @@
         <v>711</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42257,7 +42272,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>50</v>
@@ -42286,10 +42301,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C348" t="s" s="2">
         <v>43</v>
@@ -42314,16 +42329,16 @@
         <v>310</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42372,7 +42387,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42401,7 +42416,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42510,7 +42525,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42621,7 +42636,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42734,7 +42749,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42763,13 +42778,13 @@
         <v>758</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M352" t="s" s="2">
         <v>760</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42798,7 +42813,7 @@
       </c>
       <c r="X352" s="2"/>
       <c r="Y352" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="Z352" t="s" s="2">
         <v>43</v>
@@ -42816,7 +42831,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>50</v>
@@ -42845,7 +42860,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42871,14 +42886,14 @@
         <v>711</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="O353" t="s" s="2">
         <v>43</v>
@@ -42927,7 +42942,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>50</v>
@@ -42956,7 +42971,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -42982,14 +42997,14 @@
         <v>310</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M354" s="2"/>
       <c r="N354" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>43</v>
@@ -43038,7 +43053,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
@@ -43067,7 +43082,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43176,7 +43191,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43287,7 +43302,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43400,7 +43415,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43426,14 +43441,14 @@
         <v>178</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="M358" s="2"/>
       <c r="N358" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43462,7 +43477,7 @@
       </c>
       <c r="X358" s="2"/>
       <c r="Y358" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="Z358" t="s" s="2">
         <v>43</v>
@@ -43480,7 +43495,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43509,7 +43524,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43535,16 +43550,16 @@
         <v>711</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43593,7 +43608,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43622,7 +43637,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43648,14 +43663,14 @@
         <v>178</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43683,10 +43698,10 @@
         <v>116</v>
       </c>
       <c r="X360" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="Y360" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="Z360" t="s" s="2">
         <v>43</v>
@@ -43704,7 +43719,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43733,7 +43748,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43759,14 +43774,14 @@
         <v>498</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43815,7 +43830,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43844,7 +43859,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43870,14 +43885,14 @@
         <v>711</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43926,7 +43941,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -43955,7 +43970,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -43981,16 +43996,16 @@
         <v>159</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44039,7 +44054,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44068,7 +44083,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44094,16 +44109,16 @@
         <v>178</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44131,10 +44146,10 @@
         <v>116</v>
       </c>
       <c r="X364" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="Y364" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="Z364" t="s" s="2">
         <v>43</v>
@@ -44152,7 +44167,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44181,7 +44196,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44204,19 +44219,19 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44265,7 +44280,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
@@ -44294,7 +44309,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44320,14 +44335,14 @@
         <v>310</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M366" s="2"/>
       <c r="N366" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44376,7 +44391,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44405,7 +44420,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44514,7 +44529,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44625,7 +44640,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44738,7 +44753,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44764,14 +44779,14 @@
         <v>420</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="M370" s="2"/>
       <c r="N370" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44820,7 +44835,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>41</v>
@@ -44849,7 +44864,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44875,14 +44890,14 @@
         <v>126</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M371" s="2"/>
       <c r="N371" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -44910,10 +44925,10 @@
         <v>172</v>
       </c>
       <c r="X371" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="Y371" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="Z371" t="s" s="2">
         <v>43</v>
@@ -44931,7 +44946,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
@@ -44960,7 +44975,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -44986,14 +45001,14 @@
         <v>52</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M372" s="2"/>
       <c r="N372" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -45042,7 +45057,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -45071,7 +45086,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45097,16 +45112,16 @@
         <v>178</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45155,7 +45170,7 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>41</v>
@@ -45184,7 +45199,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45210,16 +45225,16 @@
         <v>205</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45268,7 +45283,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>41</v>
@@ -45297,7 +45312,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45323,10 +45338,10 @@
         <v>310</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
@@ -45377,7 +45392,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45406,7 +45421,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45515,7 +45530,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45626,7 +45641,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45739,7 +45754,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45774,7 +45789,7 @@
         <v>670</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45823,7 +45838,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>50</v>
@@ -45852,7 +45867,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45878,14 +45893,14 @@
         <v>431</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45934,7 +45949,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45963,7 +45978,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45989,16 +46004,16 @@
         <v>52</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46047,7 +46062,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46076,7 +46091,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46102,16 +46117,16 @@
         <v>52</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46160,7 +46175,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46189,7 +46204,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46215,14 +46230,14 @@
         <v>178</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46250,10 +46265,10 @@
         <v>116</v>
       </c>
       <c r="X383" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="Y383" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="Z383" t="s" s="2">
         <v>43</v>
@@ -46271,7 +46286,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46300,7 +46315,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46326,14 +46341,14 @@
         <v>178</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="M384" s="2"/>
       <c r="N384" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46361,10 +46376,10 @@
         <v>116</v>
       </c>
       <c r="X384" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="Y384" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="Z384" t="s" s="2">
         <v>43</v>
@@ -46382,7 +46397,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46411,7 +46426,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46437,14 +46452,14 @@
         <v>178</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="M385" s="2"/>
       <c r="N385" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
@@ -46472,10 +46487,10 @@
         <v>116</v>
       </c>
       <c r="X385" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="Y385" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
@@ -46493,7 +46508,7 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
@@ -46522,7 +46537,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46548,10 +46563,10 @@
         <v>310</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="M386" s="2"/>
       <c r="N386" s="2"/>
@@ -46602,7 +46617,7 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
@@ -46631,7 +46646,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46740,7 +46755,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46851,7 +46866,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46964,7 +46979,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -46993,13 +47008,13 @@
         <v>668</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -47027,10 +47042,10 @@
         <v>116</v>
       </c>
       <c r="X390" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="Y390" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="Z390" t="s" s="2">
         <v>43</v>
@@ -47048,7 +47063,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>50</v>
@@ -47077,7 +47092,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47100,17 +47115,17 @@
         <v>43</v>
       </c>
       <c r="J391" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47159,7 +47174,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47188,7 +47203,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47211,17 +47226,17 @@
         <v>43</v>
       </c>
       <c r="J392" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="M392" s="2"/>
       <c r="N392" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47270,7 +47285,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
